--- a/docs/Data/TyeeCatchData.xlsx
+++ b/docs/Data/TyeeCatchData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evogt\R Analysis\Tyee\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evogt\R Analysis\EAV\GitHubMarkdown\R-Markdown-GitHub-Page\docs\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F2656C-9AC9-4915-894E-923DF54D762B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B06755-B81D-472E-B608-7AE947872EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0CB3CDF9-0205-43C4-ADC8-DEC6E991EEB1}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0CB3CDF9-0205-43C4-ADC8-DEC6E991EEB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="20">
   <si>
     <t>Year</t>
   </si>
@@ -70,12 +70,6 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>36 </t>
-  </si>
-  <si>
-    <t>31.5 </t>
-  </si>
-  <si>
     <t xml:space="preserve">Plug  </t>
   </si>
   <si>
@@ -89,9 +83,6 @@
   </si>
   <si>
     <t xml:space="preserve">Spoon </t>
-  </si>
-  <si>
-    <t>32 </t>
   </si>
   <si>
     <t>RawTime</t>
@@ -468,33 +459,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A99EFA95-E1A2-4F3D-8001-3428518B60BC}">
   <dimension ref="A1:J720"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -506,19 +497,19 @@
         <v>3</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="J1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2002</v>
       </c>
@@ -545,7 +536,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2002</v>
       </c>
@@ -558,8 +549,8 @@
       <c r="D3" s="1">
         <v>44808</v>
       </c>
-      <c r="E3" t="s">
-        <v>10</v>
+      <c r="E3">
+        <v>36</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
@@ -572,7 +563,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2002</v>
       </c>
@@ -599,7 +590,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2002</v>
       </c>
@@ -612,8 +603,8 @@
       <c r="D5" s="1">
         <v>44818</v>
       </c>
-      <c r="E5" t="s">
-        <v>11</v>
+      <c r="E5">
+        <v>31.5</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
@@ -626,7 +617,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2002</v>
       </c>
@@ -653,7 +644,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2002</v>
       </c>
@@ -680,7 +671,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2002</v>
       </c>
@@ -707,7 +698,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2002</v>
       </c>
@@ -734,7 +725,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2002</v>
       </c>
@@ -761,7 +752,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2002</v>
       </c>
@@ -788,7 +779,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2002</v>
       </c>
@@ -815,7 +806,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2002</v>
       </c>
@@ -842,7 +833,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2002</v>
       </c>
@@ -869,7 +860,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2002</v>
       </c>
@@ -896,7 +887,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2002</v>
       </c>
@@ -923,7 +914,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2002</v>
       </c>
@@ -950,7 +941,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2002</v>
       </c>
@@ -977,7 +968,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2002</v>
       </c>
@@ -1004,7 +995,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2002</v>
       </c>
@@ -1031,7 +1022,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2002</v>
       </c>
@@ -1058,7 +1049,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2002</v>
       </c>
@@ -1085,7 +1076,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2002</v>
       </c>
@@ -1112,7 +1103,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2002</v>
       </c>
@@ -1139,7 +1130,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2002</v>
       </c>
@@ -1166,7 +1157,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2002</v>
       </c>
@@ -1193,7 +1184,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2002</v>
       </c>
@@ -1220,7 +1211,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2002</v>
       </c>
@@ -1247,7 +1238,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2002</v>
       </c>
@@ -1274,7 +1265,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2002</v>
       </c>
@@ -1301,7 +1292,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2002</v>
       </c>
@@ -1328,7 +1319,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2002</v>
       </c>
@@ -1355,7 +1346,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2002</v>
       </c>
@@ -1382,7 +1373,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2002</v>
       </c>
@@ -1409,7 +1400,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2002</v>
       </c>
@@ -1436,7 +1427,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2002</v>
       </c>
@@ -1463,7 +1454,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2002</v>
       </c>
@@ -1490,7 +1481,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2002</v>
       </c>
@@ -1517,7 +1508,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2002</v>
       </c>
@@ -1544,7 +1535,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>2002</v>
       </c>
@@ -1571,7 +1562,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>2002</v>
       </c>
@@ -1598,7 +1589,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>2002</v>
       </c>
@@ -1625,7 +1616,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2002</v>
       </c>
@@ -1652,7 +1643,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2002</v>
       </c>
@@ -1679,7 +1670,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2002</v>
       </c>
@@ -1706,7 +1697,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>2002</v>
       </c>
@@ -1733,7 +1724,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>2002</v>
       </c>
@@ -1760,7 +1751,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>2002</v>
       </c>
@@ -1787,7 +1778,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>2002</v>
       </c>
@@ -1814,7 +1805,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>2002</v>
       </c>
@@ -1841,7 +1832,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2002</v>
       </c>
@@ -1868,7 +1859,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>2002</v>
       </c>
@@ -1895,7 +1886,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>2002</v>
       </c>
@@ -1922,7 +1913,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>2002</v>
       </c>
@@ -1949,7 +1940,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>2002</v>
       </c>
@@ -1976,7 +1967,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>2002</v>
       </c>
@@ -2003,7 +1994,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>2002</v>
       </c>
@@ -2030,7 +2021,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>2002</v>
       </c>
@@ -2057,7 +2048,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>2002</v>
       </c>
@@ -2084,7 +2075,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>2002</v>
       </c>
@@ -2111,7 +2102,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>2002</v>
       </c>
@@ -2138,7 +2129,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>2002</v>
       </c>
@@ -2165,7 +2156,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>2002</v>
       </c>
@@ -2192,7 +2183,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>2002</v>
       </c>
@@ -2219,7 +2210,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>2002</v>
       </c>
@@ -2246,7 +2237,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>2002</v>
       </c>
@@ -2273,7 +2264,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>2002</v>
       </c>
@@ -2300,7 +2291,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>2002</v>
       </c>
@@ -2327,7 +2318,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>2002</v>
       </c>
@@ -2354,7 +2345,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>2002</v>
       </c>
@@ -2381,7 +2372,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>2002</v>
       </c>
@@ -2408,7 +2399,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>2002</v>
       </c>
@@ -2435,7 +2426,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>2002</v>
       </c>
@@ -2462,7 +2453,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>2002</v>
       </c>
@@ -2489,7 +2480,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>2002</v>
       </c>
@@ -2516,7 +2507,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>2002</v>
       </c>
@@ -2543,7 +2534,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>2002</v>
       </c>
@@ -2570,7 +2561,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>2002</v>
       </c>
@@ -2597,7 +2588,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>2002</v>
       </c>
@@ -2624,7 +2615,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>2002</v>
       </c>
@@ -2651,7 +2642,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>2002</v>
       </c>
@@ -2678,7 +2669,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>2002</v>
       </c>
@@ -2705,7 +2696,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>2002</v>
       </c>
@@ -2732,7 +2723,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>2002</v>
       </c>
@@ -2759,7 +2750,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>2002</v>
       </c>
@@ -2786,7 +2777,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>2002</v>
       </c>
@@ -2813,7 +2804,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>2002</v>
       </c>
@@ -2826,8 +2817,8 @@
       <c r="D87" s="1">
         <v>44808</v>
       </c>
-      <c r="E87" t="s">
-        <v>17</v>
+      <c r="E87">
+        <v>32</v>
       </c>
       <c r="H87" s="2">
         <v>0</v>
@@ -2840,7 +2831,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>2002</v>
       </c>
@@ -2867,7 +2858,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>2002</v>
       </c>
@@ -2894,7 +2885,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>2002</v>
       </c>
@@ -2921,7 +2912,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>2002</v>
       </c>
@@ -2948,7 +2939,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>2002</v>
       </c>
@@ -2975,7 +2966,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>2002</v>
       </c>
@@ -3002,7 +2993,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>2002</v>
       </c>
@@ -3029,7 +3020,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>2003</v>
       </c>
@@ -3062,7 +3053,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>2003</v>
       </c>
@@ -3095,7 +3086,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>2003</v>
       </c>
@@ -3128,7 +3119,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>2003</v>
       </c>
@@ -3161,7 +3152,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>2003</v>
       </c>
@@ -3194,7 +3185,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>2003</v>
       </c>
@@ -3227,7 +3218,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>2003</v>
       </c>
@@ -3260,7 +3251,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>2003</v>
       </c>
@@ -3293,7 +3284,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>2003</v>
       </c>
@@ -3326,7 +3317,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>2003</v>
       </c>
@@ -3359,7 +3350,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>2003</v>
       </c>
@@ -3392,7 +3383,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>2003</v>
       </c>
@@ -3425,7 +3416,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>2003</v>
       </c>
@@ -3458,7 +3449,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>2003</v>
       </c>
@@ -3491,7 +3482,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>2003</v>
       </c>
@@ -3524,7 +3515,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>2004</v>
       </c>
@@ -3557,7 +3548,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>2004</v>
       </c>
@@ -3590,7 +3581,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>2004</v>
       </c>
@@ -3623,7 +3614,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>2004</v>
       </c>
@@ -3656,7 +3647,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>2004</v>
       </c>
@@ -3673,7 +3664,7 @@
         <v>35</v>
       </c>
       <c r="F114" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G114" s="2">
         <v>0.2638888888888889</v>
@@ -3689,7 +3680,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>2004</v>
       </c>
@@ -3722,7 +3713,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>2004</v>
       </c>
@@ -3755,7 +3746,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>2004</v>
       </c>
@@ -3788,7 +3779,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>2004</v>
       </c>
@@ -3821,7 +3812,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>2004</v>
       </c>
@@ -3854,7 +3845,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>2004</v>
       </c>
@@ -3887,7 +3878,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>2004</v>
       </c>
@@ -3920,7 +3911,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>2004</v>
       </c>
@@ -3953,7 +3944,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>2004</v>
       </c>
@@ -3986,7 +3977,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>2004</v>
       </c>
@@ -4019,7 +4010,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>2004</v>
       </c>
@@ -4052,7 +4043,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>2004</v>
       </c>
@@ -4069,7 +4060,7 @@
         <v>33</v>
       </c>
       <c r="F126" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G126" s="2">
         <v>0.29166666666666669</v>
@@ -4085,7 +4076,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>2004</v>
       </c>
@@ -4102,7 +4093,7 @@
         <v>30.5</v>
       </c>
       <c r="F127" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G127" s="2">
         <v>0.32291666666666669</v>
@@ -4118,7 +4109,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>2004</v>
       </c>
@@ -4135,7 +4126,7 @@
         <v>31.5</v>
       </c>
       <c r="F128" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G128" s="2">
         <v>0.30208333333333331</v>
@@ -4151,7 +4142,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>2004</v>
       </c>
@@ -4184,7 +4175,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>2004</v>
       </c>
@@ -4217,7 +4208,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>2004</v>
       </c>
@@ -4234,7 +4225,7 @@
         <v>35.5</v>
       </c>
       <c r="F131" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G131" s="2">
         <v>0.33333333333333331</v>
@@ -4250,7 +4241,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>2004</v>
       </c>
@@ -4283,7 +4274,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>2004</v>
       </c>
@@ -4316,7 +4307,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>2004</v>
       </c>
@@ -4349,7 +4340,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>2004</v>
       </c>
@@ -4382,7 +4373,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>2004</v>
       </c>
@@ -4412,10 +4403,10 @@
         <v>38218.458333333336</v>
       </c>
       <c r="J136" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>2004</v>
       </c>
@@ -4448,7 +4439,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>2004</v>
       </c>
@@ -4481,7 +4472,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>2004</v>
       </c>
@@ -4498,7 +4489,7 @@
         <v>31.5</v>
       </c>
       <c r="F139" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G139" s="2">
         <v>0.30902777777777779</v>
@@ -4514,7 +4505,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>2004</v>
       </c>
@@ -4531,7 +4522,7 @@
         <v>32</v>
       </c>
       <c r="F140" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G140" s="2">
         <v>0.33333333333333331</v>
@@ -4547,7 +4538,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>2004</v>
       </c>
@@ -4580,7 +4571,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>2004</v>
       </c>
@@ -4613,7 +4604,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>2004</v>
       </c>
@@ -4646,7 +4637,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>2004</v>
       </c>
@@ -4679,7 +4670,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>2004</v>
       </c>
@@ -4712,7 +4703,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>2004</v>
       </c>
@@ -4745,7 +4736,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>2004</v>
       </c>
@@ -4778,7 +4769,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>2004</v>
       </c>
@@ -4811,7 +4802,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>2004</v>
       </c>
@@ -4828,7 +4819,7 @@
         <v>31.5</v>
       </c>
       <c r="F149" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G149" s="2">
         <v>0.83333333333333337</v>
@@ -4844,7 +4835,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>2004</v>
       </c>
@@ -4861,7 +4852,7 @@
         <v>36</v>
       </c>
       <c r="F150" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G150" s="2">
         <v>0.34375</v>
@@ -4877,7 +4868,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>2004</v>
       </c>
@@ -4894,7 +4885,7 @@
         <v>36</v>
       </c>
       <c r="F151" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G151" s="2">
         <v>0.13541666666666666</v>
@@ -4910,7 +4901,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>2004</v>
       </c>
@@ -4927,7 +4918,7 @@
         <v>36.5</v>
       </c>
       <c r="F152" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G152" s="2">
         <v>0.36805555555555558</v>
@@ -4943,7 +4934,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>2004</v>
       </c>
@@ -4960,7 +4951,7 @@
         <v>39</v>
       </c>
       <c r="F153" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G153" s="2">
         <v>0.5625</v>
@@ -4973,10 +4964,10 @@
         <v>38214.541666666664</v>
       </c>
       <c r="J153" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>2004</v>
       </c>
@@ -4993,7 +4984,7 @@
         <v>41</v>
       </c>
       <c r="F154" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G154" s="2">
         <v>0.84375</v>
@@ -5009,7 +5000,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>2004</v>
       </c>
@@ -5026,7 +5017,7 @@
         <v>31</v>
       </c>
       <c r="F155" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G155" s="2">
         <v>0.35416666666666669</v>
@@ -5042,7 +5033,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>2004</v>
       </c>
@@ -5059,7 +5050,7 @@
         <v>31.5</v>
       </c>
       <c r="F156" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G156" s="2">
         <v>0.33333333333333331</v>
@@ -5075,7 +5066,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>2004</v>
       </c>
@@ -5092,7 +5083,7 @@
         <v>38.5</v>
       </c>
       <c r="F157" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G157" s="2">
         <v>0.63541666666666663</v>
@@ -5105,10 +5096,10 @@
         <v>38213.625</v>
       </c>
       <c r="J157" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>2004</v>
       </c>
@@ -5141,7 +5132,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>2004</v>
       </c>
@@ -5174,7 +5165,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>2004</v>
       </c>
@@ -5207,7 +5198,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>2004</v>
       </c>
@@ -5240,7 +5231,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>2004</v>
       </c>
@@ -5257,7 +5248,7 @@
         <v>33</v>
       </c>
       <c r="F162" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G162" s="2">
         <v>0.33333333333333331</v>
@@ -5273,7 +5264,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>2004</v>
       </c>
@@ -5306,7 +5297,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>2004</v>
       </c>
@@ -5339,7 +5330,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>2004</v>
       </c>
@@ -5372,7 +5363,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>2004</v>
       </c>
@@ -5405,7 +5396,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>2004</v>
       </c>
@@ -5438,7 +5429,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>2004</v>
       </c>
@@ -5471,7 +5462,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>2005</v>
       </c>
@@ -5504,7 +5495,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>2005</v>
       </c>
@@ -5537,7 +5528,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>2005</v>
       </c>
@@ -5570,7 +5561,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>2005</v>
       </c>
@@ -5600,10 +5591,10 @@
         <v>38583.625</v>
       </c>
       <c r="J172" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>2005</v>
       </c>
@@ -5636,7 +5627,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>2005</v>
       </c>
@@ -5669,7 +5660,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>2005</v>
       </c>
@@ -5702,7 +5693,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>2005</v>
       </c>
@@ -5719,7 +5710,7 @@
         <v>31.5</v>
       </c>
       <c r="F176" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G176" s="2">
         <v>0.77083333333333337</v>
@@ -5735,7 +5726,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>2005</v>
       </c>
@@ -5768,7 +5759,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>2005</v>
       </c>
@@ -5801,7 +5792,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>2005</v>
       </c>
@@ -5834,7 +5825,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>2005</v>
       </c>
@@ -5867,7 +5858,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>2005</v>
       </c>
@@ -5900,7 +5891,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>2005</v>
       </c>
@@ -5917,7 +5908,7 @@
         <v>30.5</v>
       </c>
       <c r="F182" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G182" s="2">
         <v>0.55208333333333337</v>
@@ -5930,10 +5921,10 @@
         <v>38599.541666666664</v>
       </c>
       <c r="J182" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>2005</v>
       </c>
@@ -5966,7 +5957,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>2005</v>
       </c>
@@ -5999,7 +5990,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>2005</v>
       </c>
@@ -6016,7 +6007,7 @@
         <v>30</v>
       </c>
       <c r="F185" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G185" s="2">
         <v>0.59375</v>
@@ -6029,10 +6020,10 @@
         <v>38610.583333333336</v>
       </c>
       <c r="J185" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>2005</v>
       </c>
@@ -6065,7 +6056,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>2005</v>
       </c>
@@ -6098,7 +6089,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>2005</v>
       </c>
@@ -6131,7 +6122,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>2005</v>
       </c>
@@ -6164,7 +6155,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>2005</v>
       </c>
@@ -6181,7 +6172,7 @@
         <v>37.5</v>
       </c>
       <c r="F190" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G190" s="2">
         <v>0.3125</v>
@@ -6197,7 +6188,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>2005</v>
       </c>
@@ -6230,7 +6221,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>2005</v>
       </c>
@@ -6263,7 +6254,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>2005</v>
       </c>
@@ -6280,7 +6271,7 @@
         <v>34.5</v>
       </c>
       <c r="F193" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G193" s="2">
         <v>0.53125</v>
@@ -6293,10 +6284,10 @@
         <v>38581.5</v>
       </c>
       <c r="J193" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>2005</v>
       </c>
@@ -6329,7 +6320,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>2005</v>
       </c>
@@ -6362,7 +6353,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>2005</v>
       </c>
@@ -6395,7 +6386,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>2005</v>
       </c>
@@ -6428,7 +6419,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>2005</v>
       </c>
@@ -6461,7 +6452,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>2005</v>
       </c>
@@ -6478,7 +6469,7 @@
         <v>47</v>
       </c>
       <c r="F199" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G199" s="2">
         <v>0.27777777777777779</v>
@@ -6494,7 +6485,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>2005</v>
       </c>
@@ -6527,7 +6518,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>2005</v>
       </c>
@@ -6544,7 +6535,7 @@
         <v>33.5</v>
       </c>
       <c r="F201" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G201" s="2">
         <v>0.53472222222222221</v>
@@ -6557,10 +6548,10 @@
         <v>38568.5</v>
       </c>
       <c r="J201" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>2005</v>
       </c>
@@ -6577,7 +6568,7 @@
         <v>30</v>
       </c>
       <c r="F202" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G202" s="2">
         <v>0.22916666666666666</v>
@@ -6593,7 +6584,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>2005</v>
       </c>
@@ -6626,7 +6617,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>2005</v>
       </c>
@@ -6659,7 +6650,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>2005</v>
       </c>
@@ -6676,7 +6667,7 @@
         <v>32.5</v>
       </c>
       <c r="F205" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G205" s="2">
         <v>0.83333333333333337</v>
@@ -6692,7 +6683,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>2005</v>
       </c>
@@ -6725,7 +6716,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>2005</v>
       </c>
@@ -6758,7 +6749,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>2005</v>
       </c>
@@ -6791,7 +6782,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>2005</v>
       </c>
@@ -6824,7 +6815,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>2005</v>
       </c>
@@ -6857,7 +6848,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>2005</v>
       </c>
@@ -6874,7 +6865,7 @@
         <v>32</v>
       </c>
       <c r="F211" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G211" s="2">
         <v>0.85069444444444453</v>
@@ -6890,7 +6881,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>2005</v>
       </c>
@@ -6923,7 +6914,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>2005</v>
       </c>
@@ -6956,7 +6947,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>2006</v>
       </c>
@@ -6989,7 +6980,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>2006</v>
       </c>
@@ -7022,7 +7013,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>2006</v>
       </c>
@@ -7055,7 +7046,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>2006</v>
       </c>
@@ -7088,7 +7079,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>2006</v>
       </c>
@@ -7121,7 +7112,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>2006</v>
       </c>
@@ -7154,7 +7145,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>2006</v>
       </c>
@@ -7187,7 +7178,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>2006</v>
       </c>
@@ -7204,7 +7195,7 @@
         <v>36.5</v>
       </c>
       <c r="F221" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G221" s="2">
         <v>0.33333333333333331</v>
@@ -7220,7 +7211,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>2006</v>
       </c>
@@ -7253,7 +7244,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>2006</v>
       </c>
@@ -7286,7 +7277,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>2006</v>
       </c>
@@ -7319,7 +7310,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>2006</v>
       </c>
@@ -7352,7 +7343,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>2006</v>
       </c>
@@ -7385,7 +7376,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>2006</v>
       </c>
@@ -7418,7 +7409,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>2006</v>
       </c>
@@ -7435,7 +7426,7 @@
         <v>30</v>
       </c>
       <c r="F228" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G228" s="2">
         <v>0.27083333333333331</v>
@@ -7451,7 +7442,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>2006</v>
       </c>
@@ -7484,7 +7475,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>2006</v>
       </c>
@@ -7517,7 +7508,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>2006</v>
       </c>
@@ -7550,7 +7541,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>2006</v>
       </c>
@@ -7583,7 +7574,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>2006</v>
       </c>
@@ -7616,7 +7607,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>2006</v>
       </c>
@@ -7649,7 +7640,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>2006</v>
       </c>
@@ -7682,7 +7673,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>2006</v>
       </c>
@@ -7715,7 +7706,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>2006</v>
       </c>
@@ -7748,7 +7739,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>2006</v>
       </c>
@@ -7765,7 +7756,7 @@
         <v>30</v>
       </c>
       <c r="F238" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G238" s="2">
         <v>0.875</v>
@@ -7781,7 +7772,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>2006</v>
       </c>
@@ -7798,7 +7789,7 @@
         <v>30.5</v>
       </c>
       <c r="F239" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G239" s="2">
         <v>0.86458333333333337</v>
@@ -7814,7 +7805,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>2006</v>
       </c>
@@ -7847,7 +7838,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>2006</v>
       </c>
@@ -7880,7 +7871,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>2006</v>
       </c>
@@ -7913,7 +7904,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>2006</v>
       </c>
@@ -7946,7 +7937,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>2006</v>
       </c>
@@ -7979,7 +7970,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>2006</v>
       </c>
@@ -8012,7 +8003,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>2006</v>
       </c>
@@ -8045,7 +8036,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>2006</v>
       </c>
@@ -8078,7 +8069,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>2006</v>
       </c>
@@ -8095,7 +8086,7 @@
         <v>30</v>
       </c>
       <c r="F248" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G248" s="2">
         <v>0.85416666666666663</v>
@@ -8111,7 +8102,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>2006</v>
       </c>
@@ -8128,7 +8119,7 @@
         <v>45</v>
       </c>
       <c r="F249" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G249" s="2">
         <v>0</v>
@@ -8144,7 +8135,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>2006</v>
       </c>
@@ -8177,7 +8168,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>2006</v>
       </c>
@@ -8210,7 +8201,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>2006</v>
       </c>
@@ -8240,10 +8231,10 @@
         <v>38953.458333333336</v>
       </c>
       <c r="J252" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>2006</v>
       </c>
@@ -8276,7 +8267,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>2006</v>
       </c>
@@ -8293,7 +8284,7 @@
         <v>34</v>
       </c>
       <c r="F254" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G254" s="2">
         <v>0.84722222222222221</v>
@@ -8309,7 +8300,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>2006</v>
       </c>
@@ -8342,7 +8333,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>2006</v>
       </c>
@@ -8375,7 +8366,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>2006</v>
       </c>
@@ -8408,7 +8399,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>2006</v>
       </c>
@@ -8441,7 +8432,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>2006</v>
       </c>
@@ -8474,7 +8465,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>2006</v>
       </c>
@@ -8507,7 +8498,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>2006</v>
       </c>
@@ -8524,7 +8515,7 @@
         <v>31</v>
       </c>
       <c r="F261" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G261" s="2">
         <v>0.60416666666666663</v>
@@ -8537,10 +8528,10 @@
         <v>38936.583333333336</v>
       </c>
       <c r="J261" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>2006</v>
       </c>
@@ -8573,7 +8564,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>2006</v>
       </c>
@@ -8606,7 +8597,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>2006</v>
       </c>
@@ -8623,7 +8614,7 @@
         <v>32.5</v>
       </c>
       <c r="F264" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G264" s="2">
         <v>0.69791666666666663</v>
@@ -8639,7 +8630,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>2006</v>
       </c>
@@ -8672,7 +8663,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>2006</v>
       </c>
@@ -8705,7 +8696,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>2006</v>
       </c>
@@ -8738,7 +8729,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>2006</v>
       </c>
@@ -8771,7 +8762,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>2006</v>
       </c>
@@ -8804,7 +8795,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>2006</v>
       </c>
@@ -8837,7 +8828,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>2006</v>
       </c>
@@ -8870,7 +8861,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>2006</v>
       </c>
@@ -8903,7 +8894,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>2006</v>
       </c>
@@ -8936,7 +8927,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>2006</v>
       </c>
@@ -8969,7 +8960,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>2006</v>
       </c>
@@ -9002,7 +8993,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>2006</v>
       </c>
@@ -9035,7 +9026,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>2006</v>
       </c>
@@ -9052,7 +9043,7 @@
         <v>31.5</v>
       </c>
       <c r="F277" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G277" s="2">
         <v>0.83333333333333337</v>
@@ -9068,7 +9059,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>2007</v>
       </c>
@@ -9101,7 +9092,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>2007</v>
       </c>
@@ -9134,7 +9125,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>2007</v>
       </c>
@@ -9167,7 +9158,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>2007</v>
       </c>
@@ -9200,7 +9191,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>2007</v>
       </c>
@@ -9233,7 +9224,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>2007</v>
       </c>
@@ -9266,7 +9257,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>2007</v>
       </c>
@@ -9299,7 +9290,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>2007</v>
       </c>
@@ -9332,7 +9323,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>2007</v>
       </c>
@@ -9365,7 +9356,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>2007</v>
       </c>
@@ -9398,7 +9389,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>2007</v>
       </c>
@@ -9431,7 +9422,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>2007</v>
       </c>
@@ -9464,7 +9455,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>2007</v>
       </c>
@@ -9481,7 +9472,7 @@
         <v>33</v>
       </c>
       <c r="F290" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G290" s="2">
         <v>0.23958333333333334</v>
@@ -9497,7 +9488,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>2007</v>
       </c>
@@ -9530,7 +9521,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>2007</v>
       </c>
@@ -9547,7 +9538,7 @@
         <v>42</v>
       </c>
       <c r="F292" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G292" s="2">
         <v>0.39583333333333331</v>
@@ -9563,7 +9554,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>2007</v>
       </c>
@@ -9580,7 +9571,7 @@
         <v>41.5</v>
       </c>
       <c r="F293" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G293" s="2">
         <v>0.29166666666666669</v>
@@ -9596,7 +9587,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>2007</v>
       </c>
@@ -9613,7 +9604,7 @@
         <v>31.5</v>
       </c>
       <c r="F294" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G294" s="2">
         <v>0.625</v>
@@ -9626,10 +9617,10 @@
         <v>39329.625</v>
       </c>
       <c r="J294" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>2007</v>
       </c>
@@ -9662,7 +9653,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>2007</v>
       </c>
@@ -9695,7 +9686,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>2007</v>
       </c>
@@ -9728,7 +9719,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>2007</v>
       </c>
@@ -9761,7 +9752,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>2008</v>
       </c>
@@ -9794,7 +9785,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>2008</v>
       </c>
@@ -9827,7 +9818,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>2008</v>
       </c>
@@ -9844,7 +9835,7 @@
         <v>31</v>
       </c>
       <c r="F301" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G301" s="2">
         <v>0.27083333333333331</v>
@@ -9860,7 +9851,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>2008</v>
       </c>
@@ -9877,7 +9868,7 @@
         <v>33.5</v>
       </c>
       <c r="F302" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G302" s="2">
         <v>0.69791666666666663</v>
@@ -9893,7 +9884,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>2008</v>
       </c>
@@ -9926,7 +9917,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>2008</v>
       </c>
@@ -9959,7 +9950,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>2008</v>
       </c>
@@ -9992,7 +9983,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>2008</v>
       </c>
@@ -10025,7 +10016,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>2008</v>
       </c>
@@ -10058,7 +10049,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>2008</v>
       </c>
@@ -10091,7 +10082,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>2008</v>
       </c>
@@ -10108,7 +10099,7 @@
         <v>32</v>
       </c>
       <c r="F309" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G309" s="2">
         <v>0.5</v>
@@ -10121,10 +10112,10 @@
         <v>39682.5</v>
       </c>
       <c r="J309" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>2008</v>
       </c>
@@ -10141,7 +10132,7 @@
         <v>30.5</v>
       </c>
       <c r="F310" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G310" s="2">
         <v>0.54166666666666663</v>
@@ -10154,10 +10145,10 @@
         <v>39683.541666666664</v>
       </c>
       <c r="J310" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>2008</v>
       </c>
@@ -10190,7 +10181,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>2008</v>
       </c>
@@ -10223,7 +10214,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>2008</v>
       </c>
@@ -10256,7 +10247,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>2008</v>
       </c>
@@ -10289,7 +10280,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>2008</v>
       </c>
@@ -10322,7 +10313,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>2008</v>
       </c>
@@ -10355,7 +10346,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>2008</v>
       </c>
@@ -10388,7 +10379,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>2008</v>
       </c>
@@ -10421,7 +10412,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>2008</v>
       </c>
@@ -10438,7 +10429,7 @@
         <v>31.5</v>
       </c>
       <c r="F319" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G319" s="2">
         <v>0.82291666666666663</v>
@@ -10454,7 +10445,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>2008</v>
       </c>
@@ -10487,7 +10478,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>2008</v>
       </c>
@@ -10520,7 +10511,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>2008</v>
       </c>
@@ -10553,7 +10544,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>2008</v>
       </c>
@@ -10570,7 +10561,7 @@
         <v>33</v>
       </c>
       <c r="F323" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G323" s="2">
         <v>0.83333333333333337</v>
@@ -10586,7 +10577,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>2008</v>
       </c>
@@ -10619,7 +10610,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>2008</v>
       </c>
@@ -10652,7 +10643,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>2008</v>
       </c>
@@ -10685,7 +10676,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>2008</v>
       </c>
@@ -10718,7 +10709,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>2009</v>
       </c>
@@ -10751,7 +10742,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>2009</v>
       </c>
@@ -10784,7 +10775,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>2009</v>
       </c>
@@ -10817,7 +10808,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>2009</v>
       </c>
@@ -10850,7 +10841,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>2009</v>
       </c>
@@ -10883,7 +10874,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>2009</v>
       </c>
@@ -10916,7 +10907,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>2009</v>
       </c>
@@ -10949,7 +10940,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>2009</v>
       </c>
@@ -10982,7 +10973,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>2009</v>
       </c>
@@ -11015,7 +11006,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>2009</v>
       </c>
@@ -11048,7 +11039,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>2009</v>
       </c>
@@ -11081,7 +11072,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>2009</v>
       </c>
@@ -11114,7 +11105,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>2009</v>
       </c>
@@ -11147,7 +11138,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>2009</v>
       </c>
@@ -11180,7 +11171,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>2009</v>
       </c>
@@ -11213,7 +11204,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>2009</v>
       </c>
@@ -11246,7 +11237,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>2009</v>
       </c>
@@ -11279,7 +11270,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>2009</v>
       </c>
@@ -11312,7 +11303,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>2009</v>
       </c>
@@ -11342,10 +11333,10 @@
         <v>40067.583333333336</v>
       </c>
       <c r="J346" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>2009</v>
       </c>
@@ -11378,7 +11369,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>2009</v>
       </c>
@@ -11411,7 +11402,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>2009</v>
       </c>
@@ -11444,7 +11435,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>2009</v>
       </c>
@@ -11461,7 +11452,7 @@
         <v>32.5</v>
       </c>
       <c r="F350" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G350" s="2">
         <v>0.84375</v>
@@ -11477,7 +11468,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>2009</v>
       </c>
@@ -11494,7 +11485,7 @@
         <v>39.5</v>
       </c>
       <c r="F351" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G351" s="2">
         <v>0.85069444444444453</v>
@@ -11510,7 +11501,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>2009</v>
       </c>
@@ -11543,7 +11534,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>2009</v>
       </c>
@@ -11576,7 +11567,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>2009</v>
       </c>
@@ -11609,7 +11600,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>2009</v>
       </c>
@@ -11642,7 +11633,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>2009</v>
       </c>
@@ -11659,7 +11650,7 @@
         <v>31</v>
       </c>
       <c r="F356" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G356" s="2">
         <v>0.34375</v>
@@ -11675,7 +11666,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>2009</v>
       </c>
@@ -11692,7 +11683,7 @@
         <v>33</v>
       </c>
       <c r="F357" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G357" s="2">
         <v>0.86111111111111116</v>
@@ -11708,7 +11699,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>2009</v>
       </c>
@@ -11741,7 +11732,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>2009</v>
       </c>
@@ -11774,7 +11765,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>2009</v>
       </c>
@@ -11807,7 +11798,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>2009</v>
       </c>
@@ -11840,7 +11831,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>2009</v>
       </c>
@@ -11873,7 +11864,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>2009</v>
       </c>
@@ -11906,7 +11897,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>2009</v>
       </c>
@@ -11939,7 +11930,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>2009</v>
       </c>
@@ -11972,7 +11963,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>2009</v>
       </c>
@@ -12005,7 +11996,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>2009</v>
       </c>
@@ -12022,7 +12013,7 @@
         <v>38</v>
       </c>
       <c r="F367" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G367" s="2">
         <v>0.23958333333333334</v>
@@ -12038,7 +12029,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>2009</v>
       </c>
@@ -12071,7 +12062,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>2009</v>
       </c>
@@ -12104,7 +12095,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>2009</v>
       </c>
@@ -12121,7 +12112,7 @@
         <v>33</v>
       </c>
       <c r="F370" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G370" s="2">
         <v>0.84375</v>
@@ -12137,7 +12128,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>2009</v>
       </c>
@@ -12170,7 +12161,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>2009</v>
       </c>
@@ -12187,7 +12178,7 @@
         <v>34</v>
       </c>
       <c r="F372" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G372" s="2">
         <v>0.22916666666666666</v>
@@ -12203,7 +12194,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>2009</v>
       </c>
@@ -12220,7 +12211,7 @@
         <v>30</v>
       </c>
       <c r="F373" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G373" s="2">
         <v>0.2638888888888889</v>
@@ -12236,7 +12227,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>2009</v>
       </c>
@@ -12253,7 +12244,7 @@
         <v>34.5</v>
       </c>
       <c r="F374" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G374" s="2">
         <v>0.85416666666666663</v>
@@ -12269,7 +12260,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>2009</v>
       </c>
@@ -12286,7 +12277,7 @@
         <v>34</v>
       </c>
       <c r="F375" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G375" s="2">
         <v>0.58680555555555558</v>
@@ -12299,10 +12290,10 @@
         <v>40043.583333333336</v>
       </c>
       <c r="J375" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="376" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>2009</v>
       </c>
@@ -12335,7 +12326,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>2009</v>
       </c>
@@ -12368,7 +12359,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>2009</v>
       </c>
@@ -12385,7 +12376,7 @@
         <v>32</v>
       </c>
       <c r="F378" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G378" s="2">
         <v>0.83333333333333337</v>
@@ -12401,7 +12392,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>2009</v>
       </c>
@@ -12434,7 +12425,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>2009</v>
       </c>
@@ -12467,7 +12458,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>2009</v>
       </c>
@@ -12500,7 +12491,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>2009</v>
       </c>
@@ -12533,7 +12524,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>2009</v>
       </c>
@@ -12566,7 +12557,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>2009</v>
       </c>
@@ -12599,7 +12590,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>2010</v>
       </c>
@@ -12632,7 +12623,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>2010</v>
       </c>
@@ -12665,7 +12656,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>2010</v>
       </c>
@@ -12698,7 +12689,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>2010</v>
       </c>
@@ -12731,7 +12722,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>2010</v>
       </c>
@@ -12764,7 +12755,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>2010</v>
       </c>
@@ -12781,7 +12772,7 @@
         <v>33.5</v>
       </c>
       <c r="F390" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G390" s="2">
         <v>0.25</v>
@@ -12797,7 +12788,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>2010</v>
       </c>
@@ -12814,7 +12805,7 @@
         <v>48.5</v>
       </c>
       <c r="F391" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G391" s="2">
         <v>0.53125</v>
@@ -12827,10 +12818,10 @@
         <v>40415.5</v>
       </c>
       <c r="J391" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="392" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>2010</v>
       </c>
@@ -12863,7 +12854,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>2010</v>
       </c>
@@ -12896,7 +12887,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>2010</v>
       </c>
@@ -12929,7 +12920,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>2010</v>
       </c>
@@ -12962,7 +12953,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>2010</v>
       </c>
@@ -12995,7 +12986,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>2010</v>
       </c>
@@ -13028,7 +13019,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>2010</v>
       </c>
@@ -13058,10 +13049,10 @@
         <v>40408.458333333336</v>
       </c>
       <c r="J398" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="399" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>2010</v>
       </c>
@@ -13094,7 +13085,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>2010</v>
       </c>
@@ -13127,7 +13118,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>2010</v>
       </c>
@@ -13160,7 +13151,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>2010</v>
       </c>
@@ -13193,7 +13184,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>2010</v>
       </c>
@@ -13226,7 +13217,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>2010</v>
       </c>
@@ -13259,7 +13250,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>2010</v>
       </c>
@@ -13276,7 +13267,7 @@
         <v>38</v>
       </c>
       <c r="F405" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G405" s="2">
         <v>0.85416666666666663</v>
@@ -13292,7 +13283,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>2010</v>
       </c>
@@ -13325,7 +13316,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>2010</v>
       </c>
@@ -13358,7 +13349,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>2010</v>
       </c>
@@ -13375,7 +13366,7 @@
         <v>32.5</v>
       </c>
       <c r="F408" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G408" s="2">
         <v>0.30208333333333331</v>
@@ -13391,7 +13382,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>2010</v>
       </c>
@@ -13424,7 +13415,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>2010</v>
       </c>
@@ -13457,7 +13448,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>2010</v>
       </c>
@@ -13490,7 +13481,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>2010</v>
       </c>
@@ -13523,7 +13514,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>2010</v>
       </c>
@@ -13556,7 +13547,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>2010</v>
       </c>
@@ -13589,7 +13580,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>2010</v>
       </c>
@@ -13622,7 +13613,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>2010</v>
       </c>
@@ -13655,7 +13646,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>2010</v>
       </c>
@@ -13688,7 +13679,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>2010</v>
       </c>
@@ -13705,7 +13696,7 @@
         <v>37</v>
       </c>
       <c r="F418" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G418" s="2">
         <v>0.47916666666666669</v>
@@ -13718,10 +13709,10 @@
         <v>40428.458333333336</v>
       </c>
       <c r="J418" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="419" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>2010</v>
       </c>
@@ -13754,7 +13745,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>2010</v>
       </c>
@@ -13787,7 +13778,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>2010</v>
       </c>
@@ -13820,7 +13811,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="422" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>2010</v>
       </c>
@@ -13853,7 +13844,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>2010</v>
       </c>
@@ -13886,7 +13877,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>2010</v>
       </c>
@@ -13919,7 +13910,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>2010</v>
       </c>
@@ -13952,7 +13943,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="426" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>2010</v>
       </c>
@@ -13985,7 +13976,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="427" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>2010</v>
       </c>
@@ -14018,7 +14009,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="428" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>2010</v>
       </c>
@@ -14035,7 +14026,7 @@
         <v>38.5</v>
       </c>
       <c r="F428" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G428" s="2">
         <v>0.35416666666666669</v>
@@ -14051,7 +14042,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>2010</v>
       </c>
@@ -14084,7 +14075,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="430" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>2010</v>
       </c>
@@ -14114,10 +14105,10 @@
         <v>40422.5</v>
       </c>
       <c r="J430" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="431" spans="1:10" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="431" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>2010</v>
       </c>
@@ -14150,7 +14141,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>2010</v>
       </c>
@@ -14167,7 +14158,7 @@
         <v>31.5</v>
       </c>
       <c r="F432" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G432" s="2">
         <v>0.80902777777777779</v>
@@ -14183,7 +14174,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>2010</v>
       </c>
@@ -14216,7 +14207,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>2010</v>
       </c>
@@ -14249,7 +14240,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>2010</v>
       </c>
@@ -14282,7 +14273,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>2010</v>
       </c>
@@ -14315,7 +14306,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>2010</v>
       </c>
@@ -14348,7 +14339,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>2010</v>
       </c>
@@ -14381,7 +14372,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>2010</v>
       </c>
@@ -14414,7 +14405,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>2011</v>
       </c>
@@ -14447,7 +14438,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="441" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>2011</v>
       </c>
@@ -14480,7 +14471,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>2011</v>
       </c>
@@ -14513,7 +14504,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>2011</v>
       </c>
@@ -14546,7 +14537,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>2011</v>
       </c>
@@ -14579,7 +14570,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="445" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>2011</v>
       </c>
@@ -14612,7 +14603,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>2011</v>
       </c>
@@ -14629,7 +14620,7 @@
         <v>30</v>
       </c>
       <c r="F446" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G446" s="2">
         <v>0.875</v>
@@ -14645,7 +14636,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>2011</v>
       </c>
@@ -14678,7 +14669,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="448" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>2011</v>
       </c>
@@ -14711,7 +14702,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="449" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>2011</v>
       </c>
@@ -14744,7 +14735,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="450" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>2011</v>
       </c>
@@ -14777,7 +14768,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="451" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>2011</v>
       </c>
@@ -14810,7 +14801,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="452" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>2011</v>
       </c>
@@ -14843,7 +14834,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>2011</v>
       </c>
@@ -14876,7 +14867,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="454" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>2011</v>
       </c>
@@ -14909,7 +14900,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="455" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>2011</v>
       </c>
@@ -14942,7 +14933,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="456" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>2011</v>
       </c>
@@ -14959,7 +14950,7 @@
         <v>30</v>
       </c>
       <c r="F456" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G456" s="2">
         <v>0.29166666666666669</v>
@@ -14975,7 +14966,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="457" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>2011</v>
       </c>
@@ -14992,7 +14983,7 @@
         <v>30</v>
       </c>
       <c r="F457" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G457" s="2">
         <v>0.23958333333333334</v>
@@ -15008,7 +14999,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="458" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>2011</v>
       </c>
@@ -15041,7 +15032,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="459" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>2011</v>
       </c>
@@ -15074,7 +15065,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="460" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>2011</v>
       </c>
@@ -15107,7 +15098,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="461" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>2011</v>
       </c>
@@ -15140,7 +15131,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="462" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>2011</v>
       </c>
@@ -15173,7 +15164,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="463" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>2012</v>
       </c>
@@ -15190,7 +15181,7 @@
         <v>32</v>
       </c>
       <c r="F463" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G463" s="2">
         <v>0.86458333333333337</v>
@@ -15206,7 +15197,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="464" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>2012</v>
       </c>
@@ -15239,7 +15230,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="465" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>2012</v>
       </c>
@@ -15272,7 +15263,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="466" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>2012</v>
       </c>
@@ -15305,7 +15296,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="467" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>2012</v>
       </c>
@@ -15338,7 +15329,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="468" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>2012</v>
       </c>
@@ -15371,7 +15362,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="469" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>2012</v>
       </c>
@@ -15404,7 +15395,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="470" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>2012</v>
       </c>
@@ -15437,7 +15428,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="471" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>2012</v>
       </c>
@@ -15470,7 +15461,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="472" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>2012</v>
       </c>
@@ -15503,7 +15494,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="473" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>2012</v>
       </c>
@@ -15536,7 +15527,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="474" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>2012</v>
       </c>
@@ -15569,7 +15560,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="475" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>2012</v>
       </c>
@@ -15602,7 +15593,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="476" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A476">
         <v>2012</v>
       </c>
@@ -15635,7 +15626,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="477" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A477">
         <v>2012</v>
       </c>
@@ -15668,7 +15659,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="478" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>2012</v>
       </c>
@@ -15701,7 +15692,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="479" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>2012</v>
       </c>
@@ -15734,7 +15725,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="480" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>2012</v>
       </c>
@@ -15751,7 +15742,7 @@
         <v>33</v>
       </c>
       <c r="F480" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G480" s="2">
         <v>0.84375</v>
@@ -15767,7 +15758,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="481" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>2012</v>
       </c>
@@ -15784,7 +15775,7 @@
         <v>34.5</v>
       </c>
       <c r="F481" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G481" s="2">
         <v>0.80208333333333337</v>
@@ -15800,7 +15791,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="482" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>2012</v>
       </c>
@@ -15817,7 +15808,7 @@
         <v>42.5</v>
       </c>
       <c r="F482" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G482" s="2">
         <v>0.86458333333333337</v>
@@ -15833,7 +15824,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="483" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>2012</v>
       </c>
@@ -15866,7 +15857,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="484" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>2012</v>
       </c>
@@ -15899,7 +15890,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="485" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A485">
         <v>2012</v>
       </c>
@@ -15932,7 +15923,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="486" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>2012</v>
       </c>
@@ -15965,7 +15956,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="487" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A487">
         <v>2012</v>
       </c>
@@ -15995,10 +15986,10 @@
         <v>41133.458333333336</v>
       </c>
       <c r="J487" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="488" spans="1:10" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="488" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>2012</v>
       </c>
@@ -16015,7 +16006,7 @@
         <v>39.5</v>
       </c>
       <c r="F488" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G488" s="2">
         <v>0.23958333333333334</v>
@@ -16031,7 +16022,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="489" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>2012</v>
       </c>
@@ -16048,7 +16039,7 @@
         <v>32</v>
       </c>
       <c r="F489" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G489" s="2">
         <v>0.23958333333333334</v>
@@ -16064,7 +16055,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="490" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>2012</v>
       </c>
@@ -16097,7 +16088,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="491" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>2012</v>
       </c>
@@ -16130,7 +16121,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="492" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>2012</v>
       </c>
@@ -16163,7 +16154,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="493" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>2012</v>
       </c>
@@ -16196,7 +16187,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="494" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A494">
         <v>2013</v>
       </c>
@@ -16229,7 +16220,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="495" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A495">
         <v>2013</v>
       </c>
@@ -16246,7 +16237,7 @@
         <v>39.5</v>
       </c>
       <c r="F495" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G495" s="2">
         <v>0.87847222222222221</v>
@@ -16262,7 +16253,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="496" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A496">
         <v>2013</v>
       </c>
@@ -16295,7 +16286,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="497" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A497">
         <v>2013</v>
       </c>
@@ -16312,7 +16303,7 @@
         <v>45</v>
       </c>
       <c r="F497" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G497" s="2">
         <v>0.85416666666666663</v>
@@ -16328,7 +16319,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="498" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A498">
         <v>2013</v>
       </c>
@@ -16361,7 +16352,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="499" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A499">
         <v>2013</v>
       </c>
@@ -16394,7 +16385,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="500" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A500">
         <v>2013</v>
       </c>
@@ -16427,7 +16418,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="501" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A501">
         <v>2013</v>
       </c>
@@ -16460,7 +16451,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="502" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A502">
         <v>2013</v>
       </c>
@@ -16493,7 +16484,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="503" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A503">
         <v>2013</v>
       </c>
@@ -16526,7 +16517,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="504" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A504">
         <v>2013</v>
       </c>
@@ -16559,7 +16550,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="505" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A505">
         <v>2013</v>
       </c>
@@ -16576,7 +16567,7 @@
         <v>40.5</v>
       </c>
       <c r="F505" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G505" s="2">
         <v>0.40625</v>
@@ -16592,7 +16583,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="506" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A506">
         <v>2013</v>
       </c>
@@ -16625,7 +16616,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="507" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A507">
         <v>2013</v>
       </c>
@@ -16658,7 +16649,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="508" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A508">
         <v>2013</v>
       </c>
@@ -16691,7 +16682,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="509" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A509">
         <v>2013</v>
       </c>
@@ -16708,7 +16699,7 @@
         <v>33.5</v>
       </c>
       <c r="F509" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G509" s="2">
         <v>0.4375</v>
@@ -16724,7 +16715,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="510" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A510">
         <v>2013</v>
       </c>
@@ -16757,7 +16748,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="511" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A511">
         <v>2013</v>
       </c>
@@ -16790,7 +16781,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="512" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A512">
         <v>2013</v>
       </c>
@@ -16807,7 +16798,7 @@
         <v>32.5</v>
       </c>
       <c r="F512" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G512" s="2">
         <v>0.30208333333333331</v>
@@ -16823,7 +16814,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="513" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A513">
         <v>2013</v>
       </c>
@@ -16840,7 +16831,7 @@
         <v>32</v>
       </c>
       <c r="F513" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G513" s="2">
         <v>0.51041666666666663</v>
@@ -16853,10 +16844,10 @@
         <v>41525.5</v>
       </c>
       <c r="J513" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="514" spans="1:10" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="514" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A514">
         <v>2013</v>
       </c>
@@ -16889,7 +16880,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="515" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A515">
         <v>2013</v>
       </c>
@@ -16922,7 +16913,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="516" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A516">
         <v>2013</v>
       </c>
@@ -16939,7 +16930,7 @@
         <v>34.5</v>
       </c>
       <c r="F516" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G516" s="2">
         <v>0.65625</v>
@@ -16952,10 +16943,10 @@
         <v>41491.625</v>
       </c>
       <c r="J516" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="517" spans="1:10" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="517" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A517">
         <v>2013</v>
       </c>
@@ -16988,7 +16979,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="518" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A518">
         <v>2013</v>
       </c>
@@ -17021,7 +17012,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="519" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A519">
         <v>2013</v>
       </c>
@@ -17038,7 +17029,7 @@
         <v>40</v>
       </c>
       <c r="F519" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G519" s="2">
         <v>0.85416666666666663</v>
@@ -17054,7 +17045,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="520" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A520">
         <v>2013</v>
       </c>
@@ -17071,7 +17062,7 @@
         <v>34.5</v>
       </c>
       <c r="F520" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G520" s="2">
         <v>0.52083333333333337</v>
@@ -17084,10 +17075,10 @@
         <v>41487.5</v>
       </c>
       <c r="J520" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="521" spans="1:10" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="521" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A521">
         <v>2013</v>
       </c>
@@ -17120,7 +17111,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="522" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A522">
         <v>2013</v>
       </c>
@@ -17137,7 +17128,7 @@
         <v>32.5</v>
       </c>
       <c r="F522" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G522" s="2">
         <v>0.38541666666666669</v>
@@ -17153,7 +17144,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="523" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A523">
         <v>2013</v>
       </c>
@@ -17170,7 +17161,7 @@
         <v>38</v>
       </c>
       <c r="F523" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G523" s="2">
         <v>0.4826388888888889</v>
@@ -17183,10 +17174,10 @@
         <v>41532.458333333336</v>
       </c>
       <c r="J523" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="524" spans="1:10" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="524" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A524">
         <v>2013</v>
       </c>
@@ -17203,7 +17194,7 @@
         <v>32</v>
       </c>
       <c r="F524" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G524" s="2">
         <v>0.22916666666666666</v>
@@ -17219,7 +17210,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="525" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A525">
         <v>2013</v>
       </c>
@@ -17252,7 +17243,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="526" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A526">
         <v>2013</v>
       </c>
@@ -17285,7 +17276,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="527" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A527">
         <v>2013</v>
       </c>
@@ -17318,7 +17309,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="528" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A528">
         <v>2013</v>
       </c>
@@ -17351,7 +17342,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="529" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A529">
         <v>2013</v>
       </c>
@@ -17384,7 +17375,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="530" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A530">
         <v>2013</v>
       </c>
@@ -17417,7 +17408,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="531" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A531">
         <v>2013</v>
       </c>
@@ -17450,7 +17441,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="532" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A532">
         <v>2013</v>
       </c>
@@ -17483,7 +17474,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="533" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A533">
         <v>2013</v>
       </c>
@@ -17500,7 +17491,7 @@
         <v>30.5</v>
       </c>
       <c r="F533" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G533" s="2">
         <v>0.83333333333333337</v>
@@ -17516,7 +17507,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="534" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A534">
         <v>2013</v>
       </c>
@@ -17549,7 +17540,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="535" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A535">
         <v>2013</v>
       </c>
@@ -17566,7 +17557,7 @@
         <v>34.5</v>
       </c>
       <c r="F535" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G535" s="2">
         <v>0.84722222222222221</v>
@@ -17582,7 +17573,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="536" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A536">
         <v>2013</v>
       </c>
@@ -17615,7 +17606,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="537" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A537">
         <v>2013</v>
       </c>
@@ -17648,7 +17639,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="538" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A538">
         <v>2013</v>
       </c>
@@ -17665,7 +17656,7 @@
         <v>41</v>
       </c>
       <c r="F538" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G538" s="2">
         <v>0.8125</v>
@@ -17681,7 +17672,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="539" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A539">
         <v>2013</v>
       </c>
@@ -17711,10 +17702,10 @@
         <v>41523.458333333336</v>
       </c>
       <c r="J539" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="540" spans="1:10" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="540" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A540">
         <v>2013</v>
       </c>
@@ -17747,7 +17738,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="541" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A541">
         <v>2014</v>
       </c>
@@ -17780,7 +17771,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="542" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A542">
         <v>2014</v>
       </c>
@@ -17797,7 +17788,7 @@
         <v>32</v>
       </c>
       <c r="F542" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G542" s="2">
         <v>0.75347222222222221</v>
@@ -17813,7 +17804,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="543" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A543">
         <v>2014</v>
       </c>
@@ -17846,7 +17837,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="544" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A544">
         <v>2014</v>
       </c>
@@ -17879,7 +17870,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="545" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A545">
         <v>2014</v>
       </c>
@@ -17896,7 +17887,7 @@
         <v>30</v>
       </c>
       <c r="F545" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G545" s="2">
         <v>0.4375</v>
@@ -17912,7 +17903,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="546" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A546">
         <v>2014</v>
       </c>
@@ -17929,7 +17920,7 @@
         <v>40.5</v>
       </c>
       <c r="F546" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G546" s="2">
         <v>0.85416666666666663</v>
@@ -17945,7 +17936,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="547" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A547">
         <v>2014</v>
       </c>
@@ -17962,7 +17953,7 @@
         <v>36.5</v>
       </c>
       <c r="F547" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G547" s="2">
         <v>0.6875</v>
@@ -17978,7 +17969,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="548" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A548">
         <v>2014</v>
       </c>
@@ -18011,7 +18002,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="549" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A549">
         <v>2014</v>
       </c>
@@ -18028,7 +18019,7 @@
         <v>38.5</v>
       </c>
       <c r="F549" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G549" s="2">
         <v>0.29166666666666669</v>
@@ -18044,7 +18035,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="550" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A550">
         <v>2015</v>
       </c>
@@ -18077,7 +18068,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="551" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A551">
         <v>2015</v>
       </c>
@@ -18110,7 +18101,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="552" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A552">
         <v>2015</v>
       </c>
@@ -18127,7 +18118,7 @@
         <v>31.5</v>
       </c>
       <c r="F552" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G552" s="2">
         <v>0.83333333333333337</v>
@@ -18143,7 +18134,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="553" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A553">
         <v>2015</v>
       </c>
@@ -18176,7 +18167,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="554" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A554">
         <v>2015</v>
       </c>
@@ -18209,7 +18200,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="555" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A555">
         <v>2015</v>
       </c>
@@ -18242,7 +18233,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="556" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A556">
         <v>2015</v>
       </c>
@@ -18259,7 +18250,7 @@
         <v>31</v>
       </c>
       <c r="F556" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G556" s="2">
         <v>0.30208333333333331</v>
@@ -18275,7 +18266,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="557" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A557">
         <v>2015</v>
       </c>
@@ -18308,7 +18299,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="558" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A558">
         <v>2015</v>
       </c>
@@ -18325,7 +18316,7 @@
         <v>30</v>
       </c>
       <c r="F558" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G558" s="2">
         <v>0.29166666666666669</v>
@@ -18341,7 +18332,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="559" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A559">
         <v>2015</v>
       </c>
@@ -18374,7 +18365,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="560" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A560">
         <v>2015</v>
       </c>
@@ -18391,7 +18382,7 @@
         <v>32</v>
       </c>
       <c r="F560" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G560" s="2">
         <v>0.83333333333333337</v>
@@ -18407,7 +18398,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="561" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A561">
         <v>2015</v>
       </c>
@@ -18440,7 +18431,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="562" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A562">
         <v>2015</v>
       </c>
@@ -18473,7 +18464,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="563" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A563">
         <v>2015</v>
       </c>
@@ -18490,7 +18481,7 @@
         <v>31</v>
       </c>
       <c r="F563" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G563" s="2">
         <v>0.83333333333333337</v>
@@ -18506,7 +18497,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="564" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A564">
         <v>2015</v>
       </c>
@@ -18539,7 +18530,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="565" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A565">
         <v>2016</v>
       </c>
@@ -18572,7 +18563,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="566" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A566">
         <v>2016</v>
       </c>
@@ -18589,7 +18580,7 @@
         <v>31.5</v>
       </c>
       <c r="F566" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G566" s="2">
         <v>0.79166666666666663</v>
@@ -18605,7 +18596,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="567" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A567">
         <v>2016</v>
       </c>
@@ -18638,7 +18629,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="568" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A568">
         <v>2016</v>
       </c>
@@ -18671,7 +18662,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="569" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A569">
         <v>2016</v>
       </c>
@@ -18704,7 +18695,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="570" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A570">
         <v>2016</v>
       </c>
@@ -18737,7 +18728,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="571" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A571">
         <v>2016</v>
       </c>
@@ -18770,7 +18761,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="572" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A572">
         <v>2016</v>
       </c>
@@ -18787,7 +18778,7 @@
         <v>30.5</v>
       </c>
       <c r="F572" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G572" s="2">
         <v>0.52083333333333337</v>
@@ -18800,10 +18791,10 @@
         <v>42615.5</v>
       </c>
       <c r="J572" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="573" spans="1:10" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="573" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A573">
         <v>2016</v>
       </c>
@@ -18820,7 +18811,7 @@
         <v>30.5</v>
       </c>
       <c r="F573" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G573" s="2">
         <v>0.5625</v>
@@ -18833,10 +18824,10 @@
         <v>42615.541666666664</v>
       </c>
       <c r="J573" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="574" spans="1:10" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="574" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A574">
         <v>2016</v>
       </c>
@@ -18853,7 +18844,7 @@
         <v>30.5</v>
       </c>
       <c r="F574" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G574" s="2">
         <v>0.82638888888888884</v>
@@ -18869,7 +18860,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="575" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A575">
         <v>2016</v>
       </c>
@@ -18886,7 +18877,7 @@
         <v>34.5</v>
       </c>
       <c r="F575" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G575" s="2">
         <v>0.83333333333333337</v>
@@ -18902,7 +18893,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="576" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A576">
         <v>2016</v>
       </c>
@@ -18935,7 +18926,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="577" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A577">
         <v>2016</v>
       </c>
@@ -18968,7 +18959,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="578" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A578">
         <v>2017</v>
       </c>
@@ -19001,7 +18992,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="579" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A579">
         <v>2017</v>
       </c>
@@ -19018,7 +19009,7 @@
         <v>30.5</v>
       </c>
       <c r="F579" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G579" s="2">
         <v>0.6875</v>
@@ -19034,7 +19025,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="580" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A580">
         <v>2017</v>
       </c>
@@ -19067,7 +19058,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="581" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A581">
         <v>2017</v>
       </c>
@@ -19100,7 +19091,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="582" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A582">
         <v>2017</v>
       </c>
@@ -19133,7 +19124,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="583" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A583">
         <v>2017</v>
       </c>
@@ -19166,7 +19157,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="584" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A584">
         <v>2017</v>
       </c>
@@ -19183,7 +19174,7 @@
         <v>30.5</v>
       </c>
       <c r="F584" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G584" s="2">
         <v>0.85416666666666663</v>
@@ -19199,7 +19190,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="585" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A585">
         <v>2017</v>
       </c>
@@ -19232,7 +19223,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="586" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A586">
         <v>2017</v>
       </c>
@@ -19265,7 +19256,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="587" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A587">
         <v>2017</v>
       </c>
@@ -19298,7 +19289,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="588" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A588">
         <v>2017</v>
       </c>
@@ -19331,7 +19322,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="589" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A589">
         <v>2017</v>
       </c>
@@ -19348,7 +19339,7 @@
         <v>37</v>
       </c>
       <c r="F589" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G589" s="2">
         <v>0.23611111111111113</v>
@@ -19364,7 +19355,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="590" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A590">
         <v>2017</v>
       </c>
@@ -19381,7 +19372,7 @@
         <v>34</v>
       </c>
       <c r="F590" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G590" s="2">
         <v>0.27777777777777779</v>
@@ -19397,7 +19388,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="591" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A591">
         <v>2017</v>
       </c>
@@ -19414,7 +19405,7 @@
         <v>34</v>
       </c>
       <c r="F591" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G591" s="2">
         <v>0.51388888888888895</v>
@@ -19427,10 +19418,10 @@
         <v>42979.5</v>
       </c>
       <c r="J591" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="592" spans="1:10" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="592" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A592">
         <v>2017</v>
       </c>
@@ -19463,7 +19454,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="593" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A593">
         <v>2017</v>
       </c>
@@ -19480,7 +19471,7 @@
         <v>32</v>
       </c>
       <c r="F593" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G593" s="2">
         <v>0.2638888888888889</v>
@@ -19496,7 +19487,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="594" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A594">
         <v>2017</v>
       </c>
@@ -19529,7 +19520,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="595" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A595">
         <v>2017</v>
       </c>
@@ -19546,7 +19537,7 @@
         <v>30.5</v>
       </c>
       <c r="F595" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G595" s="2">
         <v>0.85416666666666663</v>
@@ -19562,7 +19553,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="596" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A596">
         <v>2017</v>
       </c>
@@ -19579,7 +19570,7 @@
         <v>32</v>
       </c>
       <c r="F596" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G596" s="2">
         <v>0.84027777777777779</v>
@@ -19595,7 +19586,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="597" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A597">
         <v>2017</v>
       </c>
@@ -19628,7 +19619,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="598" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A598">
         <v>2017</v>
       </c>
@@ -19661,7 +19652,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="599" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A599">
         <v>2017</v>
       </c>
@@ -19694,7 +19685,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="600" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A600">
         <v>2017</v>
       </c>
@@ -19727,7 +19718,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="601" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A601">
         <v>2017</v>
       </c>
@@ -19760,7 +19751,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="602" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A602">
         <v>2017</v>
       </c>
@@ -19793,7 +19784,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="603" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A603">
         <v>2017</v>
       </c>
@@ -19810,7 +19801,7 @@
         <v>35</v>
       </c>
       <c r="F603" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G603" s="2">
         <v>0.45833333333333331</v>
@@ -19823,10 +19814,10 @@
         <v>42963.458333333336</v>
       </c>
       <c r="J603" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="604" spans="1:10" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="604" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A604">
         <v>2017</v>
       </c>
@@ -19843,7 +19834,7 @@
         <v>34.5</v>
       </c>
       <c r="F604" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G604" s="2">
         <v>0.86458333333333337</v>
@@ -19859,7 +19850,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="605" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A605">
         <v>2017</v>
       </c>
@@ -19876,7 +19867,7 @@
         <v>30</v>
       </c>
       <c r="F605" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G605" s="2">
         <v>0.86458333333333337</v>
@@ -19892,7 +19883,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="606" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A606">
         <v>2017</v>
       </c>
@@ -19925,7 +19916,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="607" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A607">
         <v>2017</v>
       </c>
@@ -19942,7 +19933,7 @@
         <v>33.5</v>
       </c>
       <c r="F607" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G607" s="2">
         <v>0.24305555555555555</v>
@@ -19958,7 +19949,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="608" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A608">
         <v>2017</v>
       </c>
@@ -19991,7 +19982,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="609" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A609">
         <v>2017</v>
       </c>
@@ -20024,7 +20015,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="610" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A610">
         <v>2017</v>
       </c>
@@ -20057,7 +20048,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="611" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A611">
         <v>2017</v>
       </c>
@@ -20090,7 +20081,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="612" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A612">
         <v>2017</v>
       </c>
@@ -20123,7 +20114,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="613" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A613">
         <v>2017</v>
       </c>
@@ -20156,7 +20147,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="614" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A614">
         <v>2017</v>
       </c>
@@ -20189,7 +20180,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="615" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A615">
         <v>2017</v>
       </c>
@@ -20206,7 +20197,7 @@
         <v>31</v>
       </c>
       <c r="F615" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G615" s="2">
         <v>0.84027777777777779</v>
@@ -20222,7 +20213,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="616" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A616">
         <v>2017</v>
       </c>
@@ -20255,7 +20246,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="617" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A617">
         <v>2017</v>
       </c>
@@ -20272,7 +20263,7 @@
         <v>31.5</v>
       </c>
       <c r="F617" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G617" s="2">
         <v>0.85416666666666663</v>
@@ -20288,7 +20279,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="618" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A618">
         <v>2017</v>
       </c>
@@ -20305,7 +20296,7 @@
         <v>31</v>
       </c>
       <c r="F618" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G618" s="2">
         <v>0.84375</v>
@@ -20321,7 +20312,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="619" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A619">
         <v>2017</v>
       </c>
@@ -20338,7 +20329,7 @@
         <v>34.5</v>
       </c>
       <c r="F619" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G619" s="2">
         <v>0.83333333333333337</v>
@@ -20354,7 +20345,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="620" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A620">
         <v>2017</v>
       </c>
@@ -20387,7 +20378,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="621" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A621">
         <v>2017</v>
       </c>
@@ -20420,7 +20411,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="622" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A622">
         <v>2018</v>
       </c>
@@ -20453,7 +20444,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="623" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A623">
         <v>2018</v>
       </c>
@@ -20470,7 +20461,7 @@
         <v>30.5</v>
       </c>
       <c r="F623" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G623" s="2">
         <v>0.23611111111111113</v>
@@ -20486,7 +20477,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="624" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A624">
         <v>2018</v>
       </c>
@@ -20519,7 +20510,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="625" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A625">
         <v>2018</v>
       </c>
@@ -20552,7 +20543,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="626" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A626">
         <v>2018</v>
       </c>
@@ -20585,7 +20576,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="627" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A627">
         <v>2018</v>
       </c>
@@ -20618,7 +20609,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="628" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A628">
         <v>2018</v>
       </c>
@@ -20635,7 +20626,7 @@
         <v>31</v>
       </c>
       <c r="F628" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G628" s="2">
         <v>0.75694444444444453</v>
@@ -20651,7 +20642,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="629" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A629">
         <v>2018</v>
       </c>
@@ -20684,7 +20675,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="630" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A630">
         <v>2018</v>
       </c>
@@ -20701,7 +20692,7 @@
         <v>30</v>
       </c>
       <c r="F630" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G630" s="2">
         <v>0.85416666666666663</v>
@@ -20717,7 +20708,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="631" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A631">
         <v>2018</v>
       </c>
@@ -20734,7 +20725,7 @@
         <v>33.5</v>
       </c>
       <c r="F631" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G631" s="2">
         <v>0.24652777777777779</v>
@@ -20750,7 +20741,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="632" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A632">
         <v>2018</v>
       </c>
@@ -20783,7 +20774,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="633" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A633">
         <v>2018</v>
       </c>
@@ -20816,7 +20807,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="634" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A634">
         <v>2018</v>
       </c>
@@ -20849,7 +20840,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="635" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A635">
         <v>2018</v>
       </c>
@@ -20866,7 +20857,7 @@
         <v>35.5</v>
       </c>
       <c r="F635" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G635" s="2">
         <v>0.23611111111111113</v>
@@ -20882,7 +20873,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="636" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A636">
         <v>2018</v>
       </c>
@@ -20915,7 +20906,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="637" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A637">
         <v>2018</v>
       </c>
@@ -20932,7 +20923,7 @@
         <v>35</v>
       </c>
       <c r="F637" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G637" s="2">
         <v>0.86111111111111116</v>
@@ -20948,7 +20939,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="638" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A638">
         <v>2018</v>
       </c>
@@ -20981,7 +20972,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="639" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A639">
         <v>2018</v>
       </c>
@@ -21014,7 +21005,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="640" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A640">
         <v>2019</v>
       </c>
@@ -21047,7 +21038,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="641" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A641">
         <v>2019</v>
       </c>
@@ -21080,7 +21071,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="642" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A642">
         <v>2019</v>
       </c>
@@ -21113,7 +21104,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="643" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A643">
         <v>2019</v>
       </c>
@@ -21130,7 +21121,7 @@
         <v>30.5</v>
       </c>
       <c r="F643" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G643" s="2">
         <v>0.36805555555555558</v>
@@ -21146,7 +21137,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="644" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A644">
         <v>2019</v>
       </c>
@@ -21179,7 +21170,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="645" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A645">
         <v>2019</v>
       </c>
@@ -21212,7 +21203,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="646" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A646">
         <v>2019</v>
       </c>
@@ -21229,7 +21220,7 @@
         <v>30.5</v>
       </c>
       <c r="F646" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G646" s="2">
         <v>0.23958333333333334</v>
@@ -21245,7 +21236,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="647" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A647">
         <v>2019</v>
       </c>
@@ -21278,7 +21269,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="648" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A648">
         <v>2019</v>
       </c>
@@ -21295,7 +21286,7 @@
         <v>36</v>
       </c>
       <c r="F648" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G648" s="2">
         <v>0.26041666666666669</v>
@@ -21311,7 +21302,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="649" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A649">
         <v>2019</v>
       </c>
@@ -21344,7 +21335,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="650" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A650">
         <v>2019</v>
       </c>
@@ -21361,7 +21352,7 @@
         <v>31.5</v>
       </c>
       <c r="F650" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G650" s="2">
         <v>0.34375</v>
@@ -21377,7 +21368,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="651" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A651">
         <v>2019</v>
       </c>
@@ -21410,7 +21401,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="652" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A652">
         <v>2019</v>
       </c>
@@ -21443,7 +21434,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="653" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A653">
         <v>2020</v>
       </c>
@@ -21476,7 +21467,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="654" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A654">
         <v>2020</v>
       </c>
@@ -21509,7 +21500,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="655" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A655">
         <v>2020</v>
       </c>
@@ -21542,7 +21533,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="656" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A656">
         <v>2020</v>
       </c>
@@ -21575,7 +21566,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="657" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A657">
         <v>2020</v>
       </c>
@@ -21608,7 +21599,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="658" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A658">
         <v>2020</v>
       </c>
@@ -21625,7 +21616,7 @@
         <v>39.125</v>
       </c>
       <c r="F658" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G658" s="2">
         <v>0.50763888888888886</v>
@@ -21638,10 +21629,10 @@
         <v>44076.5</v>
       </c>
       <c r="J658" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="659" spans="1:10" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="659" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A659">
         <v>2020</v>
       </c>
@@ -21658,7 +21649,7 @@
         <v>35.1875</v>
       </c>
       <c r="F659" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G659" s="2">
         <v>0.84375</v>
@@ -21674,7 +21665,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="660" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A660">
         <v>2020</v>
       </c>
@@ -21707,7 +21698,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="661" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A661">
         <v>2020</v>
       </c>
@@ -21740,7 +21731,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="662" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A662">
         <v>2020</v>
       </c>
@@ -21773,7 +21764,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="663" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A663">
         <v>2020</v>
       </c>
@@ -21806,7 +21797,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="664" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A664">
         <v>2020</v>
       </c>
@@ -21839,7 +21830,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="665" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A665">
         <v>2020</v>
       </c>
@@ -21872,7 +21863,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="666" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A666">
         <v>2020</v>
       </c>
@@ -21905,7 +21896,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="667" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A667">
         <v>2021</v>
       </c>
@@ -21938,7 +21929,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="668" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A668">
         <v>2021</v>
       </c>
@@ -21971,7 +21962,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="669" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A669">
         <v>2021</v>
       </c>
@@ -22004,7 +21995,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="670" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A670">
         <v>2021</v>
       </c>
@@ -22037,7 +22028,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="671" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A671">
         <v>2021</v>
       </c>
@@ -22070,7 +22061,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="672" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A672">
         <v>2021</v>
       </c>
@@ -22103,7 +22094,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="673" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A673">
         <v>2021</v>
       </c>
@@ -22136,7 +22127,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="674" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A674">
         <v>2021</v>
       </c>
@@ -22169,7 +22160,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="675" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A675">
         <v>2021</v>
       </c>
@@ -22202,7 +22193,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="676" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A676">
         <v>2021</v>
       </c>
@@ -22219,7 +22210,7 @@
         <v>33.375</v>
       </c>
       <c r="F676" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G676" s="2">
         <v>0.25</v>
@@ -22235,7 +22226,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="677" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A677">
         <v>2021</v>
       </c>
@@ -22252,7 +22243,7 @@
         <v>32.5</v>
       </c>
       <c r="F677" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G677" s="2">
         <v>0.875</v>
@@ -22268,7 +22259,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="678" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A678">
         <v>2021</v>
       </c>
@@ -22285,7 +22276,7 @@
         <v>32.4375</v>
       </c>
       <c r="F678" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G678" s="2">
         <v>0.89236111111111116</v>
@@ -22301,7 +22292,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="679" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A679">
         <v>2021</v>
       </c>
@@ -22318,7 +22309,7 @@
         <v>32.75</v>
       </c>
       <c r="F679" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G679" s="2">
         <v>0</v>
@@ -22334,7 +22325,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="680" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A680">
         <v>2021</v>
       </c>
@@ -22351,7 +22342,7 @@
         <v>35.375</v>
       </c>
       <c r="F680" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G680" s="2">
         <v>0.88541666666666663</v>
@@ -22367,7 +22358,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="681" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A681">
         <v>2021</v>
       </c>
@@ -22400,7 +22391,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="682" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A682">
         <v>2021</v>
       </c>
@@ -22433,7 +22424,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="683" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A683">
         <v>2021</v>
       </c>
@@ -22450,7 +22441,7 @@
         <v>42.5625</v>
       </c>
       <c r="F683" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G683" s="2">
         <v>0.43055555555555558</v>
@@ -22466,7 +22457,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="684" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A684">
         <v>2021</v>
       </c>
@@ -22499,7 +22490,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="685" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A685">
         <v>2021</v>
       </c>
@@ -22516,7 +22507,7 @@
         <v>34.9375</v>
       </c>
       <c r="F685" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G685" s="2">
         <v>0.625</v>
@@ -22529,10 +22520,10 @@
         <v>44422.625</v>
       </c>
       <c r="J685" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="686" spans="1:10" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="686" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A686">
         <v>2021</v>
       </c>
@@ -22565,7 +22556,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="687" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A687">
         <v>2021</v>
       </c>
@@ -22598,7 +22589,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="688" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A688">
         <v>2021</v>
       </c>
@@ -22631,7 +22622,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="689" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A689">
         <v>2021</v>
       </c>
@@ -22664,7 +22655,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="690" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A690">
         <v>2021</v>
       </c>
@@ -22697,7 +22688,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="691" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A691">
         <v>2021</v>
       </c>
@@ -22730,7 +22721,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="692" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A692">
         <v>2021</v>
       </c>
@@ -22763,7 +22754,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="693" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A693">
         <v>2021</v>
       </c>
@@ -22796,7 +22787,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="694" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A694">
         <v>2021</v>
       </c>
@@ -22813,7 +22804,7 @@
         <v>35</v>
       </c>
       <c r="F694" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G694" s="2">
         <v>0.42708333333333331</v>
@@ -22829,7 +22820,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="695" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A695">
         <v>2021</v>
       </c>
@@ -22846,7 +22837,7 @@
         <v>31.5</v>
       </c>
       <c r="F695" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G695" s="2">
         <v>0.35069444444444442</v>
@@ -22862,7 +22853,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="696" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A696">
         <v>2021</v>
       </c>
@@ -22895,7 +22886,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="697" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A697">
         <v>2021</v>
       </c>
@@ -22912,7 +22903,7 @@
         <v>30</v>
       </c>
       <c r="F697" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G697" s="2">
         <v>0.25625000000000003</v>
@@ -22928,7 +22919,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="698" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A698">
         <v>2021</v>
       </c>
@@ -22961,7 +22952,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="699" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A699">
         <v>2021</v>
       </c>
@@ -22994,7 +22985,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="700" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A700">
         <v>2021</v>
       </c>
@@ -23027,7 +23018,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="701" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A701">
         <v>2021</v>
       </c>
@@ -23060,7 +23051,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="702" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A702">
         <v>2021</v>
       </c>
@@ -23093,7 +23084,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="703" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A703">
         <v>2022</v>
       </c>
@@ -23110,7 +23101,7 @@
         <v>34.1</v>
       </c>
       <c r="F703" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G703" s="2">
         <v>0.60416666666666663</v>
@@ -23122,10 +23113,10 @@
         <v>44785.604166666664</v>
       </c>
       <c r="J703" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="704" spans="1:10" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="704" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A704">
         <v>2022</v>
       </c>
@@ -23158,7 +23149,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="705" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A705">
         <v>2022</v>
       </c>
@@ -23175,7 +23166,7 @@
         <v>40.14</v>
       </c>
       <c r="F705" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G705" s="2">
         <v>0.4375</v>
@@ -23191,7 +23182,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="706" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A706">
         <v>2022</v>
       </c>
@@ -23224,7 +23215,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="707" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A707">
         <v>2022</v>
       </c>
@@ -23257,7 +23248,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="708" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A708">
         <v>2022</v>
       </c>
@@ -23290,40 +23281,40 @@
         <v>8</v>
       </c>
     </row>
-    <row r="709" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I709" s="3"/>
     </row>
-    <row r="710" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I710" s="3"/>
     </row>
-    <row r="711" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I711" s="3"/>
     </row>
-    <row r="712" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I712" s="3"/>
     </row>
-    <row r="713" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I713" s="3"/>
     </row>
-    <row r="714" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I714" s="3"/>
     </row>
-    <row r="715" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I715" s="3"/>
     </row>
-    <row r="716" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I716" s="3"/>
     </row>
-    <row r="717" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I717" s="3"/>
     </row>
-    <row r="718" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I718" s="3"/>
     </row>
-    <row r="719" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I719" s="3"/>
     </row>
-    <row r="720" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I720" s="3"/>
     </row>
   </sheetData>

--- a/docs/Data/TyeeCatchData.xlsx
+++ b/docs/Data/TyeeCatchData.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evogt\R Analysis\EAV\GitHubMarkdown\R-Markdown-GitHub-Page\docs\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B06755-B81D-472E-B608-7AE947872EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F86BEC1E-272A-44B6-A5F6-D33347C816DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0CB3CDF9-0205-43C4-ADC8-DEC6E991EEB1}"/>
+    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0CB3CDF9-0205-43C4-ADC8-DEC6E991EEB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$702</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$708</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -457,10 +457,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A99EFA95-E1A2-4F3D-8001-3428518B60BC}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:J720"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D712" sqref="D712"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -509,7 +510,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2002</v>
       </c>
@@ -536,7 +537,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2002</v>
       </c>
@@ -563,7 +564,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2002</v>
       </c>
@@ -590,7 +591,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2002</v>
       </c>
@@ -617,7 +618,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2002</v>
       </c>
@@ -644,7 +645,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2002</v>
       </c>
@@ -671,7 +672,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2002</v>
       </c>
@@ -698,7 +699,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2002</v>
       </c>
@@ -725,7 +726,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2002</v>
       </c>
@@ -752,7 +753,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2002</v>
       </c>
@@ -779,7 +780,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2002</v>
       </c>
@@ -806,7 +807,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2002</v>
       </c>
@@ -833,7 +834,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2002</v>
       </c>
@@ -860,7 +861,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2002</v>
       </c>
@@ -887,7 +888,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2002</v>
       </c>
@@ -914,7 +915,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2002</v>
       </c>
@@ -941,7 +942,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2002</v>
       </c>
@@ -968,7 +969,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2002</v>
       </c>
@@ -995,7 +996,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2002</v>
       </c>
@@ -1022,7 +1023,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2002</v>
       </c>
@@ -1049,7 +1050,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2002</v>
       </c>
@@ -1076,7 +1077,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2002</v>
       </c>
@@ -1084,10 +1085,10 @@
         <v>1</v>
       </c>
       <c r="C23" s="1">
-        <v>37592</v>
+        <v>37470</v>
       </c>
       <c r="D23" s="1">
-        <v>44897</v>
+        <v>44775</v>
       </c>
       <c r="E23">
         <v>32</v>
@@ -1097,13 +1098,13 @@
       </c>
       <c r="I23" s="3">
         <f t="shared" si="0"/>
-        <v>37592</v>
+        <v>37470</v>
       </c>
       <c r="J23" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2002</v>
       </c>
@@ -1111,10 +1112,10 @@
         <v>1</v>
       </c>
       <c r="C24" s="1">
-        <v>37592</v>
+        <v>37470</v>
       </c>
       <c r="D24" s="1">
-        <v>44897</v>
+        <v>44775</v>
       </c>
       <c r="E24">
         <v>37.5</v>
@@ -1124,13 +1125,13 @@
       </c>
       <c r="I24" s="3">
         <f t="shared" si="0"/>
-        <v>37592</v>
+        <v>37470</v>
       </c>
       <c r="J24" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2002</v>
       </c>
@@ -1157,7 +1158,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2002</v>
       </c>
@@ -1184,7 +1185,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2002</v>
       </c>
@@ -1211,7 +1212,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2002</v>
       </c>
@@ -1238,7 +1239,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2002</v>
       </c>
@@ -1265,7 +1266,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2002</v>
       </c>
@@ -1292,7 +1293,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2002</v>
       </c>
@@ -1319,7 +1320,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2002</v>
       </c>
@@ -1346,7 +1347,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2002</v>
       </c>
@@ -1354,10 +1355,10 @@
         <v>1</v>
       </c>
       <c r="C33" s="1">
-        <v>37592</v>
+        <v>37470</v>
       </c>
       <c r="D33" s="1">
-        <v>44897</v>
+        <v>44775</v>
       </c>
       <c r="E33">
         <v>30.5</v>
@@ -1367,13 +1368,13 @@
       </c>
       <c r="I33" s="3">
         <f t="shared" si="0"/>
-        <v>37592</v>
+        <v>37470</v>
       </c>
       <c r="J33" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2002</v>
       </c>
@@ -1400,7 +1401,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2002</v>
       </c>
@@ -1427,7 +1428,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2002</v>
       </c>
@@ -1454,7 +1455,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2002</v>
       </c>
@@ -1481,7 +1482,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2002</v>
       </c>
@@ -1508,7 +1509,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2002</v>
       </c>
@@ -1535,7 +1536,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>2002</v>
       </c>
@@ -1562,7 +1563,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>2002</v>
       </c>
@@ -1589,7 +1590,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>2002</v>
       </c>
@@ -1616,7 +1617,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2002</v>
       </c>
@@ -1643,7 +1644,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2002</v>
       </c>
@@ -1670,7 +1671,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2002</v>
       </c>
@@ -1697,7 +1698,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>2002</v>
       </c>
@@ -1724,7 +1725,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>2002</v>
       </c>
@@ -1751,7 +1752,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>2002</v>
       </c>
@@ -1778,7 +1779,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>2002</v>
       </c>
@@ -1805,7 +1806,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>2002</v>
       </c>
@@ -1832,7 +1833,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2002</v>
       </c>
@@ -1859,7 +1860,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>2002</v>
       </c>
@@ -1886,7 +1887,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>2002</v>
       </c>
@@ -1913,7 +1914,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>2002</v>
       </c>
@@ -1940,7 +1941,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>2002</v>
       </c>
@@ -1967,7 +1968,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>2002</v>
       </c>
@@ -1994,7 +1995,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>2002</v>
       </c>
@@ -2021,7 +2022,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>2002</v>
       </c>
@@ -2048,7 +2049,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>2002</v>
       </c>
@@ -2075,7 +2076,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>2002</v>
       </c>
@@ -2102,7 +2103,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>2002</v>
       </c>
@@ -2129,7 +2130,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>2002</v>
       </c>
@@ -2164,10 +2165,10 @@
         <v>1</v>
       </c>
       <c r="C63" s="1">
-        <v>37439</v>
+        <v>37474</v>
       </c>
       <c r="D63" s="1">
-        <v>44744</v>
+        <v>44779</v>
       </c>
       <c r="E63">
         <v>37</v>
@@ -2177,13 +2178,13 @@
       </c>
       <c r="I63" s="3">
         <f t="shared" si="0"/>
-        <v>37439</v>
+        <v>37474</v>
       </c>
       <c r="J63" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>2002</v>
       </c>
@@ -2210,7 +2211,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>2002</v>
       </c>
@@ -2237,7 +2238,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>2002</v>
       </c>
@@ -2264,7 +2265,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>2002</v>
       </c>
@@ -2291,7 +2292,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>2002</v>
       </c>
@@ -2326,10 +2327,10 @@
         <v>1</v>
       </c>
       <c r="C69" s="1">
-        <v>37439</v>
+        <v>37474</v>
       </c>
       <c r="D69" s="1">
-        <v>44744</v>
+        <v>44779</v>
       </c>
       <c r="E69">
         <v>30.5</v>
@@ -2339,13 +2340,13 @@
       </c>
       <c r="I69" s="3">
         <f t="shared" si="1"/>
-        <v>37439</v>
+        <v>37474</v>
       </c>
       <c r="J69" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>2002</v>
       </c>
@@ -2372,7 +2373,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>2002</v>
       </c>
@@ -2399,7 +2400,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>2002</v>
       </c>
@@ -2426,7 +2427,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>2002</v>
       </c>
@@ -2453,7 +2454,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>2002</v>
       </c>
@@ -2480,7 +2481,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>2002</v>
       </c>
@@ -2507,7 +2508,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>2002</v>
       </c>
@@ -2534,7 +2535,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>2002</v>
       </c>
@@ -2561,7 +2562,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>2002</v>
       </c>
@@ -2588,7 +2589,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>2002</v>
       </c>
@@ -2615,7 +2616,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>2002</v>
       </c>
@@ -2642,7 +2643,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>2002</v>
       </c>
@@ -2669,7 +2670,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>2002</v>
       </c>
@@ -2696,7 +2697,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>2002</v>
       </c>
@@ -2723,7 +2724,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>2002</v>
       </c>
@@ -2750,7 +2751,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>2002</v>
       </c>
@@ -2777,7 +2778,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>2002</v>
       </c>
@@ -2804,7 +2805,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>2002</v>
       </c>
@@ -2831,7 +2832,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>2002</v>
       </c>
@@ -2858,7 +2859,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>2002</v>
       </c>
@@ -2869,7 +2870,7 @@
         <v>37474</v>
       </c>
       <c r="D89" s="1">
-        <v>37474</v>
+        <v>44779</v>
       </c>
       <c r="E89">
         <v>31.5</v>
@@ -2885,7 +2886,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>2002</v>
       </c>
@@ -2912,7 +2913,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>2002</v>
       </c>
@@ -2939,7 +2940,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>2002</v>
       </c>
@@ -2966,7 +2967,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>2002</v>
       </c>
@@ -2993,7 +2994,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>2002</v>
       </c>
@@ -3020,7 +3021,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>2003</v>
       </c>
@@ -3053,7 +3054,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>2003</v>
       </c>
@@ -3086,7 +3087,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>2003</v>
       </c>
@@ -3119,7 +3120,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>2003</v>
       </c>
@@ -3152,7 +3153,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>2003</v>
       </c>
@@ -3185,7 +3186,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>2003</v>
       </c>
@@ -3218,7 +3219,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>2003</v>
       </c>
@@ -3251,7 +3252,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>2003</v>
       </c>
@@ -3284,7 +3285,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>2003</v>
       </c>
@@ -3317,7 +3318,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>2003</v>
       </c>
@@ -3350,7 +3351,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>2003</v>
       </c>
@@ -3383,7 +3384,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>2003</v>
       </c>
@@ -3416,7 +3417,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>2003</v>
       </c>
@@ -3449,7 +3450,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>2003</v>
       </c>
@@ -3482,7 +3483,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>2003</v>
       </c>
@@ -3515,7 +3516,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>2004</v>
       </c>
@@ -3548,7 +3549,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>2004</v>
       </c>
@@ -3581,7 +3582,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>2004</v>
       </c>
@@ -3614,7 +3615,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>2004</v>
       </c>
@@ -3647,7 +3648,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>2004</v>
       </c>
@@ -3680,7 +3681,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>2004</v>
       </c>
@@ -3713,7 +3714,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>2004</v>
       </c>
@@ -3746,7 +3747,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>2004</v>
       </c>
@@ -3779,7 +3780,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>2004</v>
       </c>
@@ -3812,7 +3813,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>2004</v>
       </c>
@@ -3845,7 +3846,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>2004</v>
       </c>
@@ -3878,7 +3879,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>2004</v>
       </c>
@@ -3911,7 +3912,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>2004</v>
       </c>
@@ -3944,7 +3945,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>2004</v>
       </c>
@@ -3977,7 +3978,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>2004</v>
       </c>
@@ -4010,7 +4011,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>2004</v>
       </c>
@@ -4043,7 +4044,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>2004</v>
       </c>
@@ -4076,7 +4077,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>2004</v>
       </c>
@@ -4109,7 +4110,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>2004</v>
       </c>
@@ -4142,7 +4143,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>2004</v>
       </c>
@@ -4175,7 +4176,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>2004</v>
       </c>
@@ -4208,7 +4209,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>2004</v>
       </c>
@@ -4241,7 +4242,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>2004</v>
       </c>
@@ -4274,7 +4275,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>2004</v>
       </c>
@@ -4307,7 +4308,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>2004</v>
       </c>
@@ -4340,7 +4341,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>2004</v>
       </c>
@@ -4373,7 +4374,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>2004</v>
       </c>
@@ -4406,7 +4407,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>2004</v>
       </c>
@@ -4439,7 +4440,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>2004</v>
       </c>
@@ -4472,7 +4473,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>2004</v>
       </c>
@@ -4505,7 +4506,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>2004</v>
       </c>
@@ -4538,7 +4539,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>2004</v>
       </c>
@@ -4571,7 +4572,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>2004</v>
       </c>
@@ -4604,7 +4605,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>2004</v>
       </c>
@@ -4637,7 +4638,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>2004</v>
       </c>
@@ -4670,7 +4671,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>2004</v>
       </c>
@@ -4703,7 +4704,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>2004</v>
       </c>
@@ -4736,7 +4737,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>2004</v>
       </c>
@@ -4769,7 +4770,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>2004</v>
       </c>
@@ -4802,7 +4803,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>2004</v>
       </c>
@@ -4835,7 +4836,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>2004</v>
       </c>
@@ -4868,7 +4869,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>2004</v>
       </c>
@@ -4901,7 +4902,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>2004</v>
       </c>
@@ -4934,7 +4935,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>2004</v>
       </c>
@@ -4967,7 +4968,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>2004</v>
       </c>
@@ -5000,7 +5001,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>2004</v>
       </c>
@@ -5033,7 +5034,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>2004</v>
       </c>
@@ -5066,7 +5067,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>2004</v>
       </c>
@@ -5099,7 +5100,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>2004</v>
       </c>
@@ -5132,7 +5133,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>2004</v>
       </c>
@@ -5165,7 +5166,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>2004</v>
       </c>
@@ -5198,7 +5199,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>2004</v>
       </c>
@@ -5231,7 +5232,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>2004</v>
       </c>
@@ -5264,7 +5265,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>2004</v>
       </c>
@@ -5297,7 +5298,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>2004</v>
       </c>
@@ -5330,7 +5331,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>2004</v>
       </c>
@@ -5363,7 +5364,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>2004</v>
       </c>
@@ -5396,7 +5397,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>2004</v>
       </c>
@@ -5429,7 +5430,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>2004</v>
       </c>
@@ -5462,7 +5463,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>2005</v>
       </c>
@@ -5495,7 +5496,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>2005</v>
       </c>
@@ -5528,7 +5529,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>2005</v>
       </c>
@@ -5561,7 +5562,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>2005</v>
       </c>
@@ -5594,7 +5595,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>2005</v>
       </c>
@@ -5627,7 +5628,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>2005</v>
       </c>
@@ -5660,7 +5661,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>2005</v>
       </c>
@@ -5693,7 +5694,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>2005</v>
       </c>
@@ -5726,7 +5727,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>2005</v>
       </c>
@@ -5759,7 +5760,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>2005</v>
       </c>
@@ -5792,7 +5793,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>2005</v>
       </c>
@@ -5825,7 +5826,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>2005</v>
       </c>
@@ -5858,7 +5859,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>2005</v>
       </c>
@@ -5891,7 +5892,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>2005</v>
       </c>
@@ -5924,7 +5925,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>2005</v>
       </c>
@@ -5957,7 +5958,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>2005</v>
       </c>
@@ -5990,7 +5991,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>2005</v>
       </c>
@@ -6023,7 +6024,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>2005</v>
       </c>
@@ -6056,7 +6057,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>2005</v>
       </c>
@@ -6089,7 +6090,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>2005</v>
       </c>
@@ -6122,7 +6123,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>2005</v>
       </c>
@@ -6155,7 +6156,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>2005</v>
       </c>
@@ -6188,7 +6189,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>2005</v>
       </c>
@@ -6221,7 +6222,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>2005</v>
       </c>
@@ -6254,7 +6255,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>2005</v>
       </c>
@@ -6287,7 +6288,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>2005</v>
       </c>
@@ -6320,7 +6321,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>2005</v>
       </c>
@@ -6353,7 +6354,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>2005</v>
       </c>
@@ -6386,7 +6387,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>2005</v>
       </c>
@@ -6419,7 +6420,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>2005</v>
       </c>
@@ -6452,7 +6453,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>2005</v>
       </c>
@@ -6485,7 +6486,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>2005</v>
       </c>
@@ -6518,7 +6519,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>2005</v>
       </c>
@@ -6551,7 +6552,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>2005</v>
       </c>
@@ -6584,7 +6585,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>2005</v>
       </c>
@@ -6617,7 +6618,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>2005</v>
       </c>
@@ -6650,7 +6651,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>2005</v>
       </c>
@@ -6683,7 +6684,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>2005</v>
       </c>
@@ -6716,7 +6717,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>2005</v>
       </c>
@@ -6749,7 +6750,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>2005</v>
       </c>
@@ -6782,7 +6783,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>2005</v>
       </c>
@@ -6815,7 +6816,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>2005</v>
       </c>
@@ -6848,7 +6849,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>2005</v>
       </c>
@@ -6881,7 +6882,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>2005</v>
       </c>
@@ -6914,7 +6915,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>2005</v>
       </c>
@@ -6947,7 +6948,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>2006</v>
       </c>
@@ -6980,7 +6981,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>2006</v>
       </c>
@@ -7013,7 +7014,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>2006</v>
       </c>
@@ -7046,7 +7047,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>2006</v>
       </c>
@@ -7079,7 +7080,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>2006</v>
       </c>
@@ -7112,7 +7113,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>2006</v>
       </c>
@@ -7145,7 +7146,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>2006</v>
       </c>
@@ -7178,7 +7179,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>2006</v>
       </c>
@@ -7211,7 +7212,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>2006</v>
       </c>
@@ -7244,7 +7245,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>2006</v>
       </c>
@@ -7277,7 +7278,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>2006</v>
       </c>
@@ -7310,7 +7311,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>2006</v>
       </c>
@@ -7343,7 +7344,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>2006</v>
       </c>
@@ -7376,7 +7377,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>2006</v>
       </c>
@@ -7409,7 +7410,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>2006</v>
       </c>
@@ -7442,7 +7443,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>2006</v>
       </c>
@@ -7475,7 +7476,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>2006</v>
       </c>
@@ -7508,7 +7509,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>2006</v>
       </c>
@@ -7541,7 +7542,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>2006</v>
       </c>
@@ -7574,7 +7575,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>2006</v>
       </c>
@@ -7607,7 +7608,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>2006</v>
       </c>
@@ -7640,7 +7641,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>2006</v>
       </c>
@@ -7673,7 +7674,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>2006</v>
       </c>
@@ -7706,7 +7707,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>2006</v>
       </c>
@@ -7739,7 +7740,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>2006</v>
       </c>
@@ -7772,7 +7773,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>2006</v>
       </c>
@@ -7805,7 +7806,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>2006</v>
       </c>
@@ -7838,7 +7839,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>2006</v>
       </c>
@@ -7871,7 +7872,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>2006</v>
       </c>
@@ -7904,7 +7905,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>2006</v>
       </c>
@@ -7937,7 +7938,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>2006</v>
       </c>
@@ -7970,7 +7971,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>2006</v>
       </c>
@@ -8003,7 +8004,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>2006</v>
       </c>
@@ -8036,7 +8037,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>2006</v>
       </c>
@@ -8069,7 +8070,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>2006</v>
       </c>
@@ -8102,7 +8103,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>2006</v>
       </c>
@@ -8135,7 +8136,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>2006</v>
       </c>
@@ -8168,7 +8169,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>2006</v>
       </c>
@@ -8201,7 +8202,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>2006</v>
       </c>
@@ -8234,7 +8235,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>2006</v>
       </c>
@@ -8267,7 +8268,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>2006</v>
       </c>
@@ -8300,7 +8301,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>2006</v>
       </c>
@@ -8333,7 +8334,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>2006</v>
       </c>
@@ -8366,7 +8367,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>2006</v>
       </c>
@@ -8399,7 +8400,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>2006</v>
       </c>
@@ -8432,7 +8433,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>2006</v>
       </c>
@@ -8465,7 +8466,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>2006</v>
       </c>
@@ -8498,7 +8499,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>2006</v>
       </c>
@@ -8531,7 +8532,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>2006</v>
       </c>
@@ -8564,7 +8565,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>2006</v>
       </c>
@@ -8597,7 +8598,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>2006</v>
       </c>
@@ -8630,7 +8631,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>2006</v>
       </c>
@@ -8663,7 +8664,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>2006</v>
       </c>
@@ -8696,7 +8697,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>2006</v>
       </c>
@@ -8729,7 +8730,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>2006</v>
       </c>
@@ -8762,7 +8763,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>2006</v>
       </c>
@@ -8795,7 +8796,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>2006</v>
       </c>
@@ -8828,7 +8829,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>2006</v>
       </c>
@@ -8861,7 +8862,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>2006</v>
       </c>
@@ -8894,7 +8895,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>2006</v>
       </c>
@@ -8927,7 +8928,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>2006</v>
       </c>
@@ -8960,7 +8961,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>2006</v>
       </c>
@@ -8993,7 +8994,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>2006</v>
       </c>
@@ -9026,7 +9027,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>2006</v>
       </c>
@@ -9059,7 +9060,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>2007</v>
       </c>
@@ -9092,7 +9093,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>2007</v>
       </c>
@@ -9125,7 +9126,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>2007</v>
       </c>
@@ -9158,7 +9159,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>2007</v>
       </c>
@@ -9191,7 +9192,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>2007</v>
       </c>
@@ -9224,7 +9225,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>2007</v>
       </c>
@@ -9257,7 +9258,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>2007</v>
       </c>
@@ -9290,7 +9291,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>2007</v>
       </c>
@@ -9323,7 +9324,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>2007</v>
       </c>
@@ -9356,7 +9357,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>2007</v>
       </c>
@@ -9389,7 +9390,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>2007</v>
       </c>
@@ -9422,7 +9423,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>2007</v>
       </c>
@@ -9455,7 +9456,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>2007</v>
       </c>
@@ -9488,7 +9489,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>2007</v>
       </c>
@@ -9521,7 +9522,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>2007</v>
       </c>
@@ -9554,7 +9555,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>2007</v>
       </c>
@@ -9587,7 +9588,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>2007</v>
       </c>
@@ -9620,7 +9621,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>2007</v>
       </c>
@@ -9653,7 +9654,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>2007</v>
       </c>
@@ -9686,7 +9687,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>2007</v>
       </c>
@@ -9719,7 +9720,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>2007</v>
       </c>
@@ -9752,7 +9753,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>2008</v>
       </c>
@@ -9785,7 +9786,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>2008</v>
       </c>
@@ -9818,7 +9819,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>2008</v>
       </c>
@@ -9851,7 +9852,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>2008</v>
       </c>
@@ -9884,7 +9885,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>2008</v>
       </c>
@@ -9917,7 +9918,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>2008</v>
       </c>
@@ -9950,7 +9951,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>2008</v>
       </c>
@@ -9983,7 +9984,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>2008</v>
       </c>
@@ -10016,7 +10017,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>2008</v>
       </c>
@@ -10049,7 +10050,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>2008</v>
       </c>
@@ -10082,7 +10083,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>2008</v>
       </c>
@@ -10115,7 +10116,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>2008</v>
       </c>
@@ -10148,7 +10149,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>2008</v>
       </c>
@@ -10181,7 +10182,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>2008</v>
       </c>
@@ -10214,7 +10215,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>2008</v>
       </c>
@@ -10247,7 +10248,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>2008</v>
       </c>
@@ -10280,7 +10281,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>2008</v>
       </c>
@@ -10313,7 +10314,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>2008</v>
       </c>
@@ -10346,7 +10347,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>2008</v>
       </c>
@@ -10379,7 +10380,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>2008</v>
       </c>
@@ -10412,7 +10413,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>2008</v>
       </c>
@@ -10445,7 +10446,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>2008</v>
       </c>
@@ -10478,7 +10479,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>2008</v>
       </c>
@@ -10511,7 +10512,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>2008</v>
       </c>
@@ -10544,7 +10545,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>2008</v>
       </c>
@@ -10577,7 +10578,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>2008</v>
       </c>
@@ -10610,7 +10611,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>2008</v>
       </c>
@@ -10643,7 +10644,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>2008</v>
       </c>
@@ -10676,7 +10677,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>2008</v>
       </c>
@@ -10709,7 +10710,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>2009</v>
       </c>
@@ -10742,7 +10743,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>2009</v>
       </c>
@@ -10775,7 +10776,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>2009</v>
       </c>
@@ -10808,7 +10809,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>2009</v>
       </c>
@@ -10841,7 +10842,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>2009</v>
       </c>
@@ -10874,7 +10875,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>2009</v>
       </c>
@@ -10907,7 +10908,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>2009</v>
       </c>
@@ -10940,7 +10941,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>2009</v>
       </c>
@@ -10973,7 +10974,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>2009</v>
       </c>
@@ -11006,7 +11007,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>2009</v>
       </c>
@@ -11039,7 +11040,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>2009</v>
       </c>
@@ -11072,7 +11073,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>2009</v>
       </c>
@@ -11105,7 +11106,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>2009</v>
       </c>
@@ -11138,7 +11139,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>2009</v>
       </c>
@@ -11171,7 +11172,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>2009</v>
       </c>
@@ -11204,7 +11205,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>2009</v>
       </c>
@@ -11237,7 +11238,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>2009</v>
       </c>
@@ -11270,7 +11271,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>2009</v>
       </c>
@@ -11303,7 +11304,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>2009</v>
       </c>
@@ -11336,7 +11337,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>2009</v>
       </c>
@@ -11369,7 +11370,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>2009</v>
       </c>
@@ -11402,7 +11403,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>2009</v>
       </c>
@@ -11435,7 +11436,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>2009</v>
       </c>
@@ -11468,7 +11469,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>2009</v>
       </c>
@@ -11501,7 +11502,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>2009</v>
       </c>
@@ -11534,7 +11535,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>2009</v>
       </c>
@@ -11567,7 +11568,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>2009</v>
       </c>
@@ -11600,7 +11601,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>2009</v>
       </c>
@@ -11633,7 +11634,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>2009</v>
       </c>
@@ -11666,7 +11667,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>2009</v>
       </c>
@@ -11699,7 +11700,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>2009</v>
       </c>
@@ -11732,7 +11733,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>2009</v>
       </c>
@@ -11765,7 +11766,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>2009</v>
       </c>
@@ -11798,7 +11799,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>2009</v>
       </c>
@@ -11831,7 +11832,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>2009</v>
       </c>
@@ -11864,7 +11865,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>2009</v>
       </c>
@@ -11897,7 +11898,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>2009</v>
       </c>
@@ -11930,7 +11931,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>2009</v>
       </c>
@@ -11963,7 +11964,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>2009</v>
       </c>
@@ -11996,7 +11997,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>2009</v>
       </c>
@@ -12029,7 +12030,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>2009</v>
       </c>
@@ -12062,7 +12063,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>2009</v>
       </c>
@@ -12095,7 +12096,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>2009</v>
       </c>
@@ -12128,7 +12129,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>2009</v>
       </c>
@@ -12161,7 +12162,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>2009</v>
       </c>
@@ -12194,7 +12195,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>2009</v>
       </c>
@@ -12227,7 +12228,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>2009</v>
       </c>
@@ -12260,7 +12261,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>2009</v>
       </c>
@@ -12293,7 +12294,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>2009</v>
       </c>
@@ -12326,7 +12327,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>2009</v>
       </c>
@@ -12359,7 +12360,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>2009</v>
       </c>
@@ -12392,7 +12393,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>2009</v>
       </c>
@@ -12425,7 +12426,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>2009</v>
       </c>
@@ -12458,7 +12459,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>2009</v>
       </c>
@@ -12491,7 +12492,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>2009</v>
       </c>
@@ -12524,7 +12525,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>2009</v>
       </c>
@@ -12557,7 +12558,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>2009</v>
       </c>
@@ -12590,7 +12591,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>2010</v>
       </c>
@@ -12623,7 +12624,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>2010</v>
       </c>
@@ -12656,7 +12657,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>2010</v>
       </c>
@@ -12689,7 +12690,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>2010</v>
       </c>
@@ -12722,7 +12723,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>2010</v>
       </c>
@@ -12755,7 +12756,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>2010</v>
       </c>
@@ -12788,7 +12789,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>2010</v>
       </c>
@@ -12821,7 +12822,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>2010</v>
       </c>
@@ -12854,7 +12855,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>2010</v>
       </c>
@@ -12887,7 +12888,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>2010</v>
       </c>
@@ -12920,7 +12921,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>2010</v>
       </c>
@@ -12953,7 +12954,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>2010</v>
       </c>
@@ -12986,7 +12987,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>2010</v>
       </c>
@@ -13019,7 +13020,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>2010</v>
       </c>
@@ -13052,7 +13053,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>2010</v>
       </c>
@@ -13085,7 +13086,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>2010</v>
       </c>
@@ -13118,7 +13119,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>2010</v>
       </c>
@@ -13151,7 +13152,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>2010</v>
       </c>
@@ -13184,7 +13185,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>2010</v>
       </c>
@@ -13217,7 +13218,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>2010</v>
       </c>
@@ -13250,7 +13251,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>2010</v>
       </c>
@@ -13283,7 +13284,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>2010</v>
       </c>
@@ -13316,7 +13317,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>2010</v>
       </c>
@@ -13349,7 +13350,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>2010</v>
       </c>
@@ -13382,7 +13383,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>2010</v>
       </c>
@@ -13415,7 +13416,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>2010</v>
       </c>
@@ -13448,7 +13449,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>2010</v>
       </c>
@@ -13481,7 +13482,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>2010</v>
       </c>
@@ -13514,7 +13515,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>2010</v>
       </c>
@@ -13547,7 +13548,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>2010</v>
       </c>
@@ -13580,7 +13581,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>2010</v>
       </c>
@@ -13613,7 +13614,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>2010</v>
       </c>
@@ -13646,7 +13647,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>2010</v>
       </c>
@@ -13679,7 +13680,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>2010</v>
       </c>
@@ -13712,7 +13713,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>2010</v>
       </c>
@@ -13745,7 +13746,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>2010</v>
       </c>
@@ -13778,7 +13779,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>2010</v>
       </c>
@@ -13811,7 +13812,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="422" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>2010</v>
       </c>
@@ -13844,7 +13845,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>2010</v>
       </c>
@@ -13877,7 +13878,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>2010</v>
       </c>
@@ -13910,7 +13911,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>2010</v>
       </c>
@@ -13943,7 +13944,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="426" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>2010</v>
       </c>
@@ -13976,7 +13977,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="427" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>2010</v>
       </c>
@@ -14009,7 +14010,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="428" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>2010</v>
       </c>
@@ -14042,7 +14043,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>2010</v>
       </c>
@@ -14075,7 +14076,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="430" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>2010</v>
       </c>
@@ -14108,7 +14109,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="431" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>2010</v>
       </c>
@@ -14141,7 +14142,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>2010</v>
       </c>
@@ -14174,7 +14175,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>2010</v>
       </c>
@@ -14207,7 +14208,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>2010</v>
       </c>
@@ -14240,7 +14241,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>2010</v>
       </c>
@@ -14273,7 +14274,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>2010</v>
       </c>
@@ -14306,7 +14307,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>2010</v>
       </c>
@@ -14339,7 +14340,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>2010</v>
       </c>
@@ -14372,7 +14373,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>2010</v>
       </c>
@@ -14405,7 +14406,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>2011</v>
       </c>
@@ -14438,7 +14439,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="441" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>2011</v>
       </c>
@@ -14471,7 +14472,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>2011</v>
       </c>
@@ -14504,7 +14505,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>2011</v>
       </c>
@@ -14537,7 +14538,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>2011</v>
       </c>
@@ -14570,7 +14571,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="445" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>2011</v>
       </c>
@@ -14603,7 +14604,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>2011</v>
       </c>
@@ -14636,7 +14637,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>2011</v>
       </c>
@@ -14669,7 +14670,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="448" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>2011</v>
       </c>
@@ -14702,7 +14703,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="449" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>2011</v>
       </c>
@@ -14735,7 +14736,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="450" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>2011</v>
       </c>
@@ -14768,7 +14769,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="451" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>2011</v>
       </c>
@@ -14801,7 +14802,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="452" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>2011</v>
       </c>
@@ -14834,7 +14835,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>2011</v>
       </c>
@@ -14867,7 +14868,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="454" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>2011</v>
       </c>
@@ -14900,7 +14901,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="455" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>2011</v>
       </c>
@@ -14933,7 +14934,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="456" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>2011</v>
       </c>
@@ -14966,7 +14967,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="457" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>2011</v>
       </c>
@@ -14999,7 +15000,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="458" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>2011</v>
       </c>
@@ -15032,7 +15033,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="459" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>2011</v>
       </c>
@@ -15065,7 +15066,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="460" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>2011</v>
       </c>
@@ -15098,7 +15099,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="461" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>2011</v>
       </c>
@@ -15131,7 +15132,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="462" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>2011</v>
       </c>
@@ -15164,7 +15165,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="463" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>2012</v>
       </c>
@@ -15197,7 +15198,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="464" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>2012</v>
       </c>
@@ -15230,7 +15231,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="465" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>2012</v>
       </c>
@@ -15263,7 +15264,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="466" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>2012</v>
       </c>
@@ -15296,7 +15297,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="467" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>2012</v>
       </c>
@@ -15329,7 +15330,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="468" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>2012</v>
       </c>
@@ -15362,7 +15363,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="469" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>2012</v>
       </c>
@@ -15395,7 +15396,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="470" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>2012</v>
       </c>
@@ -15428,7 +15429,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="471" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>2012</v>
       </c>
@@ -15461,7 +15462,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="472" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>2012</v>
       </c>
@@ -15494,7 +15495,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="473" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>2012</v>
       </c>
@@ -15527,7 +15528,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="474" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>2012</v>
       </c>
@@ -15560,7 +15561,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="475" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>2012</v>
       </c>
@@ -15593,7 +15594,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="476" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A476">
         <v>2012</v>
       </c>
@@ -15626,7 +15627,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="477" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A477">
         <v>2012</v>
       </c>
@@ -15659,7 +15660,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="478" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>2012</v>
       </c>
@@ -15692,7 +15693,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="479" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>2012</v>
       </c>
@@ -15725,7 +15726,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="480" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>2012</v>
       </c>
@@ -15758,7 +15759,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="481" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>2012</v>
       </c>
@@ -15791,7 +15792,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="482" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>2012</v>
       </c>
@@ -15824,7 +15825,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="483" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>2012</v>
       </c>
@@ -15857,7 +15858,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="484" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>2012</v>
       </c>
@@ -15890,7 +15891,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="485" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A485">
         <v>2012</v>
       </c>
@@ -15923,7 +15924,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="486" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>2012</v>
       </c>
@@ -15956,7 +15957,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="487" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A487">
         <v>2012</v>
       </c>
@@ -15989,7 +15990,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="488" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>2012</v>
       </c>
@@ -16022,7 +16023,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="489" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>2012</v>
       </c>
@@ -16055,7 +16056,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="490" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>2012</v>
       </c>
@@ -16088,7 +16089,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="491" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>2012</v>
       </c>
@@ -16121,7 +16122,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="492" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>2012</v>
       </c>
@@ -16154,7 +16155,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="493" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>2012</v>
       </c>
@@ -16187,7 +16188,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="494" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A494">
         <v>2013</v>
       </c>
@@ -16220,7 +16221,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="495" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A495">
         <v>2013</v>
       </c>
@@ -16253,7 +16254,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="496" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A496">
         <v>2013</v>
       </c>
@@ -16286,7 +16287,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="497" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A497">
         <v>2013</v>
       </c>
@@ -16319,7 +16320,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="498" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A498">
         <v>2013</v>
       </c>
@@ -16352,7 +16353,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="499" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A499">
         <v>2013</v>
       </c>
@@ -16385,7 +16386,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="500" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A500">
         <v>2013</v>
       </c>
@@ -16418,7 +16419,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="501" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A501">
         <v>2013</v>
       </c>
@@ -16451,7 +16452,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="502" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A502">
         <v>2013</v>
       </c>
@@ -16484,7 +16485,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="503" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A503">
         <v>2013</v>
       </c>
@@ -16517,7 +16518,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="504" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A504">
         <v>2013</v>
       </c>
@@ -16550,7 +16551,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="505" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A505">
         <v>2013</v>
       </c>
@@ -16583,7 +16584,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="506" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A506">
         <v>2013</v>
       </c>
@@ -16616,7 +16617,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="507" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A507">
         <v>2013</v>
       </c>
@@ -16649,7 +16650,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="508" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A508">
         <v>2013</v>
       </c>
@@ -16682,7 +16683,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="509" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A509">
         <v>2013</v>
       </c>
@@ -16715,7 +16716,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="510" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A510">
         <v>2013</v>
       </c>
@@ -16748,7 +16749,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="511" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A511">
         <v>2013</v>
       </c>
@@ -16781,7 +16782,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="512" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A512">
         <v>2013</v>
       </c>
@@ -16814,7 +16815,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="513" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A513">
         <v>2013</v>
       </c>
@@ -16847,7 +16848,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="514" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A514">
         <v>2013</v>
       </c>
@@ -16880,7 +16881,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="515" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A515">
         <v>2013</v>
       </c>
@@ -16913,7 +16914,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="516" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A516">
         <v>2013</v>
       </c>
@@ -16946,7 +16947,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="517" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A517">
         <v>2013</v>
       </c>
@@ -16979,7 +16980,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="518" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A518">
         <v>2013</v>
       </c>
@@ -17012,7 +17013,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="519" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A519">
         <v>2013</v>
       </c>
@@ -17045,7 +17046,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="520" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A520">
         <v>2013</v>
       </c>
@@ -17078,7 +17079,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="521" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A521">
         <v>2013</v>
       </c>
@@ -17111,7 +17112,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="522" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A522">
         <v>2013</v>
       </c>
@@ -17144,7 +17145,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="523" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A523">
         <v>2013</v>
       </c>
@@ -17177,7 +17178,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="524" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A524">
         <v>2013</v>
       </c>
@@ -17210,7 +17211,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="525" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A525">
         <v>2013</v>
       </c>
@@ -17243,7 +17244,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="526" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A526">
         <v>2013</v>
       </c>
@@ -17276,7 +17277,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="527" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A527">
         <v>2013</v>
       </c>
@@ -17309,7 +17310,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="528" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A528">
         <v>2013</v>
       </c>
@@ -17342,7 +17343,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="529" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A529">
         <v>2013</v>
       </c>
@@ -17375,7 +17376,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="530" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A530">
         <v>2013</v>
       </c>
@@ -17408,7 +17409,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="531" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A531">
         <v>2013</v>
       </c>
@@ -17441,7 +17442,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="532" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A532">
         <v>2013</v>
       </c>
@@ -17474,7 +17475,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="533" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A533">
         <v>2013</v>
       </c>
@@ -17507,7 +17508,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="534" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A534">
         <v>2013</v>
       </c>
@@ -17540,7 +17541,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="535" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A535">
         <v>2013</v>
       </c>
@@ -17573,7 +17574,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="536" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A536">
         <v>2013</v>
       </c>
@@ -17606,7 +17607,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="537" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A537">
         <v>2013</v>
       </c>
@@ -17639,7 +17640,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="538" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A538">
         <v>2013</v>
       </c>
@@ -17672,7 +17673,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="539" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A539">
         <v>2013</v>
       </c>
@@ -17705,7 +17706,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="540" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A540">
         <v>2013</v>
       </c>
@@ -17738,7 +17739,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="541" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A541">
         <v>2014</v>
       </c>
@@ -17771,7 +17772,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="542" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A542">
         <v>2014</v>
       </c>
@@ -17804,7 +17805,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="543" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A543">
         <v>2014</v>
       </c>
@@ -17837,7 +17838,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="544" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A544">
         <v>2014</v>
       </c>
@@ -17870,7 +17871,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="545" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A545">
         <v>2014</v>
       </c>
@@ -17903,7 +17904,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="546" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A546">
         <v>2014</v>
       </c>
@@ -17936,7 +17937,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="547" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A547">
         <v>2014</v>
       </c>
@@ -17969,7 +17970,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="548" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A548">
         <v>2014</v>
       </c>
@@ -18002,7 +18003,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="549" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A549">
         <v>2014</v>
       </c>
@@ -18035,7 +18036,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="550" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A550">
         <v>2015</v>
       </c>
@@ -18068,7 +18069,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="551" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A551">
         <v>2015</v>
       </c>
@@ -18101,7 +18102,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="552" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A552">
         <v>2015</v>
       </c>
@@ -18134,7 +18135,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="553" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A553">
         <v>2015</v>
       </c>
@@ -18167,7 +18168,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="554" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A554">
         <v>2015</v>
       </c>
@@ -18200,7 +18201,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="555" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A555">
         <v>2015</v>
       </c>
@@ -18233,7 +18234,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="556" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A556">
         <v>2015</v>
       </c>
@@ -18266,7 +18267,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="557" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A557">
         <v>2015</v>
       </c>
@@ -18299,7 +18300,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="558" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A558">
         <v>2015</v>
       </c>
@@ -18332,7 +18333,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="559" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A559">
         <v>2015</v>
       </c>
@@ -18365,7 +18366,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="560" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A560">
         <v>2015</v>
       </c>
@@ -18398,7 +18399,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="561" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A561">
         <v>2015</v>
       </c>
@@ -18431,7 +18432,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="562" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A562">
         <v>2015</v>
       </c>
@@ -18464,7 +18465,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="563" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A563">
         <v>2015</v>
       </c>
@@ -18497,7 +18498,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="564" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A564">
         <v>2015</v>
       </c>
@@ -18530,7 +18531,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="565" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A565">
         <v>2016</v>
       </c>
@@ -18563,7 +18564,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="566" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A566">
         <v>2016</v>
       </c>
@@ -18596,7 +18597,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="567" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A567">
         <v>2016</v>
       </c>
@@ -18629,7 +18630,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="568" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A568">
         <v>2016</v>
       </c>
@@ -18662,7 +18663,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="569" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A569">
         <v>2016</v>
       </c>
@@ -18695,7 +18696,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="570" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A570">
         <v>2016</v>
       </c>
@@ -18728,7 +18729,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="571" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A571">
         <v>2016</v>
       </c>
@@ -18761,7 +18762,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="572" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A572">
         <v>2016</v>
       </c>
@@ -18794,7 +18795,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="573" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A573">
         <v>2016</v>
       </c>
@@ -18827,7 +18828,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="574" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A574">
         <v>2016</v>
       </c>
@@ -18860,7 +18861,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="575" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A575">
         <v>2016</v>
       </c>
@@ -18893,7 +18894,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="576" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A576">
         <v>2016</v>
       </c>
@@ -18926,7 +18927,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="577" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A577">
         <v>2016</v>
       </c>
@@ -18959,7 +18960,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="578" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A578">
         <v>2017</v>
       </c>
@@ -18992,7 +18993,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="579" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A579">
         <v>2017</v>
       </c>
@@ -19025,7 +19026,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="580" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A580">
         <v>2017</v>
       </c>
@@ -19058,7 +19059,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="581" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A581">
         <v>2017</v>
       </c>
@@ -19091,7 +19092,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="582" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A582">
         <v>2017</v>
       </c>
@@ -19124,7 +19125,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="583" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A583">
         <v>2017</v>
       </c>
@@ -19157,7 +19158,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="584" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A584">
         <v>2017</v>
       </c>
@@ -19190,7 +19191,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="585" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A585">
         <v>2017</v>
       </c>
@@ -19223,7 +19224,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="586" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A586">
         <v>2017</v>
       </c>
@@ -19256,7 +19257,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="587" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A587">
         <v>2017</v>
       </c>
@@ -19289,7 +19290,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="588" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A588">
         <v>2017</v>
       </c>
@@ -19322,7 +19323,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="589" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A589">
         <v>2017</v>
       </c>
@@ -19355,7 +19356,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="590" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A590">
         <v>2017</v>
       </c>
@@ -19388,7 +19389,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="591" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A591">
         <v>2017</v>
       </c>
@@ -19421,7 +19422,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="592" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A592">
         <v>2017</v>
       </c>
@@ -19454,7 +19455,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="593" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A593">
         <v>2017</v>
       </c>
@@ -19487,7 +19488,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="594" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A594">
         <v>2017</v>
       </c>
@@ -19520,7 +19521,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="595" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A595">
         <v>2017</v>
       </c>
@@ -19553,7 +19554,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="596" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A596">
         <v>2017</v>
       </c>
@@ -19586,7 +19587,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="597" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A597">
         <v>2017</v>
       </c>
@@ -19619,7 +19620,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="598" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A598">
         <v>2017</v>
       </c>
@@ -19652,7 +19653,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="599" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A599">
         <v>2017</v>
       </c>
@@ -19685,7 +19686,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="600" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A600">
         <v>2017</v>
       </c>
@@ -19718,7 +19719,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="601" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A601">
         <v>2017</v>
       </c>
@@ -19751,7 +19752,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="602" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A602">
         <v>2017</v>
       </c>
@@ -19784,7 +19785,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="603" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A603">
         <v>2017</v>
       </c>
@@ -19817,7 +19818,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="604" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A604">
         <v>2017</v>
       </c>
@@ -19850,7 +19851,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="605" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A605">
         <v>2017</v>
       </c>
@@ -19883,7 +19884,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="606" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A606">
         <v>2017</v>
       </c>
@@ -19916,7 +19917,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="607" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A607">
         <v>2017</v>
       </c>
@@ -19949,7 +19950,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="608" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A608">
         <v>2017</v>
       </c>
@@ -19982,7 +19983,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="609" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A609">
         <v>2017</v>
       </c>
@@ -20015,7 +20016,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="610" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A610">
         <v>2017</v>
       </c>
@@ -20048,7 +20049,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="611" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A611">
         <v>2017</v>
       </c>
@@ -20081,7 +20082,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="612" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A612">
         <v>2017</v>
       </c>
@@ -20114,7 +20115,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="613" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A613">
         <v>2017</v>
       </c>
@@ -20147,7 +20148,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="614" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A614">
         <v>2017</v>
       </c>
@@ -20180,7 +20181,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="615" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A615">
         <v>2017</v>
       </c>
@@ -20213,7 +20214,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="616" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A616">
         <v>2017</v>
       </c>
@@ -20246,7 +20247,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="617" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A617">
         <v>2017</v>
       </c>
@@ -20279,7 +20280,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="618" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A618">
         <v>2017</v>
       </c>
@@ -20312,7 +20313,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="619" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A619">
         <v>2017</v>
       </c>
@@ -20345,7 +20346,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="620" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A620">
         <v>2017</v>
       </c>
@@ -20378,7 +20379,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="621" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A621">
         <v>2017</v>
       </c>
@@ -20411,7 +20412,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="622" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A622">
         <v>2018</v>
       </c>
@@ -20444,7 +20445,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="623" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A623">
         <v>2018</v>
       </c>
@@ -20477,7 +20478,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="624" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A624">
         <v>2018</v>
       </c>
@@ -20510,7 +20511,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="625" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A625">
         <v>2018</v>
       </c>
@@ -20543,7 +20544,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="626" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A626">
         <v>2018</v>
       </c>
@@ -20576,7 +20577,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="627" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A627">
         <v>2018</v>
       </c>
@@ -20609,7 +20610,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="628" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A628">
         <v>2018</v>
       </c>
@@ -20642,7 +20643,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="629" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A629">
         <v>2018</v>
       </c>
@@ -20675,7 +20676,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="630" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A630">
         <v>2018</v>
       </c>
@@ -20708,7 +20709,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="631" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A631">
         <v>2018</v>
       </c>
@@ -20741,7 +20742,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="632" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A632">
         <v>2018</v>
       </c>
@@ -20774,7 +20775,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="633" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A633">
         <v>2018</v>
       </c>
@@ -20807,7 +20808,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="634" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A634">
         <v>2018</v>
       </c>
@@ -20840,7 +20841,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="635" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A635">
         <v>2018</v>
       </c>
@@ -20873,7 +20874,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="636" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A636">
         <v>2018</v>
       </c>
@@ -20906,7 +20907,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="637" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A637">
         <v>2018</v>
       </c>
@@ -20939,7 +20940,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="638" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A638">
         <v>2018</v>
       </c>
@@ -20972,7 +20973,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="639" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A639">
         <v>2018</v>
       </c>
@@ -21005,7 +21006,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="640" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A640">
         <v>2019</v>
       </c>
@@ -21038,7 +21039,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="641" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A641">
         <v>2019</v>
       </c>
@@ -21071,7 +21072,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="642" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A642">
         <v>2019</v>
       </c>
@@ -21104,7 +21105,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="643" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A643">
         <v>2019</v>
       </c>
@@ -21137,7 +21138,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="644" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A644">
         <v>2019</v>
       </c>
@@ -21170,7 +21171,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="645" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A645">
         <v>2019</v>
       </c>
@@ -21203,7 +21204,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="646" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A646">
         <v>2019</v>
       </c>
@@ -21236,7 +21237,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="647" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A647">
         <v>2019</v>
       </c>
@@ -21269,7 +21270,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="648" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A648">
         <v>2019</v>
       </c>
@@ -21302,7 +21303,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="649" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A649">
         <v>2019</v>
       </c>
@@ -21335,7 +21336,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="650" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A650">
         <v>2019</v>
       </c>
@@ -21368,7 +21369,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="651" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A651">
         <v>2019</v>
       </c>
@@ -21401,7 +21402,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="652" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A652">
         <v>2019</v>
       </c>
@@ -21434,7 +21435,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="653" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A653">
         <v>2020</v>
       </c>
@@ -21467,7 +21468,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="654" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A654">
         <v>2020</v>
       </c>
@@ -21500,7 +21501,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="655" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A655">
         <v>2020</v>
       </c>
@@ -21533,7 +21534,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="656" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A656">
         <v>2020</v>
       </c>
@@ -21566,7 +21567,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="657" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A657">
         <v>2020</v>
       </c>
@@ -21599,7 +21600,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="658" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A658">
         <v>2020</v>
       </c>
@@ -21632,7 +21633,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="659" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A659">
         <v>2020</v>
       </c>
@@ -21665,7 +21666,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="660" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A660">
         <v>2020</v>
       </c>
@@ -21698,7 +21699,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="661" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A661">
         <v>2020</v>
       </c>
@@ -21731,7 +21732,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="662" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A662">
         <v>2020</v>
       </c>
@@ -21764,7 +21765,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="663" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A663">
         <v>2020</v>
       </c>
@@ -21797,7 +21798,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="664" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A664">
         <v>2020</v>
       </c>
@@ -21830,7 +21831,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="665" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A665">
         <v>2020</v>
       </c>
@@ -21863,7 +21864,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="666" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A666">
         <v>2020</v>
       </c>
@@ -21896,7 +21897,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="667" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A667">
         <v>2021</v>
       </c>
@@ -21929,7 +21930,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="668" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A668">
         <v>2021</v>
       </c>
@@ -21962,7 +21963,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="669" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A669">
         <v>2021</v>
       </c>
@@ -21995,7 +21996,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="670" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A670">
         <v>2021</v>
       </c>
@@ -22028,7 +22029,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="671" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A671">
         <v>2021</v>
       </c>
@@ -22061,7 +22062,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="672" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A672">
         <v>2021</v>
       </c>
@@ -22094,7 +22095,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="673" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A673">
         <v>2021</v>
       </c>
@@ -22127,7 +22128,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="674" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A674">
         <v>2021</v>
       </c>
@@ -22160,7 +22161,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="675" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A675">
         <v>2021</v>
       </c>
@@ -22193,7 +22194,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="676" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A676">
         <v>2021</v>
       </c>
@@ -22226,7 +22227,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="677" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A677">
         <v>2021</v>
       </c>
@@ -22259,7 +22260,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="678" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A678">
         <v>2021</v>
       </c>
@@ -22292,7 +22293,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="679" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A679">
         <v>2021</v>
       </c>
@@ -22325,7 +22326,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="680" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A680">
         <v>2021</v>
       </c>
@@ -22358,7 +22359,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="681" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A681">
         <v>2021</v>
       </c>
@@ -22391,7 +22392,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="682" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A682">
         <v>2021</v>
       </c>
@@ -22424,7 +22425,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="683" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A683">
         <v>2021</v>
       </c>
@@ -22457,7 +22458,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="684" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A684">
         <v>2021</v>
       </c>
@@ -22490,7 +22491,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="685" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A685">
         <v>2021</v>
       </c>
@@ -22523,7 +22524,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="686" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A686">
         <v>2021</v>
       </c>
@@ -22556,7 +22557,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="687" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A687">
         <v>2021</v>
       </c>
@@ -22589,7 +22590,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="688" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A688">
         <v>2021</v>
       </c>
@@ -22622,7 +22623,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="689" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A689">
         <v>2021</v>
       </c>
@@ -22655,7 +22656,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="690" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A690">
         <v>2021</v>
       </c>
@@ -22688,7 +22689,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="691" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A691">
         <v>2021</v>
       </c>
@@ -22721,7 +22722,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="692" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A692">
         <v>2021</v>
       </c>
@@ -22754,7 +22755,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="693" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A693">
         <v>2021</v>
       </c>
@@ -22787,7 +22788,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="694" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A694">
         <v>2021</v>
       </c>
@@ -22820,7 +22821,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="695" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A695">
         <v>2021</v>
       </c>
@@ -22853,7 +22854,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="696" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A696">
         <v>2021</v>
       </c>
@@ -22886,7 +22887,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="697" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A697">
         <v>2021</v>
       </c>
@@ -22919,7 +22920,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="698" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A698">
         <v>2021</v>
       </c>
@@ -22952,7 +22953,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="699" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A699">
         <v>2021</v>
       </c>
@@ -22985,7 +22986,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="700" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A700">
         <v>2021</v>
       </c>
@@ -23018,7 +23019,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="701" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A701">
         <v>2021</v>
       </c>
@@ -23051,7 +23052,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="702" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A702">
         <v>2021</v>
       </c>
@@ -23084,7 +23085,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="703" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A703">
         <v>2022</v>
       </c>
@@ -23116,7 +23117,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="704" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A704">
         <v>2022</v>
       </c>
@@ -23149,7 +23150,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="705" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A705">
         <v>2022</v>
       </c>
@@ -23182,7 +23183,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="706" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A706">
         <v>2022</v>
       </c>
@@ -23215,7 +23216,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="707" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A707">
         <v>2022</v>
       </c>
@@ -23248,7 +23249,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="708" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A708">
         <v>2022</v>
       </c>
@@ -23318,10 +23319,12 @@
       <c r="I720" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J702" xr:uid="{A99EFA95-E1A2-4F3D-8001-3428518B60BC}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J702">
-      <sortCondition ref="A1:A702"/>
-    </sortState>
+  <autoFilter ref="A1:J708" xr:uid="{A99EFA95-E1A2-4F3D-8001-3428518B60BC}">
+    <filterColumn colId="3">
+      <filters>
+        <dateGroupItem year="2022" month="7" day="2" dateTimeGrouping="day"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/docs/Data/TyeeCatchData.xlsx
+++ b/docs/Data/TyeeCatchData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evogt\R Analysis\EAV\GitHubMarkdown\R-Markdown-GitHub-Page\docs\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F86BEC1E-272A-44B6-A5F6-D33347C816DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F536724-F09C-4F61-9366-5C4F584C2569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0CB3CDF9-0205-43C4-ADC8-DEC6E991EEB1}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="20">
   <si>
     <t>Year</t>
   </si>
@@ -457,11 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A99EFA95-E1A2-4F3D-8001-3428518B60BC}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:J720"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D712" sqref="D712"/>
+    <sheetView tabSelected="1" topLeftCell="A677" workbookViewId="0">
+      <selection activeCell="G710" sqref="G710"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -510,7 +509,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2002</v>
       </c>
@@ -537,7 +536,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2002</v>
       </c>
@@ -564,7 +563,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2002</v>
       </c>
@@ -591,7 +590,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2002</v>
       </c>
@@ -618,7 +617,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2002</v>
       </c>
@@ -645,7 +644,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2002</v>
       </c>
@@ -672,7 +671,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2002</v>
       </c>
@@ -699,7 +698,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2002</v>
       </c>
@@ -726,7 +725,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2002</v>
       </c>
@@ -753,7 +752,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2002</v>
       </c>
@@ -780,7 +779,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2002</v>
       </c>
@@ -807,7 +806,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2002</v>
       </c>
@@ -834,7 +833,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2002</v>
       </c>
@@ -861,7 +860,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2002</v>
       </c>
@@ -888,7 +887,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2002</v>
       </c>
@@ -915,7 +914,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2002</v>
       </c>
@@ -942,7 +941,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2002</v>
       </c>
@@ -969,7 +968,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2002</v>
       </c>
@@ -996,7 +995,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2002</v>
       </c>
@@ -1023,7 +1022,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2002</v>
       </c>
@@ -1050,7 +1049,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2002</v>
       </c>
@@ -1077,7 +1076,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2002</v>
       </c>
@@ -1104,7 +1103,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2002</v>
       </c>
@@ -1131,7 +1130,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2002</v>
       </c>
@@ -1158,7 +1157,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2002</v>
       </c>
@@ -1185,7 +1184,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2002</v>
       </c>
@@ -1212,7 +1211,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2002</v>
       </c>
@@ -1239,7 +1238,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2002</v>
       </c>
@@ -1266,7 +1265,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2002</v>
       </c>
@@ -1293,7 +1292,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2002</v>
       </c>
@@ -1320,7 +1319,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2002</v>
       </c>
@@ -1347,7 +1346,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2002</v>
       </c>
@@ -1374,7 +1373,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2002</v>
       </c>
@@ -1401,7 +1400,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2002</v>
       </c>
@@ -1428,7 +1427,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2002</v>
       </c>
@@ -1455,7 +1454,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2002</v>
       </c>
@@ -1482,7 +1481,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2002</v>
       </c>
@@ -1509,7 +1508,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2002</v>
       </c>
@@ -1536,7 +1535,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>2002</v>
       </c>
@@ -1563,7 +1562,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>2002</v>
       </c>
@@ -1590,7 +1589,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>2002</v>
       </c>
@@ -1617,7 +1616,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2002</v>
       </c>
@@ -1644,7 +1643,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2002</v>
       </c>
@@ -1671,7 +1670,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2002</v>
       </c>
@@ -1698,7 +1697,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>2002</v>
       </c>
@@ -1725,7 +1724,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>2002</v>
       </c>
@@ -1752,7 +1751,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>2002</v>
       </c>
@@ -1779,7 +1778,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>2002</v>
       </c>
@@ -1806,7 +1805,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>2002</v>
       </c>
@@ -1833,7 +1832,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2002</v>
       </c>
@@ -1860,7 +1859,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>2002</v>
       </c>
@@ -1887,7 +1886,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>2002</v>
       </c>
@@ -1914,7 +1913,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>2002</v>
       </c>
@@ -1941,7 +1940,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>2002</v>
       </c>
@@ -1968,7 +1967,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>2002</v>
       </c>
@@ -1995,7 +1994,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>2002</v>
       </c>
@@ -2022,7 +2021,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>2002</v>
       </c>
@@ -2049,7 +2048,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>2002</v>
       </c>
@@ -2076,7 +2075,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>2002</v>
       </c>
@@ -2103,7 +2102,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>2002</v>
       </c>
@@ -2130,7 +2129,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>2002</v>
       </c>
@@ -2184,7 +2183,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>2002</v>
       </c>
@@ -2211,7 +2210,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>2002</v>
       </c>
@@ -2238,7 +2237,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>2002</v>
       </c>
@@ -2265,7 +2264,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>2002</v>
       </c>
@@ -2292,7 +2291,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>2002</v>
       </c>
@@ -2346,7 +2345,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>2002</v>
       </c>
@@ -2373,7 +2372,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>2002</v>
       </c>
@@ -2400,7 +2399,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>2002</v>
       </c>
@@ -2427,7 +2426,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>2002</v>
       </c>
@@ -2454,7 +2453,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>2002</v>
       </c>
@@ -2481,7 +2480,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>2002</v>
       </c>
@@ -2508,7 +2507,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>2002</v>
       </c>
@@ -2535,7 +2534,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>2002</v>
       </c>
@@ -2562,7 +2561,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>2002</v>
       </c>
@@ -2589,7 +2588,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>2002</v>
       </c>
@@ -2616,7 +2615,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>2002</v>
       </c>
@@ -2643,7 +2642,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>2002</v>
       </c>
@@ -2670,7 +2669,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>2002</v>
       </c>
@@ -2697,7 +2696,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>2002</v>
       </c>
@@ -2724,7 +2723,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>2002</v>
       </c>
@@ -2751,7 +2750,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>2002</v>
       </c>
@@ -2778,7 +2777,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>2002</v>
       </c>
@@ -2805,7 +2804,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>2002</v>
       </c>
@@ -2832,7 +2831,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>2002</v>
       </c>
@@ -2859,7 +2858,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>2002</v>
       </c>
@@ -2886,7 +2885,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>2002</v>
       </c>
@@ -2913,7 +2912,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>2002</v>
       </c>
@@ -2940,7 +2939,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>2002</v>
       </c>
@@ -2967,7 +2966,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>2002</v>
       </c>
@@ -2994,7 +2993,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>2002</v>
       </c>
@@ -3021,7 +3020,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>2003</v>
       </c>
@@ -3054,7 +3053,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>2003</v>
       </c>
@@ -3087,7 +3086,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>2003</v>
       </c>
@@ -3120,7 +3119,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>2003</v>
       </c>
@@ -3153,7 +3152,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>2003</v>
       </c>
@@ -3186,7 +3185,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>2003</v>
       </c>
@@ -3219,7 +3218,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>2003</v>
       </c>
@@ -3252,7 +3251,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>2003</v>
       </c>
@@ -3285,7 +3284,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>2003</v>
       </c>
@@ -3318,7 +3317,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>2003</v>
       </c>
@@ -3351,7 +3350,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>2003</v>
       </c>
@@ -3384,7 +3383,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>2003</v>
       </c>
@@ -3417,7 +3416,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>2003</v>
       </c>
@@ -3450,7 +3449,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>2003</v>
       </c>
@@ -3483,7 +3482,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>2003</v>
       </c>
@@ -3516,7 +3515,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>2004</v>
       </c>
@@ -3549,7 +3548,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>2004</v>
       </c>
@@ -3582,7 +3581,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>2004</v>
       </c>
@@ -3615,7 +3614,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>2004</v>
       </c>
@@ -3648,7 +3647,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>2004</v>
       </c>
@@ -3681,7 +3680,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>2004</v>
       </c>
@@ -3714,7 +3713,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>2004</v>
       </c>
@@ -3747,7 +3746,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>2004</v>
       </c>
@@ -3780,7 +3779,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>2004</v>
       </c>
@@ -3813,7 +3812,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>2004</v>
       </c>
@@ -3846,7 +3845,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>2004</v>
       </c>
@@ -3879,7 +3878,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>2004</v>
       </c>
@@ -3912,7 +3911,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>2004</v>
       </c>
@@ -3945,7 +3944,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>2004</v>
       </c>
@@ -3978,7 +3977,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>2004</v>
       </c>
@@ -4011,7 +4010,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>2004</v>
       </c>
@@ -4044,7 +4043,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>2004</v>
       </c>
@@ -4077,7 +4076,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>2004</v>
       </c>
@@ -4110,7 +4109,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>2004</v>
       </c>
@@ -4143,7 +4142,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>2004</v>
       </c>
@@ -4176,7 +4175,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>2004</v>
       </c>
@@ -4209,7 +4208,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>2004</v>
       </c>
@@ -4242,7 +4241,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>2004</v>
       </c>
@@ -4275,7 +4274,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>2004</v>
       </c>
@@ -4308,7 +4307,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>2004</v>
       </c>
@@ -4341,7 +4340,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>2004</v>
       </c>
@@ -4374,7 +4373,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>2004</v>
       </c>
@@ -4407,7 +4406,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>2004</v>
       </c>
@@ -4440,7 +4439,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>2004</v>
       </c>
@@ -4473,7 +4472,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>2004</v>
       </c>
@@ -4506,7 +4505,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>2004</v>
       </c>
@@ -4539,7 +4538,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>2004</v>
       </c>
@@ -4572,7 +4571,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>2004</v>
       </c>
@@ -4605,7 +4604,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>2004</v>
       </c>
@@ -4638,7 +4637,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>2004</v>
       </c>
@@ -4671,7 +4670,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>2004</v>
       </c>
@@ -4704,7 +4703,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>2004</v>
       </c>
@@ -4737,7 +4736,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>2004</v>
       </c>
@@ -4770,7 +4769,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>2004</v>
       </c>
@@ -4803,7 +4802,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>2004</v>
       </c>
@@ -4836,7 +4835,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>2004</v>
       </c>
@@ -4869,7 +4868,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>2004</v>
       </c>
@@ -4902,7 +4901,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>2004</v>
       </c>
@@ -4935,7 +4934,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>2004</v>
       </c>
@@ -4968,7 +4967,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>2004</v>
       </c>
@@ -5001,7 +5000,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>2004</v>
       </c>
@@ -5034,7 +5033,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>2004</v>
       </c>
@@ -5067,7 +5066,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>2004</v>
       </c>
@@ -5100,7 +5099,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>2004</v>
       </c>
@@ -5133,7 +5132,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>2004</v>
       </c>
@@ -5166,7 +5165,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>2004</v>
       </c>
@@ -5199,7 +5198,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>2004</v>
       </c>
@@ -5232,7 +5231,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>2004</v>
       </c>
@@ -5265,7 +5264,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>2004</v>
       </c>
@@ -5298,7 +5297,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>2004</v>
       </c>
@@ -5331,7 +5330,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>2004</v>
       </c>
@@ -5364,7 +5363,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>2004</v>
       </c>
@@ -5397,7 +5396,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>2004</v>
       </c>
@@ -5430,7 +5429,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>2004</v>
       </c>
@@ -5463,7 +5462,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>2005</v>
       </c>
@@ -5496,7 +5495,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>2005</v>
       </c>
@@ -5529,7 +5528,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>2005</v>
       </c>
@@ -5562,7 +5561,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>2005</v>
       </c>
@@ -5595,7 +5594,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>2005</v>
       </c>
@@ -5628,7 +5627,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>2005</v>
       </c>
@@ -5661,7 +5660,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>2005</v>
       </c>
@@ -5694,7 +5693,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>2005</v>
       </c>
@@ -5727,7 +5726,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>2005</v>
       </c>
@@ -5760,7 +5759,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>2005</v>
       </c>
@@ -5793,7 +5792,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>2005</v>
       </c>
@@ -5826,7 +5825,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>2005</v>
       </c>
@@ -5859,7 +5858,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>2005</v>
       </c>
@@ -5892,7 +5891,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>2005</v>
       </c>
@@ -5925,7 +5924,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>2005</v>
       </c>
@@ -5958,7 +5957,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>2005</v>
       </c>
@@ -5991,7 +5990,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>2005</v>
       </c>
@@ -6024,7 +6023,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="186" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>2005</v>
       </c>
@@ -6057,7 +6056,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>2005</v>
       </c>
@@ -6090,7 +6089,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>2005</v>
       </c>
@@ -6123,7 +6122,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>2005</v>
       </c>
@@ -6156,7 +6155,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>2005</v>
       </c>
@@ -6189,7 +6188,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>2005</v>
       </c>
@@ -6222,7 +6221,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>2005</v>
       </c>
@@ -6255,7 +6254,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>2005</v>
       </c>
@@ -6288,7 +6287,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>2005</v>
       </c>
@@ -6321,7 +6320,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>2005</v>
       </c>
@@ -6354,7 +6353,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>2005</v>
       </c>
@@ -6387,7 +6386,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>2005</v>
       </c>
@@ -6420,7 +6419,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>2005</v>
       </c>
@@ -6453,7 +6452,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="199" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>2005</v>
       </c>
@@ -6486,7 +6485,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>2005</v>
       </c>
@@ -6519,7 +6518,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>2005</v>
       </c>
@@ -6552,7 +6551,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>2005</v>
       </c>
@@ -6585,7 +6584,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="203" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>2005</v>
       </c>
@@ -6618,7 +6617,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>2005</v>
       </c>
@@ -6651,7 +6650,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>2005</v>
       </c>
@@ -6684,7 +6683,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>2005</v>
       </c>
@@ -6717,7 +6716,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>2005</v>
       </c>
@@ -6750,7 +6749,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>2005</v>
       </c>
@@ -6783,7 +6782,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>2005</v>
       </c>
@@ -6816,7 +6815,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>2005</v>
       </c>
@@ -6849,7 +6848,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="211" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>2005</v>
       </c>
@@ -6882,7 +6881,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="212" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>2005</v>
       </c>
@@ -6915,7 +6914,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="213" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>2005</v>
       </c>
@@ -6948,7 +6947,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="214" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>2006</v>
       </c>
@@ -6981,7 +6980,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="215" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>2006</v>
       </c>
@@ -7014,7 +7013,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="216" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>2006</v>
       </c>
@@ -7047,7 +7046,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>2006</v>
       </c>
@@ -7080,7 +7079,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="218" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>2006</v>
       </c>
@@ -7113,7 +7112,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="219" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>2006</v>
       </c>
@@ -7146,7 +7145,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="220" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>2006</v>
       </c>
@@ -7179,7 +7178,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>2006</v>
       </c>
@@ -7212,7 +7211,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="222" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>2006</v>
       </c>
@@ -7245,7 +7244,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="223" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>2006</v>
       </c>
@@ -7278,7 +7277,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>2006</v>
       </c>
@@ -7311,7 +7310,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>2006</v>
       </c>
@@ -7344,7 +7343,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>2006</v>
       </c>
@@ -7377,7 +7376,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="227" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>2006</v>
       </c>
@@ -7410,7 +7409,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="228" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>2006</v>
       </c>
@@ -7443,7 +7442,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="229" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>2006</v>
       </c>
@@ -7476,7 +7475,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>2006</v>
       </c>
@@ -7509,7 +7508,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="231" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>2006</v>
       </c>
@@ -7542,7 +7541,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>2006</v>
       </c>
@@ -7575,7 +7574,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="233" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>2006</v>
       </c>
@@ -7608,7 +7607,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="234" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>2006</v>
       </c>
@@ -7641,7 +7640,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="235" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>2006</v>
       </c>
@@ -7674,7 +7673,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="236" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>2006</v>
       </c>
@@ -7707,7 +7706,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="237" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>2006</v>
       </c>
@@ -7740,7 +7739,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="238" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>2006</v>
       </c>
@@ -7773,7 +7772,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="239" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>2006</v>
       </c>
@@ -7806,7 +7805,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="240" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>2006</v>
       </c>
@@ -7839,7 +7838,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="241" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>2006</v>
       </c>
@@ -7872,7 +7871,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="242" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>2006</v>
       </c>
@@ -7905,7 +7904,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="243" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>2006</v>
       </c>
@@ -7938,7 +7937,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="244" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>2006</v>
       </c>
@@ -7971,7 +7970,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="245" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>2006</v>
       </c>
@@ -8004,7 +8003,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="246" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>2006</v>
       </c>
@@ -8037,7 +8036,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="247" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>2006</v>
       </c>
@@ -8070,7 +8069,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="248" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>2006</v>
       </c>
@@ -8103,7 +8102,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="249" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>2006</v>
       </c>
@@ -8136,7 +8135,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="250" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>2006</v>
       </c>
@@ -8169,7 +8168,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="251" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>2006</v>
       </c>
@@ -8202,7 +8201,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="252" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>2006</v>
       </c>
@@ -8235,7 +8234,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="253" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>2006</v>
       </c>
@@ -8268,7 +8267,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="254" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>2006</v>
       </c>
@@ -8301,7 +8300,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="255" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>2006</v>
       </c>
@@ -8334,7 +8333,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="256" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>2006</v>
       </c>
@@ -8367,7 +8366,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="257" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>2006</v>
       </c>
@@ -8400,7 +8399,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="258" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>2006</v>
       </c>
@@ -8433,7 +8432,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="259" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>2006</v>
       </c>
@@ -8466,7 +8465,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="260" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>2006</v>
       </c>
@@ -8499,7 +8498,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="261" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>2006</v>
       </c>
@@ -8532,7 +8531,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="262" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>2006</v>
       </c>
@@ -8565,7 +8564,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="263" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>2006</v>
       </c>
@@ -8598,7 +8597,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="264" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>2006</v>
       </c>
@@ -8631,7 +8630,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="265" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>2006</v>
       </c>
@@ -8664,7 +8663,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="266" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>2006</v>
       </c>
@@ -8697,7 +8696,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="267" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>2006</v>
       </c>
@@ -8730,7 +8729,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="268" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>2006</v>
       </c>
@@ -8763,7 +8762,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="269" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>2006</v>
       </c>
@@ -8796,7 +8795,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="270" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>2006</v>
       </c>
@@ -8829,7 +8828,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="271" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>2006</v>
       </c>
@@ -8862,7 +8861,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="272" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>2006</v>
       </c>
@@ -8895,7 +8894,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="273" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>2006</v>
       </c>
@@ -8928,7 +8927,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="274" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>2006</v>
       </c>
@@ -8961,7 +8960,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="275" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>2006</v>
       </c>
@@ -8994,7 +8993,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="276" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>2006</v>
       </c>
@@ -9027,7 +9026,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="277" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>2006</v>
       </c>
@@ -9060,7 +9059,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="278" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>2007</v>
       </c>
@@ -9093,7 +9092,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="279" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>2007</v>
       </c>
@@ -9126,7 +9125,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="280" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>2007</v>
       </c>
@@ -9159,7 +9158,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="281" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>2007</v>
       </c>
@@ -9192,7 +9191,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="282" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>2007</v>
       </c>
@@ -9225,7 +9224,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="283" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>2007</v>
       </c>
@@ -9258,7 +9257,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="284" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>2007</v>
       </c>
@@ -9291,7 +9290,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="285" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>2007</v>
       </c>
@@ -9324,7 +9323,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="286" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>2007</v>
       </c>
@@ -9357,7 +9356,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="287" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>2007</v>
       </c>
@@ -9390,7 +9389,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="288" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>2007</v>
       </c>
@@ -9423,7 +9422,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="289" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>2007</v>
       </c>
@@ -9456,7 +9455,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="290" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>2007</v>
       </c>
@@ -9489,7 +9488,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="291" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>2007</v>
       </c>
@@ -9522,7 +9521,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="292" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>2007</v>
       </c>
@@ -9555,7 +9554,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="293" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>2007</v>
       </c>
@@ -9588,7 +9587,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="294" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>2007</v>
       </c>
@@ -9621,7 +9620,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="295" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>2007</v>
       </c>
@@ -9654,7 +9653,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="296" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>2007</v>
       </c>
@@ -9687,7 +9686,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="297" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>2007</v>
       </c>
@@ -9720,7 +9719,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="298" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>2007</v>
       </c>
@@ -9753,7 +9752,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="299" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>2008</v>
       </c>
@@ -9786,7 +9785,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="300" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>2008</v>
       </c>
@@ -9819,7 +9818,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="301" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>2008</v>
       </c>
@@ -9852,7 +9851,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="302" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>2008</v>
       </c>
@@ -9885,7 +9884,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="303" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>2008</v>
       </c>
@@ -9918,7 +9917,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="304" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>2008</v>
       </c>
@@ -9951,7 +9950,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="305" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>2008</v>
       </c>
@@ -9984,7 +9983,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="306" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>2008</v>
       </c>
@@ -10017,7 +10016,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="307" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>2008</v>
       </c>
@@ -10050,7 +10049,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="308" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>2008</v>
       </c>
@@ -10083,7 +10082,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="309" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>2008</v>
       </c>
@@ -10116,7 +10115,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="310" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>2008</v>
       </c>
@@ -10149,7 +10148,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="311" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>2008</v>
       </c>
@@ -10182,7 +10181,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="312" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>2008</v>
       </c>
@@ -10215,7 +10214,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="313" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>2008</v>
       </c>
@@ -10248,7 +10247,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="314" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>2008</v>
       </c>
@@ -10281,7 +10280,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="315" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>2008</v>
       </c>
@@ -10314,7 +10313,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="316" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>2008</v>
       </c>
@@ -10347,7 +10346,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="317" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>2008</v>
       </c>
@@ -10380,7 +10379,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="318" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>2008</v>
       </c>
@@ -10413,7 +10412,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="319" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>2008</v>
       </c>
@@ -10446,7 +10445,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="320" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>2008</v>
       </c>
@@ -10479,7 +10478,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="321" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>2008</v>
       </c>
@@ -10512,7 +10511,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="322" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>2008</v>
       </c>
@@ -10545,7 +10544,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="323" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>2008</v>
       </c>
@@ -10578,7 +10577,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="324" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>2008</v>
       </c>
@@ -10611,7 +10610,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="325" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>2008</v>
       </c>
@@ -10644,7 +10643,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="326" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>2008</v>
       </c>
@@ -10677,7 +10676,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="327" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>2008</v>
       </c>
@@ -10710,7 +10709,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="328" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>2009</v>
       </c>
@@ -10743,7 +10742,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="329" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>2009</v>
       </c>
@@ -10776,7 +10775,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="330" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>2009</v>
       </c>
@@ -10809,7 +10808,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="331" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>2009</v>
       </c>
@@ -10842,7 +10841,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="332" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>2009</v>
       </c>
@@ -10875,7 +10874,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="333" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>2009</v>
       </c>
@@ -10908,7 +10907,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="334" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>2009</v>
       </c>
@@ -10941,7 +10940,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="335" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>2009</v>
       </c>
@@ -10974,7 +10973,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="336" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>2009</v>
       </c>
@@ -11007,7 +11006,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="337" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>2009</v>
       </c>
@@ -11040,7 +11039,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="338" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>2009</v>
       </c>
@@ -11073,7 +11072,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="339" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>2009</v>
       </c>
@@ -11106,7 +11105,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="340" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>2009</v>
       </c>
@@ -11139,7 +11138,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="341" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>2009</v>
       </c>
@@ -11172,7 +11171,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="342" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>2009</v>
       </c>
@@ -11205,7 +11204,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="343" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>2009</v>
       </c>
@@ -11238,7 +11237,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="344" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>2009</v>
       </c>
@@ -11271,7 +11270,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="345" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>2009</v>
       </c>
@@ -11304,7 +11303,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="346" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>2009</v>
       </c>
@@ -11337,7 +11336,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="347" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>2009</v>
       </c>
@@ -11370,7 +11369,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="348" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>2009</v>
       </c>
@@ -11403,7 +11402,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="349" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>2009</v>
       </c>
@@ -11436,7 +11435,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="350" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>2009</v>
       </c>
@@ -11469,7 +11468,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="351" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>2009</v>
       </c>
@@ -11502,7 +11501,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="352" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>2009</v>
       </c>
@@ -11535,7 +11534,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="353" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>2009</v>
       </c>
@@ -11568,7 +11567,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="354" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>2009</v>
       </c>
@@ -11601,7 +11600,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="355" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>2009</v>
       </c>
@@ -11634,7 +11633,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="356" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>2009</v>
       </c>
@@ -11667,7 +11666,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="357" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>2009</v>
       </c>
@@ -11700,7 +11699,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="358" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>2009</v>
       </c>
@@ -11733,7 +11732,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="359" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>2009</v>
       </c>
@@ -11766,7 +11765,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="360" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>2009</v>
       </c>
@@ -11799,7 +11798,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="361" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>2009</v>
       </c>
@@ -11832,7 +11831,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="362" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>2009</v>
       </c>
@@ -11865,7 +11864,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="363" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>2009</v>
       </c>
@@ -11898,7 +11897,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="364" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>2009</v>
       </c>
@@ -11931,7 +11930,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="365" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>2009</v>
       </c>
@@ -11964,7 +11963,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="366" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>2009</v>
       </c>
@@ -11997,7 +11996,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="367" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>2009</v>
       </c>
@@ -12030,7 +12029,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="368" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>2009</v>
       </c>
@@ -12063,7 +12062,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="369" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>2009</v>
       </c>
@@ -12096,7 +12095,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="370" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>2009</v>
       </c>
@@ -12129,7 +12128,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="371" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>2009</v>
       </c>
@@ -12162,7 +12161,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="372" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>2009</v>
       </c>
@@ -12195,7 +12194,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="373" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>2009</v>
       </c>
@@ -12228,7 +12227,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="374" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>2009</v>
       </c>
@@ -12261,7 +12260,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="375" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>2009</v>
       </c>
@@ -12294,7 +12293,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="376" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>2009</v>
       </c>
@@ -12327,7 +12326,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="377" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>2009</v>
       </c>
@@ -12360,7 +12359,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="378" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>2009</v>
       </c>
@@ -12393,7 +12392,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="379" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>2009</v>
       </c>
@@ -12426,7 +12425,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="380" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>2009</v>
       </c>
@@ -12459,7 +12458,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="381" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>2009</v>
       </c>
@@ -12492,7 +12491,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="382" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>2009</v>
       </c>
@@ -12525,7 +12524,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="383" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>2009</v>
       </c>
@@ -12558,7 +12557,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="384" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>2009</v>
       </c>
@@ -12591,7 +12590,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="385" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>2010</v>
       </c>
@@ -12624,7 +12623,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="386" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>2010</v>
       </c>
@@ -12657,7 +12656,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="387" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>2010</v>
       </c>
@@ -12690,7 +12689,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="388" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>2010</v>
       </c>
@@ -12723,7 +12722,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="389" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>2010</v>
       </c>
@@ -12756,7 +12755,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="390" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>2010</v>
       </c>
@@ -12789,7 +12788,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="391" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>2010</v>
       </c>
@@ -12822,7 +12821,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="392" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>2010</v>
       </c>
@@ -12855,7 +12854,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="393" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>2010</v>
       </c>
@@ -12888,7 +12887,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="394" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>2010</v>
       </c>
@@ -12921,7 +12920,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="395" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>2010</v>
       </c>
@@ -12954,7 +12953,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="396" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>2010</v>
       </c>
@@ -12987,7 +12986,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="397" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>2010</v>
       </c>
@@ -13020,7 +13019,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="398" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>2010</v>
       </c>
@@ -13053,7 +13052,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="399" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>2010</v>
       </c>
@@ -13086,7 +13085,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="400" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>2010</v>
       </c>
@@ -13119,7 +13118,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="401" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>2010</v>
       </c>
@@ -13152,7 +13151,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="402" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>2010</v>
       </c>
@@ -13185,7 +13184,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="403" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>2010</v>
       </c>
@@ -13218,7 +13217,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="404" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>2010</v>
       </c>
@@ -13251,7 +13250,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="405" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>2010</v>
       </c>
@@ -13284,7 +13283,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="406" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>2010</v>
       </c>
@@ -13317,7 +13316,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="407" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>2010</v>
       </c>
@@ -13350,7 +13349,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="408" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>2010</v>
       </c>
@@ -13383,7 +13382,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="409" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>2010</v>
       </c>
@@ -13416,7 +13415,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="410" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>2010</v>
       </c>
@@ -13449,7 +13448,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="411" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>2010</v>
       </c>
@@ -13482,7 +13481,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="412" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>2010</v>
       </c>
@@ -13515,7 +13514,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="413" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>2010</v>
       </c>
@@ -13548,7 +13547,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="414" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>2010</v>
       </c>
@@ -13581,7 +13580,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="415" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>2010</v>
       </c>
@@ -13614,7 +13613,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="416" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>2010</v>
       </c>
@@ -13647,7 +13646,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="417" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>2010</v>
       </c>
@@ -13680,7 +13679,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="418" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>2010</v>
       </c>
@@ -13713,7 +13712,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="419" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>2010</v>
       </c>
@@ -13746,7 +13745,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="420" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>2010</v>
       </c>
@@ -13779,7 +13778,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="421" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>2010</v>
       </c>
@@ -13812,7 +13811,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="422" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>2010</v>
       </c>
@@ -13845,7 +13844,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="423" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>2010</v>
       </c>
@@ -13878,7 +13877,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="424" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>2010</v>
       </c>
@@ -13911,7 +13910,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="425" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>2010</v>
       </c>
@@ -13944,7 +13943,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="426" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>2010</v>
       </c>
@@ -13977,7 +13976,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="427" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>2010</v>
       </c>
@@ -14010,7 +14009,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="428" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>2010</v>
       </c>
@@ -14043,7 +14042,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="429" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>2010</v>
       </c>
@@ -14076,7 +14075,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="430" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>2010</v>
       </c>
@@ -14109,7 +14108,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="431" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>2010</v>
       </c>
@@ -14142,7 +14141,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="432" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>2010</v>
       </c>
@@ -14175,7 +14174,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="433" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>2010</v>
       </c>
@@ -14208,7 +14207,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="434" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>2010</v>
       </c>
@@ -14241,7 +14240,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="435" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>2010</v>
       </c>
@@ -14274,7 +14273,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="436" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>2010</v>
       </c>
@@ -14307,7 +14306,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="437" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>2010</v>
       </c>
@@ -14340,7 +14339,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="438" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>2010</v>
       </c>
@@ -14373,7 +14372,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="439" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>2010</v>
       </c>
@@ -14406,7 +14405,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="440" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>2011</v>
       </c>
@@ -14439,7 +14438,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="441" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>2011</v>
       </c>
@@ -14472,7 +14471,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="442" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>2011</v>
       </c>
@@ -14505,7 +14504,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="443" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>2011</v>
       </c>
@@ -14538,7 +14537,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="444" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>2011</v>
       </c>
@@ -14571,7 +14570,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="445" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>2011</v>
       </c>
@@ -14604,7 +14603,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="446" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>2011</v>
       </c>
@@ -14637,7 +14636,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="447" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>2011</v>
       </c>
@@ -14670,7 +14669,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="448" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>2011</v>
       </c>
@@ -14703,7 +14702,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="449" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>2011</v>
       </c>
@@ -14736,7 +14735,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="450" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>2011</v>
       </c>
@@ -14769,7 +14768,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="451" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>2011</v>
       </c>
@@ -14802,7 +14801,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="452" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>2011</v>
       </c>
@@ -14835,7 +14834,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="453" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>2011</v>
       </c>
@@ -14868,7 +14867,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="454" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>2011</v>
       </c>
@@ -14901,7 +14900,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="455" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>2011</v>
       </c>
@@ -14934,7 +14933,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="456" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>2011</v>
       </c>
@@ -14967,7 +14966,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="457" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>2011</v>
       </c>
@@ -15000,7 +14999,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="458" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>2011</v>
       </c>
@@ -15033,7 +15032,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="459" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>2011</v>
       </c>
@@ -15066,7 +15065,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="460" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>2011</v>
       </c>
@@ -15099,7 +15098,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="461" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>2011</v>
       </c>
@@ -15132,7 +15131,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="462" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>2011</v>
       </c>
@@ -15165,7 +15164,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="463" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>2012</v>
       </c>
@@ -15198,7 +15197,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="464" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>2012</v>
       </c>
@@ -15231,7 +15230,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="465" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>2012</v>
       </c>
@@ -15264,7 +15263,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="466" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>2012</v>
       </c>
@@ -15297,7 +15296,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="467" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>2012</v>
       </c>
@@ -15330,7 +15329,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="468" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>2012</v>
       </c>
@@ -15363,7 +15362,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="469" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>2012</v>
       </c>
@@ -15396,7 +15395,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="470" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>2012</v>
       </c>
@@ -15429,7 +15428,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="471" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>2012</v>
       </c>
@@ -15462,7 +15461,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="472" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>2012</v>
       </c>
@@ -15495,7 +15494,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="473" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>2012</v>
       </c>
@@ -15528,7 +15527,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="474" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>2012</v>
       </c>
@@ -15561,7 +15560,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="475" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>2012</v>
       </c>
@@ -15594,7 +15593,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="476" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A476">
         <v>2012</v>
       </c>
@@ -15627,7 +15626,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="477" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A477">
         <v>2012</v>
       </c>
@@ -15660,7 +15659,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="478" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>2012</v>
       </c>
@@ -15693,7 +15692,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="479" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>2012</v>
       </c>
@@ -15726,7 +15725,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="480" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>2012</v>
       </c>
@@ -15759,7 +15758,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="481" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>2012</v>
       </c>
@@ -15792,7 +15791,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="482" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>2012</v>
       </c>
@@ -15825,7 +15824,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="483" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>2012</v>
       </c>
@@ -15858,7 +15857,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="484" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>2012</v>
       </c>
@@ -15891,7 +15890,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="485" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A485">
         <v>2012</v>
       </c>
@@ -15924,7 +15923,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="486" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>2012</v>
       </c>
@@ -15957,7 +15956,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="487" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A487">
         <v>2012</v>
       </c>
@@ -15990,7 +15989,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="488" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>2012</v>
       </c>
@@ -16023,7 +16022,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="489" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>2012</v>
       </c>
@@ -16056,7 +16055,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="490" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>2012</v>
       </c>
@@ -16089,7 +16088,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="491" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>2012</v>
       </c>
@@ -16122,7 +16121,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="492" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>2012</v>
       </c>
@@ -16155,7 +16154,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="493" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>2012</v>
       </c>
@@ -16188,7 +16187,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="494" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A494">
         <v>2013</v>
       </c>
@@ -16221,7 +16220,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="495" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A495">
         <v>2013</v>
       </c>
@@ -16254,7 +16253,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="496" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A496">
         <v>2013</v>
       </c>
@@ -16287,7 +16286,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="497" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A497">
         <v>2013</v>
       </c>
@@ -16320,7 +16319,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="498" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A498">
         <v>2013</v>
       </c>
@@ -16353,7 +16352,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="499" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A499">
         <v>2013</v>
       </c>
@@ -16386,7 +16385,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="500" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A500">
         <v>2013</v>
       </c>
@@ -16419,7 +16418,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="501" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A501">
         <v>2013</v>
       </c>
@@ -16452,7 +16451,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="502" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A502">
         <v>2013</v>
       </c>
@@ -16485,7 +16484,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="503" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A503">
         <v>2013</v>
       </c>
@@ -16518,7 +16517,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="504" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A504">
         <v>2013</v>
       </c>
@@ -16551,7 +16550,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="505" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A505">
         <v>2013</v>
       </c>
@@ -16584,7 +16583,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="506" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A506">
         <v>2013</v>
       </c>
@@ -16617,7 +16616,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="507" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A507">
         <v>2013</v>
       </c>
@@ -16650,7 +16649,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="508" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A508">
         <v>2013</v>
       </c>
@@ -16683,7 +16682,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="509" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A509">
         <v>2013</v>
       </c>
@@ -16716,7 +16715,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="510" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A510">
         <v>2013</v>
       </c>
@@ -16749,7 +16748,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="511" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A511">
         <v>2013</v>
       </c>
@@ -16782,7 +16781,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="512" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A512">
         <v>2013</v>
       </c>
@@ -16815,7 +16814,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="513" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A513">
         <v>2013</v>
       </c>
@@ -16848,7 +16847,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="514" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A514">
         <v>2013</v>
       </c>
@@ -16881,7 +16880,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="515" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A515">
         <v>2013</v>
       </c>
@@ -16914,7 +16913,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="516" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A516">
         <v>2013</v>
       </c>
@@ -16947,7 +16946,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="517" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A517">
         <v>2013</v>
       </c>
@@ -16980,7 +16979,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="518" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A518">
         <v>2013</v>
       </c>
@@ -17013,7 +17012,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="519" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A519">
         <v>2013</v>
       </c>
@@ -17046,7 +17045,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="520" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A520">
         <v>2013</v>
       </c>
@@ -17079,7 +17078,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="521" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A521">
         <v>2013</v>
       </c>
@@ -17112,7 +17111,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="522" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A522">
         <v>2013</v>
       </c>
@@ -17145,7 +17144,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="523" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A523">
         <v>2013</v>
       </c>
@@ -17178,7 +17177,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="524" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A524">
         <v>2013</v>
       </c>
@@ -17211,7 +17210,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="525" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A525">
         <v>2013</v>
       </c>
@@ -17244,7 +17243,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="526" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A526">
         <v>2013</v>
       </c>
@@ -17277,7 +17276,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="527" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A527">
         <v>2013</v>
       </c>
@@ -17310,7 +17309,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="528" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A528">
         <v>2013</v>
       </c>
@@ -17343,7 +17342,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="529" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A529">
         <v>2013</v>
       </c>
@@ -17376,7 +17375,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="530" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A530">
         <v>2013</v>
       </c>
@@ -17409,7 +17408,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="531" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A531">
         <v>2013</v>
       </c>
@@ -17442,7 +17441,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="532" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A532">
         <v>2013</v>
       </c>
@@ -17475,7 +17474,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="533" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A533">
         <v>2013</v>
       </c>
@@ -17508,7 +17507,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="534" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A534">
         <v>2013</v>
       </c>
@@ -17541,7 +17540,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="535" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A535">
         <v>2013</v>
       </c>
@@ -17574,7 +17573,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="536" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A536">
         <v>2013</v>
       </c>
@@ -17607,7 +17606,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="537" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A537">
         <v>2013</v>
       </c>
@@ -17640,7 +17639,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="538" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A538">
         <v>2013</v>
       </c>
@@ -17673,7 +17672,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="539" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A539">
         <v>2013</v>
       </c>
@@ -17706,7 +17705,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="540" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A540">
         <v>2013</v>
       </c>
@@ -17739,7 +17738,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="541" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A541">
         <v>2014</v>
       </c>
@@ -17772,7 +17771,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="542" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A542">
         <v>2014</v>
       </c>
@@ -17805,7 +17804,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="543" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A543">
         <v>2014</v>
       </c>
@@ -17838,7 +17837,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="544" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A544">
         <v>2014</v>
       </c>
@@ -17871,7 +17870,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="545" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A545">
         <v>2014</v>
       </c>
@@ -17904,7 +17903,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="546" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A546">
         <v>2014</v>
       </c>
@@ -17937,7 +17936,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="547" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A547">
         <v>2014</v>
       </c>
@@ -17970,7 +17969,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="548" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A548">
         <v>2014</v>
       </c>
@@ -18003,7 +18002,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="549" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A549">
         <v>2014</v>
       </c>
@@ -18036,7 +18035,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="550" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A550">
         <v>2015</v>
       </c>
@@ -18069,7 +18068,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="551" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A551">
         <v>2015</v>
       </c>
@@ -18102,7 +18101,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="552" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A552">
         <v>2015</v>
       </c>
@@ -18135,7 +18134,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="553" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A553">
         <v>2015</v>
       </c>
@@ -18168,7 +18167,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="554" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A554">
         <v>2015</v>
       </c>
@@ -18201,7 +18200,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="555" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A555">
         <v>2015</v>
       </c>
@@ -18234,7 +18233,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="556" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A556">
         <v>2015</v>
       </c>
@@ -18267,7 +18266,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="557" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A557">
         <v>2015</v>
       </c>
@@ -18300,7 +18299,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="558" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A558">
         <v>2015</v>
       </c>
@@ -18333,7 +18332,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="559" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A559">
         <v>2015</v>
       </c>
@@ -18366,7 +18365,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="560" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A560">
         <v>2015</v>
       </c>
@@ -18399,7 +18398,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="561" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A561">
         <v>2015</v>
       </c>
@@ -18432,7 +18431,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="562" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A562">
         <v>2015</v>
       </c>
@@ -18465,7 +18464,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="563" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A563">
         <v>2015</v>
       </c>
@@ -18498,7 +18497,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="564" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A564">
         <v>2015</v>
       </c>
@@ -18531,7 +18530,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="565" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A565">
         <v>2016</v>
       </c>
@@ -18564,7 +18563,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="566" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A566">
         <v>2016</v>
       </c>
@@ -18597,7 +18596,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="567" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A567">
         <v>2016</v>
       </c>
@@ -18630,7 +18629,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="568" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A568">
         <v>2016</v>
       </c>
@@ -18663,7 +18662,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="569" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A569">
         <v>2016</v>
       </c>
@@ -18696,7 +18695,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="570" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A570">
         <v>2016</v>
       </c>
@@ -18729,7 +18728,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="571" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A571">
         <v>2016</v>
       </c>
@@ -18762,7 +18761,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="572" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A572">
         <v>2016</v>
       </c>
@@ -18795,7 +18794,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="573" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A573">
         <v>2016</v>
       </c>
@@ -18828,7 +18827,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="574" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A574">
         <v>2016</v>
       </c>
@@ -18861,7 +18860,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="575" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A575">
         <v>2016</v>
       </c>
@@ -18894,7 +18893,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="576" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A576">
         <v>2016</v>
       </c>
@@ -18927,7 +18926,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="577" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A577">
         <v>2016</v>
       </c>
@@ -18960,7 +18959,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="578" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A578">
         <v>2017</v>
       </c>
@@ -18993,7 +18992,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="579" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A579">
         <v>2017</v>
       </c>
@@ -19026,7 +19025,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="580" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A580">
         <v>2017</v>
       </c>
@@ -19059,7 +19058,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="581" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A581">
         <v>2017</v>
       </c>
@@ -19092,7 +19091,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="582" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A582">
         <v>2017</v>
       </c>
@@ -19125,7 +19124,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="583" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A583">
         <v>2017</v>
       </c>
@@ -19158,7 +19157,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="584" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A584">
         <v>2017</v>
       </c>
@@ -19191,7 +19190,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="585" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A585">
         <v>2017</v>
       </c>
@@ -19224,7 +19223,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="586" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A586">
         <v>2017</v>
       </c>
@@ -19257,7 +19256,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="587" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A587">
         <v>2017</v>
       </c>
@@ -19290,7 +19289,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="588" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A588">
         <v>2017</v>
       </c>
@@ -19323,7 +19322,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="589" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A589">
         <v>2017</v>
       </c>
@@ -19356,7 +19355,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="590" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A590">
         <v>2017</v>
       </c>
@@ -19389,7 +19388,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="591" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A591">
         <v>2017</v>
       </c>
@@ -19422,7 +19421,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="592" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A592">
         <v>2017</v>
       </c>
@@ -19455,7 +19454,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="593" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A593">
         <v>2017</v>
       </c>
@@ -19488,7 +19487,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="594" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A594">
         <v>2017</v>
       </c>
@@ -19521,7 +19520,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="595" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A595">
         <v>2017</v>
       </c>
@@ -19554,7 +19553,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="596" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A596">
         <v>2017</v>
       </c>
@@ -19587,7 +19586,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="597" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A597">
         <v>2017</v>
       </c>
@@ -19620,7 +19619,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="598" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A598">
         <v>2017</v>
       </c>
@@ -19653,7 +19652,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="599" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A599">
         <v>2017</v>
       </c>
@@ -19686,7 +19685,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="600" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A600">
         <v>2017</v>
       </c>
@@ -19719,7 +19718,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="601" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A601">
         <v>2017</v>
       </c>
@@ -19752,7 +19751,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="602" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A602">
         <v>2017</v>
       </c>
@@ -19785,7 +19784,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="603" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A603">
         <v>2017</v>
       </c>
@@ -19818,7 +19817,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="604" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A604">
         <v>2017</v>
       </c>
@@ -19851,7 +19850,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="605" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A605">
         <v>2017</v>
       </c>
@@ -19884,7 +19883,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="606" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A606">
         <v>2017</v>
       </c>
@@ -19917,7 +19916,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="607" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A607">
         <v>2017</v>
       </c>
@@ -19950,7 +19949,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="608" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A608">
         <v>2017</v>
       </c>
@@ -19983,7 +19982,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="609" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A609">
         <v>2017</v>
       </c>
@@ -20016,7 +20015,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="610" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A610">
         <v>2017</v>
       </c>
@@ -20049,7 +20048,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="611" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A611">
         <v>2017</v>
       </c>
@@ -20082,7 +20081,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="612" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A612">
         <v>2017</v>
       </c>
@@ -20115,7 +20114,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="613" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A613">
         <v>2017</v>
       </c>
@@ -20148,7 +20147,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="614" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A614">
         <v>2017</v>
       </c>
@@ -20181,7 +20180,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="615" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A615">
         <v>2017</v>
       </c>
@@ -20214,7 +20213,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="616" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A616">
         <v>2017</v>
       </c>
@@ -20247,7 +20246,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="617" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A617">
         <v>2017</v>
       </c>
@@ -20280,7 +20279,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="618" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A618">
         <v>2017</v>
       </c>
@@ -20313,7 +20312,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="619" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A619">
         <v>2017</v>
       </c>
@@ -20346,7 +20345,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="620" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A620">
         <v>2017</v>
       </c>
@@ -20379,7 +20378,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="621" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A621">
         <v>2017</v>
       </c>
@@ -20412,7 +20411,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="622" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A622">
         <v>2018</v>
       </c>
@@ -20445,7 +20444,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="623" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A623">
         <v>2018</v>
       </c>
@@ -20478,7 +20477,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="624" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A624">
         <v>2018</v>
       </c>
@@ -20511,7 +20510,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="625" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A625">
         <v>2018</v>
       </c>
@@ -20544,7 +20543,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="626" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A626">
         <v>2018</v>
       </c>
@@ -20577,7 +20576,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="627" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A627">
         <v>2018</v>
       </c>
@@ -20610,7 +20609,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="628" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A628">
         <v>2018</v>
       </c>
@@ -20643,7 +20642,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="629" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A629">
         <v>2018</v>
       </c>
@@ -20676,7 +20675,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="630" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A630">
         <v>2018</v>
       </c>
@@ -20709,7 +20708,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="631" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A631">
         <v>2018</v>
       </c>
@@ -20742,7 +20741,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="632" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A632">
         <v>2018</v>
       </c>
@@ -20775,7 +20774,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="633" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A633">
         <v>2018</v>
       </c>
@@ -20808,7 +20807,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="634" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A634">
         <v>2018</v>
       </c>
@@ -20841,7 +20840,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="635" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A635">
         <v>2018</v>
       </c>
@@ -20874,7 +20873,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="636" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A636">
         <v>2018</v>
       </c>
@@ -20907,7 +20906,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="637" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A637">
         <v>2018</v>
       </c>
@@ -20940,7 +20939,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="638" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A638">
         <v>2018</v>
       </c>
@@ -20973,7 +20972,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="639" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A639">
         <v>2018</v>
       </c>
@@ -21006,7 +21005,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="640" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A640">
         <v>2019</v>
       </c>
@@ -21039,7 +21038,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="641" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A641">
         <v>2019</v>
       </c>
@@ -21072,7 +21071,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="642" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A642">
         <v>2019</v>
       </c>
@@ -21105,7 +21104,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="643" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A643">
         <v>2019</v>
       </c>
@@ -21138,7 +21137,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="644" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A644">
         <v>2019</v>
       </c>
@@ -21171,7 +21170,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="645" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A645">
         <v>2019</v>
       </c>
@@ -21204,7 +21203,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="646" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A646">
         <v>2019</v>
       </c>
@@ -21237,7 +21236,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="647" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A647">
         <v>2019</v>
       </c>
@@ -21270,7 +21269,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="648" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A648">
         <v>2019</v>
       </c>
@@ -21303,7 +21302,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="649" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A649">
         <v>2019</v>
       </c>
@@ -21336,7 +21335,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="650" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A650">
         <v>2019</v>
       </c>
@@ -21369,7 +21368,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="651" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A651">
         <v>2019</v>
       </c>
@@ -21402,7 +21401,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="652" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A652">
         <v>2019</v>
       </c>
@@ -21435,7 +21434,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="653" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A653">
         <v>2020</v>
       </c>
@@ -21468,7 +21467,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="654" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A654">
         <v>2020</v>
       </c>
@@ -21501,7 +21500,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="655" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A655">
         <v>2020</v>
       </c>
@@ -21534,7 +21533,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="656" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A656">
         <v>2020</v>
       </c>
@@ -21567,7 +21566,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="657" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A657">
         <v>2020</v>
       </c>
@@ -21600,7 +21599,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="658" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A658">
         <v>2020</v>
       </c>
@@ -21633,7 +21632,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="659" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A659">
         <v>2020</v>
       </c>
@@ -21666,7 +21665,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="660" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A660">
         <v>2020</v>
       </c>
@@ -21699,7 +21698,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="661" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A661">
         <v>2020</v>
       </c>
@@ -21732,7 +21731,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="662" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A662">
         <v>2020</v>
       </c>
@@ -21765,7 +21764,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="663" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A663">
         <v>2020</v>
       </c>
@@ -21798,7 +21797,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="664" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A664">
         <v>2020</v>
       </c>
@@ -21831,7 +21830,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="665" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A665">
         <v>2020</v>
       </c>
@@ -21864,7 +21863,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="666" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A666">
         <v>2020</v>
       </c>
@@ -21897,7 +21896,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="667" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A667">
         <v>2021</v>
       </c>
@@ -21930,7 +21929,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="668" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A668">
         <v>2021</v>
       </c>
@@ -21963,7 +21962,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="669" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A669">
         <v>2021</v>
       </c>
@@ -21996,7 +21995,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="670" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A670">
         <v>2021</v>
       </c>
@@ -22029,7 +22028,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="671" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A671">
         <v>2021</v>
       </c>
@@ -22062,7 +22061,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="672" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A672">
         <v>2021</v>
       </c>
@@ -22095,7 +22094,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="673" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A673">
         <v>2021</v>
       </c>
@@ -22128,7 +22127,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="674" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A674">
         <v>2021</v>
       </c>
@@ -22161,7 +22160,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="675" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A675">
         <v>2021</v>
       </c>
@@ -22194,7 +22193,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="676" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A676">
         <v>2021</v>
       </c>
@@ -22227,7 +22226,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="677" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A677">
         <v>2021</v>
       </c>
@@ -22260,7 +22259,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="678" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A678">
         <v>2021</v>
       </c>
@@ -22293,7 +22292,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="679" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A679">
         <v>2021</v>
       </c>
@@ -22326,7 +22325,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="680" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A680">
         <v>2021</v>
       </c>
@@ -22359,7 +22358,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="681" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A681">
         <v>2021</v>
       </c>
@@ -22392,7 +22391,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="682" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A682">
         <v>2021</v>
       </c>
@@ -22425,7 +22424,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="683" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A683">
         <v>2021</v>
       </c>
@@ -22458,7 +22457,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="684" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A684">
         <v>2021</v>
       </c>
@@ -22491,7 +22490,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="685" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A685">
         <v>2021</v>
       </c>
@@ -22524,7 +22523,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="686" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A686">
         <v>2021</v>
       </c>
@@ -22557,7 +22556,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="687" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A687">
         <v>2021</v>
       </c>
@@ -22590,7 +22589,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="688" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A688">
         <v>2021</v>
       </c>
@@ -22623,7 +22622,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="689" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A689">
         <v>2021</v>
       </c>
@@ -22656,7 +22655,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="690" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A690">
         <v>2021</v>
       </c>
@@ -22689,7 +22688,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="691" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A691">
         <v>2021</v>
       </c>
@@ -22722,7 +22721,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="692" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A692">
         <v>2021</v>
       </c>
@@ -22755,7 +22754,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="693" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A693">
         <v>2021</v>
       </c>
@@ -22788,7 +22787,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="694" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A694">
         <v>2021</v>
       </c>
@@ -22821,7 +22820,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="695" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A695">
         <v>2021</v>
       </c>
@@ -22854,7 +22853,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="696" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A696">
         <v>2021</v>
       </c>
@@ -22887,7 +22886,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="697" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A697">
         <v>2021</v>
       </c>
@@ -22920,7 +22919,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="698" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A698">
         <v>2021</v>
       </c>
@@ -22953,7 +22952,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="699" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A699">
         <v>2021</v>
       </c>
@@ -22986,7 +22985,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="700" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A700">
         <v>2021</v>
       </c>
@@ -23019,7 +23018,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="701" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A701">
         <v>2021</v>
       </c>
@@ -23052,7 +23051,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="702" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A702">
         <v>2021</v>
       </c>
@@ -23085,7 +23084,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="703" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A703">
         <v>2022</v>
       </c>
@@ -23117,7 +23116,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="704" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A704">
         <v>2022</v>
       </c>
@@ -23150,7 +23149,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="705" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A705">
         <v>2022</v>
       </c>
@@ -23183,7 +23182,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="706" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A706">
         <v>2022</v>
       </c>
@@ -23216,7 +23215,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="707" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A707">
         <v>2022</v>
       </c>
@@ -23249,7 +23248,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="708" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A708">
         <v>2022</v>
       </c>
@@ -23283,16 +23282,140 @@
       </c>
     </row>
     <row r="709" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I709" s="3"/>
+      <c r="A709">
+        <v>2023</v>
+      </c>
+      <c r="B709">
+        <v>2</v>
+      </c>
+      <c r="C709" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D709" s="1">
+        <f>DATE(2022,8,DAY(C709))</f>
+        <v>44776</v>
+      </c>
+      <c r="E709">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="F709" t="s">
+        <v>5</v>
+      </c>
+      <c r="G709" s="2">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="H709" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="I709" s="3">
+        <f>C709+H709</f>
+        <v>45141.833333333336</v>
+      </c>
+      <c r="J709" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="710" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I710" s="3"/>
+      <c r="A710">
+        <v>2023</v>
+      </c>
+      <c r="B710">
+        <v>2</v>
+      </c>
+      <c r="C710" s="1">
+        <v>45150</v>
+      </c>
+      <c r="D710" s="1">
+        <f t="shared" ref="D710:D712" si="11">DATE(2022,8,DAY(C710))</f>
+        <v>44785</v>
+      </c>
+      <c r="E710">
+        <v>33.9</v>
+      </c>
+      <c r="F710" t="s">
+        <v>5</v>
+      </c>
+      <c r="G710" s="2">
+        <v>0.24305555555555555</v>
+      </c>
+      <c r="H710" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="I710" s="3">
+        <f>C710+H710</f>
+        <v>45150.208333333336</v>
+      </c>
+      <c r="J710" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="711" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I711" s="3"/>
+      <c r="A711">
+        <v>2023</v>
+      </c>
+      <c r="B711">
+        <v>2</v>
+      </c>
+      <c r="C711" s="1">
+        <v>45151</v>
+      </c>
+      <c r="D711" s="1">
+        <f t="shared" si="11"/>
+        <v>44786</v>
+      </c>
+      <c r="E711">
+        <v>30.14</v>
+      </c>
+      <c r="F711" t="s">
+        <v>5</v>
+      </c>
+      <c r="G711" s="2">
+        <v>0.21527777777777779</v>
+      </c>
+      <c r="H711" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="I711" s="3">
+        <f>C711+H711</f>
+        <v>45151.208333333336</v>
+      </c>
+      <c r="J711" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="712" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I712" s="3"/>
+      <c r="A712">
+        <v>2023</v>
+      </c>
+      <c r="B712">
+        <v>2</v>
+      </c>
+      <c r="C712" s="1">
+        <v>45151</v>
+      </c>
+      <c r="D712" s="1">
+        <f t="shared" si="11"/>
+        <v>44786</v>
+      </c>
+      <c r="E712">
+        <v>30.14</v>
+      </c>
+      <c r="F712" t="s">
+        <v>5</v>
+      </c>
+      <c r="G712" s="2">
+        <v>0.86805555555555547</v>
+      </c>
+      <c r="H712" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="I712" s="3">
+        <f>C712+H712</f>
+        <v>45151.833333333336</v>
+      </c>
+      <c r="J712" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="713" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I713" s="3"/>
@@ -23319,13 +23442,7 @@
       <c r="I720" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J708" xr:uid="{A99EFA95-E1A2-4F3D-8001-3428518B60BC}">
-    <filterColumn colId="3">
-      <filters>
-        <dateGroupItem year="2022" month="7" day="2" dateTimeGrouping="day"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:J708" xr:uid="{A99EFA95-E1A2-4F3D-8001-3428518B60BC}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/docs/Data/TyeeCatchData.xlsx
+++ b/docs/Data/TyeeCatchData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evogt\R Analysis\EAV\GitHubMarkdown\R-Markdown-GitHub-Page\docs\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F536724-F09C-4F61-9366-5C4F584C2569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ECB863C-9544-42DB-81B1-FF2552E184F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0CB3CDF9-0205-43C4-ADC8-DEC6E991EEB1}"/>
+    <workbookView xWindow="-54135" yWindow="870" windowWidth="21270" windowHeight="11460" xr2:uid="{0CB3CDF9-0205-43C4-ADC8-DEC6E991EEB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="20">
   <si>
     <t>Year</t>
   </si>
@@ -459,8 +459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A99EFA95-E1A2-4F3D-8001-3428518B60BC}">
   <dimension ref="A1:J720"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A677" workbookViewId="0">
-      <selection activeCell="G710" sqref="G710"/>
+    <sheetView tabSelected="1" topLeftCell="A708" workbookViewId="0">
+      <selection activeCell="J720" sqref="J720"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23142,7 +23142,7 @@
         <v>0.25</v>
       </c>
       <c r="I704" s="3">
-        <f>C704+H704</f>
+        <f t="shared" ref="I704:I719" si="11">C704+H704</f>
         <v>44787.25</v>
       </c>
       <c r="J704" t="s">
@@ -23175,7 +23175,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="I705" s="3">
-        <f>C705+H705</f>
+        <f t="shared" si="11"/>
         <v>44796.416666666664</v>
       </c>
       <c r="J705" t="s">
@@ -23208,7 +23208,7 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="I706" s="3">
-        <f>C706+H706</f>
+        <f t="shared" si="11"/>
         <v>44801.833333333336</v>
       </c>
       <c r="J706" t="s">
@@ -23241,7 +23241,7 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="I707" s="3">
-        <f>C707+H707</f>
+        <f t="shared" si="11"/>
         <v>44802.833333333336</v>
       </c>
       <c r="J707" t="s">
@@ -23274,7 +23274,7 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="I708" s="3">
-        <f>C708+H708</f>
+        <f t="shared" si="11"/>
         <v>44806.833333333336</v>
       </c>
       <c r="J708" t="s">
@@ -23308,7 +23308,7 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="I709" s="3">
-        <f>C709+H709</f>
+        <f t="shared" si="11"/>
         <v>45141.833333333336</v>
       </c>
       <c r="J709" t="s">
@@ -23326,7 +23326,7 @@
         <v>45150</v>
       </c>
       <c r="D710" s="1">
-        <f t="shared" ref="D710:D712" si="11">DATE(2022,8,DAY(C710))</f>
+        <f t="shared" ref="D710:D712" si="12">DATE(2022,8,DAY(C710))</f>
         <v>44785</v>
       </c>
       <c r="E710">
@@ -23342,7 +23342,7 @@
         <v>0.20833333333333334</v>
       </c>
       <c r="I710" s="3">
-        <f>C710+H710</f>
+        <f t="shared" si="11"/>
         <v>45150.208333333336</v>
       </c>
       <c r="J710" t="s">
@@ -23360,7 +23360,7 @@
         <v>45151</v>
       </c>
       <c r="D711" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>44786</v>
       </c>
       <c r="E711">
@@ -23376,7 +23376,7 @@
         <v>0.20833333333333334</v>
       </c>
       <c r="I711" s="3">
-        <f>C711+H711</f>
+        <f t="shared" si="11"/>
         <v>45151.208333333336</v>
       </c>
       <c r="J711" t="s">
@@ -23394,7 +23394,7 @@
         <v>45151</v>
       </c>
       <c r="D712" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>44786</v>
       </c>
       <c r="E712">
@@ -23410,7 +23410,7 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="I712" s="3">
-        <f>C712+H712</f>
+        <f t="shared" si="11"/>
         <v>45151.833333333336</v>
       </c>
       <c r="J712" t="s">
@@ -23418,25 +23418,235 @@
       </c>
     </row>
     <row r="713" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I713" s="3"/>
+      <c r="A713">
+        <v>2023</v>
+      </c>
+      <c r="B713">
+        <v>2</v>
+      </c>
+      <c r="C713" s="1">
+        <v>45154</v>
+      </c>
+      <c r="D713" s="1">
+        <v>44789</v>
+      </c>
+      <c r="E713">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="F713" t="s">
+        <v>5</v>
+      </c>
+      <c r="G713" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="H713" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="I713" s="3">
+        <f t="shared" si="11"/>
+        <v>45154.25</v>
+      </c>
+      <c r="J713" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="714" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I714" s="3"/>
+      <c r="A714">
+        <v>2023</v>
+      </c>
+      <c r="B714">
+        <v>2</v>
+      </c>
+      <c r="C714" s="1">
+        <v>45154</v>
+      </c>
+      <c r="D714" s="1">
+        <v>44789</v>
+      </c>
+      <c r="E714">
+        <v>31</v>
+      </c>
+      <c r="F714" t="s">
+        <v>5</v>
+      </c>
+      <c r="G714" s="2">
+        <v>0.81944444444444453</v>
+      </c>
+      <c r="H714" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="I714" s="3">
+        <f t="shared" si="11"/>
+        <v>45154.791666666664</v>
+      </c>
+      <c r="J714" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="715" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I715" s="3"/>
+      <c r="A715">
+        <v>2023</v>
+      </c>
+      <c r="B715">
+        <v>2</v>
+      </c>
+      <c r="C715" s="1">
+        <v>45155</v>
+      </c>
+      <c r="D715" s="1">
+        <v>44790</v>
+      </c>
+      <c r="E715">
+        <v>36.1</v>
+      </c>
+      <c r="F715" t="s">
+        <v>5</v>
+      </c>
+      <c r="G715" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="H715" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="I715" s="3">
+        <f t="shared" si="11"/>
+        <v>45155.875</v>
+      </c>
+      <c r="J715" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="716" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I716" s="3"/>
+      <c r="A716">
+        <v>2023</v>
+      </c>
+      <c r="B716">
+        <v>2</v>
+      </c>
+      <c r="C716" s="1">
+        <v>45156</v>
+      </c>
+      <c r="D716" s="1">
+        <v>44791</v>
+      </c>
+      <c r="E716">
+        <v>30.2</v>
+      </c>
+      <c r="F716" t="s">
+        <v>5</v>
+      </c>
+      <c r="G716" s="2">
+        <v>0.24305555555555555</v>
+      </c>
+      <c r="H716" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="I716" s="3">
+        <f t="shared" si="11"/>
+        <v>45156.208333333336</v>
+      </c>
+      <c r="J716" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="717" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I717" s="3"/>
+      <c r="A717">
+        <v>2023</v>
+      </c>
+      <c r="B717">
+        <v>2</v>
+      </c>
+      <c r="C717" s="1">
+        <v>45156</v>
+      </c>
+      <c r="D717" s="1">
+        <v>44791</v>
+      </c>
+      <c r="E717">
+        <v>31.2</v>
+      </c>
+      <c r="F717" t="s">
+        <v>5</v>
+      </c>
+      <c r="G717" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="H717" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="I717" s="3">
+        <f t="shared" si="11"/>
+        <v>45156.875</v>
+      </c>
+      <c r="J717" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="718" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I718" s="3"/>
+      <c r="A718">
+        <v>2023</v>
+      </c>
+      <c r="B718">
+        <v>2</v>
+      </c>
+      <c r="C718" s="1">
+        <v>45157</v>
+      </c>
+      <c r="D718" s="1">
+        <v>44792</v>
+      </c>
+      <c r="E718">
+        <v>33</v>
+      </c>
+      <c r="F718" t="s">
+        <v>5</v>
+      </c>
+      <c r="G718" s="2">
+        <v>0.23958333333333334</v>
+      </c>
+      <c r="H718" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="I718" s="3">
+        <f t="shared" si="11"/>
+        <v>45157.208333333336</v>
+      </c>
+      <c r="J718" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="719" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I719" s="3"/>
+      <c r="A719">
+        <v>2023</v>
+      </c>
+      <c r="B719">
+        <v>2</v>
+      </c>
+      <c r="C719" s="1">
+        <v>45157</v>
+      </c>
+      <c r="D719" s="1">
+        <v>44792</v>
+      </c>
+      <c r="E719">
+        <v>30.8</v>
+      </c>
+      <c r="F719" t="s">
+        <v>5</v>
+      </c>
+      <c r="G719" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="H719" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="I719" s="3">
+        <f t="shared" si="11"/>
+        <v>45157.75</v>
+      </c>
+      <c r="J719" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="720" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I720" s="3"/>

--- a/docs/Data/TyeeCatchData.xlsx
+++ b/docs/Data/TyeeCatchData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evogt\R Analysis\EAV\GitHubMarkdown\R-Markdown-GitHub-Page\docs\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ECB863C-9544-42DB-81B1-FF2552E184F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4B4141-F67D-4FBF-A7FD-6F4ADF83A14D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-54135" yWindow="870" windowWidth="21270" windowHeight="11460" xr2:uid="{0CB3CDF9-0205-43C4-ADC8-DEC6E991EEB1}"/>
+    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0CB3CDF9-0205-43C4-ADC8-DEC6E991EEB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="20">
   <si>
     <t>Year</t>
   </si>
@@ -118,12 +118,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -138,11 +144,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A99EFA95-E1A2-4F3D-8001-3428518B60BC}">
-  <dimension ref="A1:J720"/>
+  <dimension ref="A1:J723"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A708" workbookViewId="0">
-      <selection activeCell="J720" sqref="J720"/>
+    <sheetView tabSelected="1" topLeftCell="A705" workbookViewId="0">
+      <selection activeCell="E725" sqref="E725"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23142,7 +23150,7 @@
         <v>0.25</v>
       </c>
       <c r="I704" s="3">
-        <f t="shared" ref="I704:I719" si="11">C704+H704</f>
+        <f t="shared" ref="I704:I721" si="11">C704+H704</f>
         <v>44787.25</v>
       </c>
       <c r="J704" t="s">
@@ -23649,7 +23657,106 @@
       </c>
     </row>
     <row r="720" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I720" s="3"/>
+      <c r="A720">
+        <v>2023</v>
+      </c>
+      <c r="B720">
+        <v>2</v>
+      </c>
+      <c r="C720" s="1">
+        <v>45158</v>
+      </c>
+      <c r="D720" s="1">
+        <v>44793</v>
+      </c>
+      <c r="E720">
+        <v>31.14</v>
+      </c>
+      <c r="F720" t="s">
+        <v>5</v>
+      </c>
+      <c r="G720" s="2">
+        <v>0.87986111111111109</v>
+      </c>
+      <c r="H720" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="I720" s="3">
+        <f t="shared" si="11"/>
+        <v>45158.875</v>
+      </c>
+      <c r="J720" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="721" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A721">
+        <v>2023</v>
+      </c>
+      <c r="B721">
+        <v>2</v>
+      </c>
+      <c r="C721" s="1">
+        <v>45159</v>
+      </c>
+      <c r="D721" s="1">
+        <v>44794</v>
+      </c>
+      <c r="E721" s="4">
+        <v>40.696969000000003</v>
+      </c>
+      <c r="F721" t="s">
+        <v>5</v>
+      </c>
+      <c r="G721" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="H721" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="I721" s="3">
+        <f t="shared" si="11"/>
+        <v>45159.875</v>
+      </c>
+      <c r="J721" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="722" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A722">
+        <v>2023</v>
+      </c>
+      <c r="B722">
+        <v>2</v>
+      </c>
+      <c r="C722" s="1">
+        <v>45159</v>
+      </c>
+      <c r="D722" s="1">
+        <v>44794</v>
+      </c>
+      <c r="E722" s="4">
+        <v>30.696968999999999</v>
+      </c>
+      <c r="F722" t="s">
+        <v>5</v>
+      </c>
+      <c r="G722" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="H722" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="I722" s="3">
+        <f t="shared" ref="I722" si="13">C722+H722</f>
+        <v>45159.875</v>
+      </c>
+      <c r="J722" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="723" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I723" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J708" xr:uid="{A99EFA95-E1A2-4F3D-8001-3428518B60BC}"/>

--- a/docs/Data/TyeeCatchData.xlsx
+++ b/docs/Data/TyeeCatchData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evogt\R Analysis\EAV\GitHubMarkdown\R-Markdown-GitHub-Page\docs\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4B4141-F67D-4FBF-A7FD-6F4ADF83A14D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B2378D4-0478-43AC-89A4-6B2404078F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0CB3CDF9-0205-43C4-ADC8-DEC6E991EEB1}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="20">
   <si>
     <t>Year</t>
   </si>
@@ -127,7 +127,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -144,13 +144,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,8 +469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A99EFA95-E1A2-4F3D-8001-3428518B60BC}">
   <dimension ref="A1:J723"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A705" workbookViewId="0">
-      <selection activeCell="E725" sqref="E725"/>
+    <sheetView tabSelected="1" topLeftCell="A699" workbookViewId="0">
+      <selection activeCell="M719" sqref="M719"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23666,22 +23668,22 @@
       <c r="C720" s="1">
         <v>45158</v>
       </c>
-      <c r="D720" s="1">
+      <c r="D720" s="4">
         <v>44793</v>
       </c>
-      <c r="E720">
+      <c r="E720" s="5">
         <v>31.14</v>
       </c>
-      <c r="F720" t="s">
-        <v>5</v>
-      </c>
-      <c r="G720" s="2">
+      <c r="F720" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G720" s="6">
         <v>0.87986111111111109</v>
       </c>
-      <c r="H720" s="2">
+      <c r="H720" s="6">
         <v>0.875</v>
       </c>
-      <c r="I720" s="3">
+      <c r="I720" s="7">
         <f t="shared" si="11"/>
         <v>45158.875</v>
       </c>
@@ -23699,24 +23701,24 @@
       <c r="C721" s="1">
         <v>45159</v>
       </c>
-      <c r="D721" s="1">
+      <c r="D721" s="4">
         <v>44794</v>
       </c>
-      <c r="E721" s="4">
-        <v>40.696969000000003</v>
-      </c>
-      <c r="F721" t="s">
-        <v>5</v>
-      </c>
-      <c r="G721" s="5">
-        <v>0.875</v>
-      </c>
-      <c r="H721" s="2">
-        <v>0.875</v>
-      </c>
-      <c r="I721" s="3">
+      <c r="E721" s="5">
+        <v>43.14</v>
+      </c>
+      <c r="F721" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G721" s="6">
+        <v>0.86458333333333337</v>
+      </c>
+      <c r="H721" s="6">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="I721" s="7">
         <f t="shared" si="11"/>
-        <v>45159.875</v>
+        <v>45159.833333333336</v>
       </c>
       <c r="J721" t="s">
         <v>8</v>
@@ -23732,31 +23734,61 @@
       <c r="C722" s="1">
         <v>45159</v>
       </c>
-      <c r="D722" s="1">
+      <c r="D722" s="4">
         <v>44794</v>
       </c>
-      <c r="E722" s="4">
-        <v>30.696968999999999</v>
-      </c>
-      <c r="F722" t="s">
-        <v>5</v>
-      </c>
-      <c r="G722" s="5">
-        <v>0.875</v>
-      </c>
-      <c r="H722" s="2">
-        <v>0.875</v>
-      </c>
-      <c r="I722" s="3">
-        <f t="shared" ref="I722" si="13">C722+H722</f>
-        <v>45159.875</v>
+      <c r="E722" s="5">
+        <v>33</v>
+      </c>
+      <c r="F722" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G722" s="6">
+        <v>0.86458333333333337</v>
+      </c>
+      <c r="H722" s="6">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="I722" s="7">
+        <f t="shared" ref="I722:I723" si="13">C722+H722</f>
+        <v>45159.833333333336</v>
       </c>
       <c r="J722" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="723" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I723" s="3"/>
+      <c r="A723">
+        <v>2023</v>
+      </c>
+      <c r="B723">
+        <v>2</v>
+      </c>
+      <c r="C723" s="1">
+        <v>45159</v>
+      </c>
+      <c r="D723" s="4">
+        <v>44794</v>
+      </c>
+      <c r="E723" s="5">
+        <v>30</v>
+      </c>
+      <c r="F723" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G723" s="6">
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="H723" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="I723" s="7">
+        <f t="shared" si="13"/>
+        <v>45159.25</v>
+      </c>
+      <c r="J723" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:J708" xr:uid="{A99EFA95-E1A2-4F3D-8001-3428518B60BC}"/>

--- a/docs/Data/TyeeCatchData.xlsx
+++ b/docs/Data/TyeeCatchData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evogt\R Analysis\EAV\GitHubMarkdown\R-Markdown-GitHub-Page\docs\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5181C25-3006-4E41-8990-512F348A0E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA56742A-B466-477E-9FFD-6687F9DB3CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0CB3CDF9-0205-43C4-ADC8-DEC6E991EEB1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0CB3CDF9-0205-43C4-ADC8-DEC6E991EEB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4283" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4301" uniqueCount="558">
   <si>
     <t>Year</t>
   </si>
@@ -1709,6 +1709,9 @@
   </si>
   <si>
     <t>Jack Isbister</t>
+  </si>
+  <si>
+    <t>Allyn Harvey</t>
   </si>
 </sst>
 </file>
@@ -2078,10 +2081,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A99EFA95-E1A2-4F3D-8001-3428518B60BC}">
-  <dimension ref="A1:O728"/>
+  <dimension ref="A1:O731"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A415" workbookViewId="0">
-      <selection activeCell="M422" sqref="M422"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D714" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="O730" sqref="O730"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2098,6 +2104,8 @@
     <col min="10" max="10" width="18.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
@@ -36064,7 +36072,7 @@
         <v>0.25</v>
       </c>
       <c r="J705" s="3">
-        <f t="shared" ref="J705:J728" si="25">D705+I705</f>
+        <f t="shared" ref="J705:J730" si="25">D705+I705</f>
         <v>44787.25</v>
       </c>
       <c r="K705" t="s">
@@ -37211,6 +37219,150 @@
         <v>24</v>
       </c>
       <c r="O728" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="729" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A729">
+        <v>2023</v>
+      </c>
+      <c r="B729">
+        <v>2</v>
+      </c>
+      <c r="C729">
+        <v>20</v>
+      </c>
+      <c r="D729" s="1">
+        <v>45164</v>
+      </c>
+      <c r="E729" s="1">
+        <v>44799</v>
+      </c>
+      <c r="F729" s="5">
+        <v>30.1</v>
+      </c>
+      <c r="G729" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H729" s="2">
+        <v>0.87708333333333333</v>
+      </c>
+      <c r="I729" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="J729" s="7">
+        <f t="shared" si="25"/>
+        <v>45164.875</v>
+      </c>
+      <c r="K729" t="s">
+        <v>8</v>
+      </c>
+      <c r="L729" t="s">
+        <v>557</v>
+      </c>
+      <c r="M729" t="s">
+        <v>93</v>
+      </c>
+      <c r="N729" t="s">
+        <v>127</v>
+      </c>
+      <c r="O729" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="730" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A730">
+        <v>2023</v>
+      </c>
+      <c r="B730">
+        <v>2</v>
+      </c>
+      <c r="C730">
+        <v>21</v>
+      </c>
+      <c r="D730" s="1">
+        <v>45165</v>
+      </c>
+      <c r="E730" s="1">
+        <v>44800</v>
+      </c>
+      <c r="F730" s="5">
+        <v>30</v>
+      </c>
+      <c r="G730" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H730" s="2">
+        <v>0.24791666666666667</v>
+      </c>
+      <c r="I730" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="J730" s="7">
+        <f t="shared" si="25"/>
+        <v>45165.208333333336</v>
+      </c>
+      <c r="K730" t="s">
+        <v>6</v>
+      </c>
+      <c r="L730" t="s">
+        <v>451</v>
+      </c>
+      <c r="M730" t="s">
+        <v>399</v>
+      </c>
+      <c r="N730" t="s">
+        <v>24</v>
+      </c>
+      <c r="O730" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="731" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A731">
+        <v>2023</v>
+      </c>
+      <c r="B731">
+        <v>2</v>
+      </c>
+      <c r="C731">
+        <v>22</v>
+      </c>
+      <c r="D731" s="1">
+        <v>45165</v>
+      </c>
+      <c r="E731" s="1">
+        <v>44800</v>
+      </c>
+      <c r="F731" s="5">
+        <v>31.14</v>
+      </c>
+      <c r="G731" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H731" s="2">
+        <v>0.25347222222222221</v>
+      </c>
+      <c r="I731" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="J731" s="7">
+        <f t="shared" ref="J731" si="26">D731+I731</f>
+        <v>45165.25</v>
+      </c>
+      <c r="K731" t="s">
+        <v>6</v>
+      </c>
+      <c r="L731" t="s">
+        <v>172</v>
+      </c>
+      <c r="M731" t="s">
+        <v>97</v>
+      </c>
+      <c r="N731" t="s">
+        <v>24</v>
+      </c>
+      <c r="O731" t="s">
         <v>24</v>
       </c>
     </row>

--- a/docs/Data/TyeeCatchData.xlsx
+++ b/docs/Data/TyeeCatchData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evogt\R Analysis\EAV\GitHubMarkdown\R-Markdown-GitHub-Page\docs\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA56742A-B466-477E-9FFD-6687F9DB3CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A559A8-6D1D-463F-AD73-6EE1187EE38D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0CB3CDF9-0205-43C4-ADC8-DEC6E991EEB1}"/>
+    <workbookView xWindow="-26025" yWindow="2235" windowWidth="21600" windowHeight="11235" xr2:uid="{0CB3CDF9-0205-43C4-ADC8-DEC6E991EEB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4301" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4313" uniqueCount="559">
   <si>
     <t>Year</t>
   </si>
@@ -1712,6 +1712,9 @@
   </si>
   <si>
     <t>Allyn Harvey</t>
+  </si>
+  <si>
+    <t>John Plant</t>
   </si>
 </sst>
 </file>
@@ -2081,13 +2084,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A99EFA95-E1A2-4F3D-8001-3428518B60BC}">
-  <dimension ref="A1:O731"/>
+  <dimension ref="A1:O733"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D714" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D729" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O730" sqref="O730"/>
+      <selection pane="bottomRight" activeCell="L726" sqref="B726:L727"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -37347,7 +37350,7 @@
         <v>0.25</v>
       </c>
       <c r="J731" s="7">
-        <f t="shared" ref="J731" si="26">D731+I731</f>
+        <f t="shared" ref="J731:J732" si="26">D731+I731</f>
         <v>45165.25</v>
       </c>
       <c r="K731" t="s">
@@ -37363,6 +37366,102 @@
         <v>24</v>
       </c>
       <c r="O731" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="732" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A732">
+        <v>2023</v>
+      </c>
+      <c r="B732">
+        <v>2</v>
+      </c>
+      <c r="C732">
+        <v>23</v>
+      </c>
+      <c r="D732" s="1">
+        <v>45167</v>
+      </c>
+      <c r="E732" s="1">
+        <v>44802</v>
+      </c>
+      <c r="F732" s="5">
+        <v>36.119999999999997</v>
+      </c>
+      <c r="G732" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H732" s="2">
+        <v>0.85069444444444453</v>
+      </c>
+      <c r="I732" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="J732" s="7">
+        <f t="shared" si="26"/>
+        <v>45167.833333333336</v>
+      </c>
+      <c r="K732" t="s">
+        <v>8</v>
+      </c>
+      <c r="L732" t="s">
+        <v>558</v>
+      </c>
+      <c r="M732" t="s">
+        <v>276</v>
+      </c>
+      <c r="N732" t="s">
+        <v>127</v>
+      </c>
+      <c r="O732" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="733" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A733">
+        <v>2023</v>
+      </c>
+      <c r="B733">
+        <v>2</v>
+      </c>
+      <c r="C733">
+        <v>24</v>
+      </c>
+      <c r="D733" s="1">
+        <v>45167</v>
+      </c>
+      <c r="E733" s="1">
+        <v>44803</v>
+      </c>
+      <c r="F733" s="5">
+        <v>37.119999999999997</v>
+      </c>
+      <c r="G733" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H733" s="2">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="I733" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="J733" s="7">
+        <f t="shared" ref="J733" si="27">D733+I733</f>
+        <v>45167.416666666664</v>
+      </c>
+      <c r="K733" t="s">
+        <v>6</v>
+      </c>
+      <c r="L733" t="s">
+        <v>495</v>
+      </c>
+      <c r="M733" t="s">
+        <v>216</v>
+      </c>
+      <c r="N733" t="s">
+        <v>127</v>
+      </c>
+      <c r="O733" t="s">
         <v>24</v>
       </c>
     </row>

--- a/docs/Data/TyeeCatchData.xlsx
+++ b/docs/Data/TyeeCatchData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evogt\R Analysis\EAV\GitHubMarkdown\R-Markdown-GitHub-Page\docs\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A559A8-6D1D-463F-AD73-6EE1187EE38D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16478BD5-64C8-44E7-8198-4D404ED4DAF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26025" yWindow="2235" windowWidth="21600" windowHeight="11235" xr2:uid="{0CB3CDF9-0205-43C4-ADC8-DEC6E991EEB1}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0CB3CDF9-0205-43C4-ADC8-DEC6E991EEB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4313" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4325" uniqueCount="561">
   <si>
     <t>Year</t>
   </si>
@@ -1715,6 +1715,12 @@
   </si>
   <si>
     <t>John Plant</t>
+  </si>
+  <si>
+    <t>Lyndon Duke</t>
+  </si>
+  <si>
+    <t>Glen Daradics</t>
   </si>
 </sst>
 </file>
@@ -2084,13 +2090,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A99EFA95-E1A2-4F3D-8001-3428518B60BC}">
-  <dimension ref="A1:O733"/>
+  <dimension ref="A1:O735"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D729" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D720" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L726" sqref="B726:L727"/>
+      <selection pane="bottomRight" activeCell="G738" sqref="G738"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -37428,7 +37434,7 @@
         <v>24</v>
       </c>
       <c r="D733" s="1">
-        <v>45167</v>
+        <v>45168</v>
       </c>
       <c r="E733" s="1">
         <v>44803</v>
@@ -37437,7 +37443,7 @@
         <v>37.119999999999997</v>
       </c>
       <c r="G733" s="5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H733" s="2">
         <v>0.44791666666666669</v>
@@ -37447,7 +37453,7 @@
       </c>
       <c r="J733" s="7">
         <f t="shared" ref="J733" si="27">D733+I733</f>
-        <v>45167.416666666664</v>
+        <v>45168.416666666664</v>
       </c>
       <c r="K733" t="s">
         <v>6</v>
@@ -37462,6 +37468,102 @@
         <v>127</v>
       </c>
       <c r="O733" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="734" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A734">
+        <v>2023</v>
+      </c>
+      <c r="B734">
+        <v>2</v>
+      </c>
+      <c r="C734">
+        <v>24</v>
+      </c>
+      <c r="D734" s="1">
+        <v>45168</v>
+      </c>
+      <c r="E734" s="1">
+        <v>44803</v>
+      </c>
+      <c r="F734" s="5">
+        <v>30.8</v>
+      </c>
+      <c r="G734" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H734" s="2">
+        <v>0.82986111111111116</v>
+      </c>
+      <c r="I734" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="J734" s="7">
+        <f t="shared" ref="J734:J735" si="28">D734+I734</f>
+        <v>45168.791666666664</v>
+      </c>
+      <c r="K734" t="s">
+        <v>8</v>
+      </c>
+      <c r="L734" t="s">
+        <v>559</v>
+      </c>
+      <c r="M734" t="s">
+        <v>423</v>
+      </c>
+      <c r="N734" t="s">
+        <v>127</v>
+      </c>
+      <c r="O734" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="735" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A735">
+        <v>2023</v>
+      </c>
+      <c r="B735">
+        <v>2</v>
+      </c>
+      <c r="C735">
+        <v>24</v>
+      </c>
+      <c r="D735" s="1">
+        <v>45169</v>
+      </c>
+      <c r="E735" s="1">
+        <v>44804</v>
+      </c>
+      <c r="F735" s="5">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="G735" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H735" s="2">
+        <v>0.80555555555555547</v>
+      </c>
+      <c r="I735" s="2">
+        <v>0.80555555555555547</v>
+      </c>
+      <c r="J735" s="7">
+        <f t="shared" si="28"/>
+        <v>45169.805555555555</v>
+      </c>
+      <c r="K735" t="s">
+        <v>8</v>
+      </c>
+      <c r="L735" t="s">
+        <v>560</v>
+      </c>
+      <c r="M735" t="s">
+        <v>361</v>
+      </c>
+      <c r="N735" t="s">
+        <v>127</v>
+      </c>
+      <c r="O735" t="s">
         <v>24</v>
       </c>
     </row>

--- a/docs/Data/TyeeCatchData.xlsx
+++ b/docs/Data/TyeeCatchData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evogt\R Analysis\EAV\GitHubMarkdown\R-Markdown-GitHub-Page\docs\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16478BD5-64C8-44E7-8198-4D404ED4DAF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD41733-9746-48C0-A51A-3655F7BCF2BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0CB3CDF9-0205-43C4-ADC8-DEC6E991EEB1}"/>
+    <workbookView xWindow="-54570" yWindow="2415" windowWidth="21600" windowHeight="11235" xr2:uid="{0CB3CDF9-0205-43C4-ADC8-DEC6E991EEB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4325" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4326" uniqueCount="561">
   <si>
     <t>Year</t>
   </si>
@@ -1767,12 +1767,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -2090,13 +2089,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A99EFA95-E1A2-4F3D-8001-3428518B60BC}">
-  <dimension ref="A1:O735"/>
+  <dimension ref="A1:O736"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D720" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G738" sqref="G738"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -36311,7 +36310,6 @@
         <v>45141</v>
       </c>
       <c r="E710" s="1">
-        <f>DATE(2022,8,DAY(D710))</f>
         <v>44776</v>
       </c>
       <c r="F710">
@@ -36361,7 +36359,6 @@
         <v>45150</v>
       </c>
       <c r="E711" s="1">
-        <f>DATE(2022,8,DAY(D711))</f>
         <v>44785</v>
       </c>
       <c r="F711">
@@ -36411,7 +36408,6 @@
         <v>45151</v>
       </c>
       <c r="E712" s="1">
-        <f>DATE(2022,8,DAY(D712))</f>
         <v>44786</v>
       </c>
       <c r="F712">
@@ -36461,7 +36457,6 @@
         <v>45151</v>
       </c>
       <c r="E713" s="1">
-        <f>DATE(2022,8,DAY(D713))</f>
         <v>44786</v>
       </c>
       <c r="F713">
@@ -36853,22 +36848,22 @@
       <c r="D721" s="1">
         <v>45158</v>
       </c>
-      <c r="E721" s="4">
+      <c r="E721" s="1">
         <v>44793</v>
       </c>
-      <c r="F721" s="5">
+      <c r="F721" s="4">
         <v>31.14</v>
       </c>
-      <c r="G721" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H721" s="6">
+      <c r="G721" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H721" s="5">
         <v>0.87986111111111109</v>
       </c>
-      <c r="I721" s="6">
+      <c r="I721" s="5">
         <v>0.875</v>
       </c>
-      <c r="J721" s="7">
+      <c r="J721" s="6">
         <f t="shared" si="25"/>
         <v>45158.875</v>
       </c>
@@ -36902,22 +36897,22 @@
       <c r="D722" s="1">
         <v>45159</v>
       </c>
-      <c r="E722" s="4">
+      <c r="E722" s="1">
         <v>44794</v>
       </c>
-      <c r="F722" s="5">
+      <c r="F722" s="4">
         <v>43.14</v>
       </c>
-      <c r="G722" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H722" s="6">
+      <c r="G722" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H722" s="5">
         <v>0.86458333333333337</v>
       </c>
-      <c r="I722" s="6">
+      <c r="I722" s="5">
         <v>0.83333333333333337</v>
       </c>
-      <c r="J722" s="7">
+      <c r="J722" s="6">
         <f t="shared" si="25"/>
         <v>45159.833333333336</v>
       </c>
@@ -36951,22 +36946,22 @@
       <c r="D723" s="1">
         <v>45159</v>
       </c>
-      <c r="E723" s="4">
+      <c r="E723" s="1">
         <v>44794</v>
       </c>
-      <c r="F723" s="5">
+      <c r="F723" s="4">
         <v>33</v>
       </c>
-      <c r="G723" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H723" s="6">
+      <c r="G723" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H723" s="5">
         <v>0.86458333333333337</v>
       </c>
-      <c r="I723" s="6">
+      <c r="I723" s="5">
         <v>0.83333333333333337</v>
       </c>
-      <c r="J723" s="7">
+      <c r="J723" s="6">
         <f t="shared" si="25"/>
         <v>45159.833333333336</v>
       </c>
@@ -37000,22 +36995,22 @@
       <c r="D724" s="1">
         <v>45160</v>
       </c>
-      <c r="E724" s="4">
+      <c r="E724" s="1">
         <v>44795</v>
       </c>
-      <c r="F724" s="5">
+      <c r="F724" s="4">
         <v>30</v>
       </c>
-      <c r="G724" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H724" s="6">
+      <c r="G724" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H724" s="5">
         <v>0.2638888888888889</v>
       </c>
-      <c r="I724" s="6">
+      <c r="I724" s="5">
         <v>0.25</v>
       </c>
-      <c r="J724" s="7">
+      <c r="J724" s="6">
         <f t="shared" si="25"/>
         <v>45160.25</v>
       </c>
@@ -37049,13 +37044,13 @@
       <c r="D725" s="1">
         <v>45161</v>
       </c>
-      <c r="E725" s="4">
+      <c r="E725" s="1">
         <v>44796</v>
       </c>
-      <c r="F725" s="5">
+      <c r="F725" s="4">
         <v>34.11</v>
       </c>
-      <c r="G725" s="5" t="s">
+      <c r="G725" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H725" s="2">
@@ -37064,7 +37059,7 @@
       <c r="I725" s="2">
         <v>0.83333333333333337</v>
       </c>
-      <c r="J725" s="7">
+      <c r="J725" s="6">
         <f t="shared" si="25"/>
         <v>45161.833333333336</v>
       </c>
@@ -37101,10 +37096,10 @@
       <c r="E726" s="1">
         <v>44798</v>
       </c>
-      <c r="F726" s="5">
+      <c r="F726" s="4">
         <v>33.6</v>
       </c>
-      <c r="G726" s="5" t="s">
+      <c r="G726" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H726" s="2">
@@ -37113,7 +37108,7 @@
       <c r="I726" s="2">
         <v>0.20833333333333334</v>
       </c>
-      <c r="J726" s="7">
+      <c r="J726" s="6">
         <f t="shared" si="25"/>
         <v>45163.208333333336</v>
       </c>
@@ -37150,10 +37145,10 @@
       <c r="E727" s="1">
         <v>44798</v>
       </c>
-      <c r="F727" s="5">
+      <c r="F727" s="4">
         <v>31</v>
       </c>
-      <c r="G727" s="5" t="s">
+      <c r="G727" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H727" s="2">
@@ -37162,7 +37157,7 @@
       <c r="I727" s="2">
         <v>0.25</v>
       </c>
-      <c r="J727" s="7">
+      <c r="J727" s="6">
         <f t="shared" si="25"/>
         <v>45163.25</v>
       </c>
@@ -37199,10 +37194,10 @@
       <c r="E728" s="1">
         <v>44799</v>
       </c>
-      <c r="F728" s="5">
+      <c r="F728" s="4">
         <v>31.1</v>
       </c>
-      <c r="G728" s="5" t="s">
+      <c r="G728" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H728" s="2">
@@ -37211,7 +37206,7 @@
       <c r="I728" s="2">
         <v>0.25</v>
       </c>
-      <c r="J728" s="7">
+      <c r="J728" s="6">
         <f t="shared" si="25"/>
         <v>45164.25</v>
       </c>
@@ -37247,10 +37242,10 @@
       <c r="E729" s="1">
         <v>44799</v>
       </c>
-      <c r="F729" s="5">
+      <c r="F729" s="4">
         <v>30.1</v>
       </c>
-      <c r="G729" s="5" t="s">
+      <c r="G729" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H729" s="2">
@@ -37259,7 +37254,7 @@
       <c r="I729" s="2">
         <v>0.875</v>
       </c>
-      <c r="J729" s="7">
+      <c r="J729" s="6">
         <f t="shared" si="25"/>
         <v>45164.875</v>
       </c>
@@ -37295,10 +37290,10 @@
       <c r="E730" s="1">
         <v>44800</v>
       </c>
-      <c r="F730" s="5">
+      <c r="F730" s="4">
         <v>30</v>
       </c>
-      <c r="G730" s="5" t="s">
+      <c r="G730" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H730" s="2">
@@ -37307,7 +37302,7 @@
       <c r="I730" s="2">
         <v>0.20833333333333334</v>
       </c>
-      <c r="J730" s="7">
+      <c r="J730" s="6">
         <f t="shared" si="25"/>
         <v>45165.208333333336</v>
       </c>
@@ -37343,10 +37338,10 @@
       <c r="E731" s="1">
         <v>44800</v>
       </c>
-      <c r="F731" s="5">
+      <c r="F731" s="4">
         <v>31.14</v>
       </c>
-      <c r="G731" s="5" t="s">
+      <c r="G731" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H731" s="2">
@@ -37355,7 +37350,7 @@
       <c r="I731" s="2">
         <v>0.25</v>
       </c>
-      <c r="J731" s="7">
+      <c r="J731" s="6">
         <f t="shared" ref="J731:J732" si="26">D731+I731</f>
         <v>45165.25</v>
       </c>
@@ -37391,10 +37386,10 @@
       <c r="E732" s="1">
         <v>44802</v>
       </c>
-      <c r="F732" s="5">
+      <c r="F732" s="4">
         <v>36.119999999999997</v>
       </c>
-      <c r="G732" s="5" t="s">
+      <c r="G732" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H732" s="2">
@@ -37403,7 +37398,7 @@
       <c r="I732" s="2">
         <v>0.83333333333333337</v>
       </c>
-      <c r="J732" s="7">
+      <c r="J732" s="6">
         <f t="shared" si="26"/>
         <v>45167.833333333336</v>
       </c>
@@ -37439,10 +37434,10 @@
       <c r="E733" s="1">
         <v>44803</v>
       </c>
-      <c r="F733" s="5">
+      <c r="F733" s="4">
         <v>37.119999999999997</v>
       </c>
-      <c r="G733" s="5" t="s">
+      <c r="G733" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H733" s="2">
@@ -37451,7 +37446,7 @@
       <c r="I733" s="2">
         <v>0.41666666666666669</v>
       </c>
-      <c r="J733" s="7">
+      <c r="J733" s="6">
         <f t="shared" ref="J733" si="27">D733+I733</f>
         <v>45168.416666666664</v>
       </c>
@@ -37479,7 +37474,7 @@
         <v>2</v>
       </c>
       <c r="C734">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D734" s="1">
         <v>45168</v>
@@ -37487,10 +37482,10 @@
       <c r="E734" s="1">
         <v>44803</v>
       </c>
-      <c r="F734" s="5">
+      <c r="F734" s="4">
         <v>30.8</v>
       </c>
-      <c r="G734" s="5" t="s">
+      <c r="G734" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H734" s="2">
@@ -37499,8 +37494,8 @@
       <c r="I734" s="2">
         <v>0.79166666666666663</v>
       </c>
-      <c r="J734" s="7">
-        <f t="shared" ref="J734:J735" si="28">D734+I734</f>
+      <c r="J734" s="6">
+        <f t="shared" ref="J734:J736" si="28">D734+I734</f>
         <v>45168.791666666664</v>
       </c>
       <c r="K734" t="s">
@@ -37527,7 +37522,7 @@
         <v>2</v>
       </c>
       <c r="C735">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D735" s="1">
         <v>45169</v>
@@ -37535,10 +37530,10 @@
       <c r="E735" s="1">
         <v>44804</v>
       </c>
-      <c r="F735" s="5">
+      <c r="F735" s="4">
         <v>37.299999999999997</v>
       </c>
-      <c r="G735" s="5" t="s">
+      <c r="G735" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H735" s="2">
@@ -37547,7 +37542,7 @@
       <c r="I735" s="2">
         <v>0.80555555555555547</v>
       </c>
-      <c r="J735" s="7">
+      <c r="J735" s="6">
         <f t="shared" si="28"/>
         <v>45169.805555555555</v>
       </c>
@@ -37565,6 +37560,39 @@
       </c>
       <c r="O735" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="736" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A736">
+        <v>2023</v>
+      </c>
+      <c r="B736">
+        <v>2</v>
+      </c>
+      <c r="C736">
+        <v>27</v>
+      </c>
+      <c r="D736" s="1">
+        <v>45171</v>
+      </c>
+      <c r="E736" s="1">
+        <v>44806</v>
+      </c>
+      <c r="F736" s="4">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="G736" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H736" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="I736" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="J736" s="2">
+        <f t="shared" si="28"/>
+        <v>45171.25</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Data/TyeeCatchData.xlsx
+++ b/docs/Data/TyeeCatchData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evogt\R Analysis\EAV\GitHubMarkdown\R-Markdown-GitHub-Page\docs\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD41733-9746-48C0-A51A-3655F7BCF2BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3357A0-E599-4300-97E4-96759BCA1F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-54570" yWindow="2415" windowWidth="21600" windowHeight="11235" xr2:uid="{0CB3CDF9-0205-43C4-ADC8-DEC6E991EEB1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0CB3CDF9-0205-43C4-ADC8-DEC6E991EEB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4326" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4337" uniqueCount="562">
   <si>
     <t>Year</t>
   </si>
@@ -1504,9 +1504,6 @@
     <t>Kalla Shields</t>
   </si>
   <si>
-    <t>Chris Sheilds</t>
-  </si>
-  <si>
     <t>Bob Barrett</t>
   </si>
   <si>
@@ -1721,6 +1718,12 @@
   </si>
   <si>
     <t>Glen Daradics</t>
+  </si>
+  <si>
+    <t>Mike Farally</t>
+  </si>
+  <si>
+    <t>Chris Shields</t>
   </si>
 </sst>
 </file>
@@ -2089,34 +2092,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A99EFA95-E1A2-4F3D-8001-3428518B60BC}">
-  <dimension ref="A1:O736"/>
+  <dimension ref="A1:O737"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D712" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="P736" sqref="P736"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2154,16 +2157,16 @@
         <v>21</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2002</v>
       </c>
@@ -2200,13 +2203,13 @@
         <v>23</v>
       </c>
       <c r="N2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O2" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2002</v>
       </c>
@@ -2243,13 +2246,13 @@
         <v>26</v>
       </c>
       <c r="N3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O3" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2002</v>
       </c>
@@ -2286,13 +2289,13 @@
         <v>28</v>
       </c>
       <c r="N4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O4" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2002</v>
       </c>
@@ -2329,13 +2332,13 @@
         <v>30</v>
       </c>
       <c r="N5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O5" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2002</v>
       </c>
@@ -2372,13 +2375,13 @@
         <v>30</v>
       </c>
       <c r="N6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O6" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2002</v>
       </c>
@@ -2415,13 +2418,13 @@
         <v>33</v>
       </c>
       <c r="N7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O7" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2002</v>
       </c>
@@ -2458,13 +2461,13 @@
         <v>33</v>
       </c>
       <c r="N8" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O8" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2002</v>
       </c>
@@ -2501,13 +2504,13 @@
         <v>26</v>
       </c>
       <c r="N9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O9" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2002</v>
       </c>
@@ -2544,13 +2547,13 @@
         <v>36</v>
       </c>
       <c r="N10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O10" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2002</v>
       </c>
@@ -2587,13 +2590,13 @@
         <v>28</v>
       </c>
       <c r="N11" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O11" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2002</v>
       </c>
@@ -2630,13 +2633,13 @@
         <v>39</v>
       </c>
       <c r="N12" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O12" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2002</v>
       </c>
@@ -2673,13 +2676,13 @@
         <v>33</v>
       </c>
       <c r="N13" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O13" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2002</v>
       </c>
@@ -2716,13 +2719,13 @@
         <v>42</v>
       </c>
       <c r="N14" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O14" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2002</v>
       </c>
@@ -2759,13 +2762,13 @@
         <v>43</v>
       </c>
       <c r="N15" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O15" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2002</v>
       </c>
@@ -2802,13 +2805,13 @@
         <v>45</v>
       </c>
       <c r="N16" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O16" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2002</v>
       </c>
@@ -2845,13 +2848,13 @@
         <v>30</v>
       </c>
       <c r="N17" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O17" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2002</v>
       </c>
@@ -2888,13 +2891,13 @@
         <v>47</v>
       </c>
       <c r="N18" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O18" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2002</v>
       </c>
@@ -2931,13 +2934,13 @@
         <v>49</v>
       </c>
       <c r="N19" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O19" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2002</v>
       </c>
@@ -2974,13 +2977,13 @@
         <v>51</v>
       </c>
       <c r="N20" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O20" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2002</v>
       </c>
@@ -3017,13 +3020,13 @@
         <v>53</v>
       </c>
       <c r="N21" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O21" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2002</v>
       </c>
@@ -3060,13 +3063,13 @@
         <v>55</v>
       </c>
       <c r="N22" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O22" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2002</v>
       </c>
@@ -3103,13 +3106,13 @@
         <v>57</v>
       </c>
       <c r="N23" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O23" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2002</v>
       </c>
@@ -3146,13 +3149,13 @@
         <v>59</v>
       </c>
       <c r="N24" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O24" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2002</v>
       </c>
@@ -3189,13 +3192,13 @@
         <v>61</v>
       </c>
       <c r="N25" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O25" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2002</v>
       </c>
@@ -3232,13 +3235,13 @@
         <v>61</v>
       </c>
       <c r="N26" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O26" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2002</v>
       </c>
@@ -3275,13 +3278,13 @@
         <v>62</v>
       </c>
       <c r="N27" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O27" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2002</v>
       </c>
@@ -3318,13 +3321,13 @@
         <v>26</v>
       </c>
       <c r="N28" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O28" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2002</v>
       </c>
@@ -3361,13 +3364,13 @@
         <v>61</v>
       </c>
       <c r="N29" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O29" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2002</v>
       </c>
@@ -3404,13 +3407,13 @@
         <v>66</v>
       </c>
       <c r="N30" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O30" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2002</v>
       </c>
@@ -3447,13 +3450,13 @@
         <v>68</v>
       </c>
       <c r="N31" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O31" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2002</v>
       </c>
@@ -3490,13 +3493,13 @@
         <v>70</v>
       </c>
       <c r="N32" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O32" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2002</v>
       </c>
@@ -3533,13 +3536,13 @@
         <v>71</v>
       </c>
       <c r="N33" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O33" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2002</v>
       </c>
@@ -3576,13 +3579,13 @@
         <v>73</v>
       </c>
       <c r="N34" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O34" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2002</v>
       </c>
@@ -3619,13 +3622,13 @@
         <v>75</v>
       </c>
       <c r="N35" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O35" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2002</v>
       </c>
@@ -3662,13 +3665,13 @@
         <v>76</v>
       </c>
       <c r="N36" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O36" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2002</v>
       </c>
@@ -3705,13 +3708,13 @@
         <v>78</v>
       </c>
       <c r="N37" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O37" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2002</v>
       </c>
@@ -3748,13 +3751,13 @@
         <v>66</v>
       </c>
       <c r="N38" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O38" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2002</v>
       </c>
@@ -3791,13 +3794,13 @@
         <v>33</v>
       </c>
       <c r="N39" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O39" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2002</v>
       </c>
@@ -3834,13 +3837,13 @@
         <v>81</v>
       </c>
       <c r="N40" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O40" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2002</v>
       </c>
@@ -3877,13 +3880,13 @@
         <v>83</v>
       </c>
       <c r="N41" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O41" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2002</v>
       </c>
@@ -3920,13 +3923,13 @@
         <v>85</v>
       </c>
       <c r="N42" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O42" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2002</v>
       </c>
@@ -3963,13 +3966,13 @@
         <v>87</v>
       </c>
       <c r="N43" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O43" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2002</v>
       </c>
@@ -4006,13 +4009,13 @@
         <v>47</v>
       </c>
       <c r="N44" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O44" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2002</v>
       </c>
@@ -4049,13 +4052,13 @@
         <v>71</v>
       </c>
       <c r="N45" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O45" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2002</v>
       </c>
@@ -4092,13 +4095,13 @@
         <v>28</v>
       </c>
       <c r="N46" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O46" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2002</v>
       </c>
@@ -4135,13 +4138,13 @@
         <v>90</v>
       </c>
       <c r="N47" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O47" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2002</v>
       </c>
@@ -4178,13 +4181,13 @@
         <v>49</v>
       </c>
       <c r="N48" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O48" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2002</v>
       </c>
@@ -4220,13 +4223,13 @@
         <v>23</v>
       </c>
       <c r="N49" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O49" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2002</v>
       </c>
@@ -4263,13 +4266,13 @@
         <v>26</v>
       </c>
       <c r="N50" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O50" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2002</v>
       </c>
@@ -4306,13 +4309,13 @@
         <v>28</v>
       </c>
       <c r="N51" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O51" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2002</v>
       </c>
@@ -4349,13 +4352,13 @@
         <v>30</v>
       </c>
       <c r="N52" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O52" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2002</v>
       </c>
@@ -4392,13 +4395,13 @@
         <v>30</v>
       </c>
       <c r="N53" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O53" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2002</v>
       </c>
@@ -4435,13 +4438,13 @@
         <v>33</v>
       </c>
       <c r="N54" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O54" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2002</v>
       </c>
@@ -4478,13 +4481,13 @@
         <v>33</v>
       </c>
       <c r="N55" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O55" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2002</v>
       </c>
@@ -4521,13 +4524,13 @@
         <v>26</v>
       </c>
       <c r="N56" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O56" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2002</v>
       </c>
@@ -4564,13 +4567,13 @@
         <v>36</v>
       </c>
       <c r="N57" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O57" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2002</v>
       </c>
@@ -4607,13 +4610,13 @@
         <v>28</v>
       </c>
       <c r="N58" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O58" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2002</v>
       </c>
@@ -4650,13 +4653,13 @@
         <v>39</v>
       </c>
       <c r="N59" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O59" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2002</v>
       </c>
@@ -4693,13 +4696,13 @@
         <v>33</v>
       </c>
       <c r="N60" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O60" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2002</v>
       </c>
@@ -4736,13 +4739,13 @@
         <v>42</v>
       </c>
       <c r="N61" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O61" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2002</v>
       </c>
@@ -4779,13 +4782,13 @@
         <v>43</v>
       </c>
       <c r="N62" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O62" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2002</v>
       </c>
@@ -4822,13 +4825,13 @@
         <v>45</v>
       </c>
       <c r="N63" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O63" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2002</v>
       </c>
@@ -4865,13 +4868,13 @@
         <v>30</v>
       </c>
       <c r="N64" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O64" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2002</v>
       </c>
@@ -4908,13 +4911,13 @@
         <v>47</v>
       </c>
       <c r="N65" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O65" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2002</v>
       </c>
@@ -4951,13 +4954,13 @@
         <v>49</v>
       </c>
       <c r="N66" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O66" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2002</v>
       </c>
@@ -4994,13 +4997,13 @@
         <v>51</v>
       </c>
       <c r="N67" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O67" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2002</v>
       </c>
@@ -5037,13 +5040,13 @@
         <v>53</v>
       </c>
       <c r="N68" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O68" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2002</v>
       </c>
@@ -5080,13 +5083,13 @@
         <v>55</v>
       </c>
       <c r="N69" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O69" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2002</v>
       </c>
@@ -5123,13 +5126,13 @@
         <v>57</v>
       </c>
       <c r="N70" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O70" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2002</v>
       </c>
@@ -5166,13 +5169,13 @@
         <v>59</v>
       </c>
       <c r="N71" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O71" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2002</v>
       </c>
@@ -5209,13 +5212,13 @@
         <v>61</v>
       </c>
       <c r="N72" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O72" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2002</v>
       </c>
@@ -5252,13 +5255,13 @@
         <v>61</v>
       </c>
       <c r="N73" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O73" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2002</v>
       </c>
@@ -5295,13 +5298,13 @@
         <v>62</v>
       </c>
       <c r="N74" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O74" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2002</v>
       </c>
@@ -5338,13 +5341,13 @@
         <v>26</v>
       </c>
       <c r="N75" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O75" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2002</v>
       </c>
@@ -5381,13 +5384,13 @@
         <v>61</v>
       </c>
       <c r="N76" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O76" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2002</v>
       </c>
@@ -5424,13 +5427,13 @@
         <v>66</v>
       </c>
       <c r="N77" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O77" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2002</v>
       </c>
@@ -5467,13 +5470,13 @@
         <v>68</v>
       </c>
       <c r="N78" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O78" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2002</v>
       </c>
@@ -5510,13 +5513,13 @@
         <v>70</v>
       </c>
       <c r="N79" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O79" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2002</v>
       </c>
@@ -5553,13 +5556,13 @@
         <v>71</v>
       </c>
       <c r="N80" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O80" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2002</v>
       </c>
@@ -5596,13 +5599,13 @@
         <v>73</v>
       </c>
       <c r="N81" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O81" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2002</v>
       </c>
@@ -5639,13 +5642,13 @@
         <v>75</v>
       </c>
       <c r="N82" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O82" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2002</v>
       </c>
@@ -5682,13 +5685,13 @@
         <v>76</v>
       </c>
       <c r="N83" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O83" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2002</v>
       </c>
@@ -5725,13 +5728,13 @@
         <v>78</v>
       </c>
       <c r="N84" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O84" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2002</v>
       </c>
@@ -5768,13 +5771,13 @@
         <v>66</v>
       </c>
       <c r="N85" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O85" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2002</v>
       </c>
@@ -5811,13 +5814,13 @@
         <v>33</v>
       </c>
       <c r="N86" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O86" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2002</v>
       </c>
@@ -5854,13 +5857,13 @@
         <v>81</v>
       </c>
       <c r="N87" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O87" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2002</v>
       </c>
@@ -5897,13 +5900,13 @@
         <v>83</v>
       </c>
       <c r="N88" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O88" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2002</v>
       </c>
@@ -5940,13 +5943,13 @@
         <v>85</v>
       </c>
       <c r="N89" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O89" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2002</v>
       </c>
@@ -5983,13 +5986,13 @@
         <v>87</v>
       </c>
       <c r="N90" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O90" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2002</v>
       </c>
@@ -6026,13 +6029,13 @@
         <v>47</v>
       </c>
       <c r="N91" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O91" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2002</v>
       </c>
@@ -6069,13 +6072,13 @@
         <v>71</v>
       </c>
       <c r="N92" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O92" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2002</v>
       </c>
@@ -6112,13 +6115,13 @@
         <v>28</v>
       </c>
       <c r="N93" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O93" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2002</v>
       </c>
@@ -6155,13 +6158,13 @@
         <v>90</v>
       </c>
       <c r="N94" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O94" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2003</v>
       </c>
@@ -6204,13 +6207,13 @@
         <v>28</v>
       </c>
       <c r="N95" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O95" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>2003</v>
       </c>
@@ -6253,13 +6256,13 @@
         <v>105</v>
       </c>
       <c r="N96" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O96" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>2003</v>
       </c>
@@ -6302,13 +6305,13 @@
         <v>66</v>
       </c>
       <c r="N97" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O97" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>2003</v>
       </c>
@@ -6351,13 +6354,13 @@
         <v>30</v>
       </c>
       <c r="N98" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O98" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2003</v>
       </c>
@@ -6400,13 +6403,13 @@
         <v>108</v>
       </c>
       <c r="N99" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O99" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>2003</v>
       </c>
@@ -6449,13 +6452,13 @@
         <v>28</v>
       </c>
       <c r="N100" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O100" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2003</v>
       </c>
@@ -6498,13 +6501,13 @@
         <v>111</v>
       </c>
       <c r="N101" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O101" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>2003</v>
       </c>
@@ -6547,13 +6550,13 @@
         <v>33</v>
       </c>
       <c r="N102" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O102" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>2003</v>
       </c>
@@ -6596,13 +6599,13 @@
         <v>71</v>
       </c>
       <c r="N103" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O103" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>2003</v>
       </c>
@@ -6645,13 +6648,13 @@
         <v>114</v>
       </c>
       <c r="N104" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O104" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>2003</v>
       </c>
@@ -6694,13 +6697,13 @@
         <v>111</v>
       </c>
       <c r="N105" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O105" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>2003</v>
       </c>
@@ -6743,13 +6746,13 @@
         <v>66</v>
       </c>
       <c r="N106" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O106" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>2003</v>
       </c>
@@ -6792,13 +6795,13 @@
         <v>193</v>
       </c>
       <c r="N107" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O107" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>2003</v>
       </c>
@@ -6841,13 +6844,13 @@
         <v>97</v>
       </c>
       <c r="N108" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O108" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>2003</v>
       </c>
@@ -6890,13 +6893,13 @@
         <v>95</v>
       </c>
       <c r="N109" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O109" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>2004</v>
       </c>
@@ -6939,13 +6942,13 @@
         <v>28</v>
       </c>
       <c r="N110" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O110" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>2004</v>
       </c>
@@ -6988,13 +6991,13 @@
         <v>39</v>
       </c>
       <c r="N111" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O111" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>2004</v>
       </c>
@@ -7037,13 +7040,13 @@
         <v>93</v>
       </c>
       <c r="N112" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O112" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>2004</v>
       </c>
@@ -7086,13 +7089,13 @@
         <v>71</v>
       </c>
       <c r="N113" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O113" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>2004</v>
       </c>
@@ -7135,13 +7138,13 @@
         <v>61</v>
       </c>
       <c r="N114" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O114" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>2004</v>
       </c>
@@ -7184,13 +7187,13 @@
         <v>26</v>
       </c>
       <c r="N115" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O115" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>2004</v>
       </c>
@@ -7233,13 +7236,13 @@
         <v>98</v>
       </c>
       <c r="N116" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O116" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>2004</v>
       </c>
@@ -7282,13 +7285,13 @@
         <v>26</v>
       </c>
       <c r="N117" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O117" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>2004</v>
       </c>
@@ -7331,13 +7334,13 @@
         <v>66</v>
       </c>
       <c r="N118" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O118" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>2004</v>
       </c>
@@ -7380,13 +7383,13 @@
         <v>122</v>
       </c>
       <c r="N119" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O119" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>2004</v>
       </c>
@@ -7429,13 +7432,13 @@
         <v>43</v>
       </c>
       <c r="N120" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O120" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>2004</v>
       </c>
@@ -7478,13 +7481,13 @@
         <v>123</v>
       </c>
       <c r="N121" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O121" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>2004</v>
       </c>
@@ -7527,13 +7530,13 @@
         <v>81</v>
       </c>
       <c r="N122" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O122" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>2004</v>
       </c>
@@ -7576,13 +7579,13 @@
         <v>28</v>
       </c>
       <c r="N123" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O123" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>2004</v>
       </c>
@@ -7625,13 +7628,13 @@
         <v>30</v>
       </c>
       <c r="N124" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O124" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>2004</v>
       </c>
@@ -7674,13 +7677,13 @@
         <v>126</v>
       </c>
       <c r="N125" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O125" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>2004</v>
       </c>
@@ -7723,13 +7726,13 @@
         <v>129</v>
       </c>
       <c r="N126" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O126" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>2004</v>
       </c>
@@ -7772,13 +7775,13 @@
         <v>45</v>
       </c>
       <c r="N127" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O127" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>2004</v>
       </c>
@@ -7821,13 +7824,13 @@
         <v>132</v>
       </c>
       <c r="N128" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O128" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>2004</v>
       </c>
@@ -7870,13 +7873,13 @@
         <v>134</v>
       </c>
       <c r="N129" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O129" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>2004</v>
       </c>
@@ -7919,13 +7922,13 @@
         <v>66</v>
       </c>
       <c r="N130" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O130" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>2004</v>
       </c>
@@ -7968,13 +7971,13 @@
         <v>132</v>
       </c>
       <c r="N131" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O131" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>2004</v>
       </c>
@@ -8017,13 +8020,13 @@
         <v>28</v>
       </c>
       <c r="N132" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O132" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>2004</v>
       </c>
@@ -8060,19 +8063,19 @@
         <v>6</v>
       </c>
       <c r="L133" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="M133" t="s">
         <v>193</v>
       </c>
       <c r="N133" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O133" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>2004</v>
       </c>
@@ -8115,13 +8118,13 @@
         <v>122</v>
       </c>
       <c r="N134" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O134" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>2004</v>
       </c>
@@ -8164,13 +8167,13 @@
         <v>53</v>
       </c>
       <c r="N135" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O135" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>2004</v>
       </c>
@@ -8213,13 +8216,13 @@
         <v>28</v>
       </c>
       <c r="N136" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O136" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>2004</v>
       </c>
@@ -8256,19 +8259,19 @@
         <v>6</v>
       </c>
       <c r="L137" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="M137" t="s">
         <v>73</v>
       </c>
       <c r="N137" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O137" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>2004</v>
       </c>
@@ -8311,13 +8314,13 @@
         <v>51</v>
       </c>
       <c r="N138" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O138" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>2004</v>
       </c>
@@ -8354,19 +8357,19 @@
         <v>6</v>
       </c>
       <c r="L139" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="M139" t="s">
         <v>53</v>
       </c>
       <c r="N139" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O139" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>2004</v>
       </c>
@@ -8409,13 +8412,13 @@
         <v>98</v>
       </c>
       <c r="N140" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O140" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>2004</v>
       </c>
@@ -8458,13 +8461,13 @@
         <v>97</v>
       </c>
       <c r="N141" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O141" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>2004</v>
       </c>
@@ -8501,19 +8504,19 @@
         <v>6</v>
       </c>
       <c r="L142" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="M142" t="s">
         <v>95</v>
       </c>
       <c r="N142" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O142" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>2004</v>
       </c>
@@ -8556,13 +8559,13 @@
         <v>65</v>
       </c>
       <c r="N143" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O143" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>2004</v>
       </c>
@@ -8599,19 +8602,19 @@
         <v>6</v>
       </c>
       <c r="L144" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="M144" t="s">
         <v>73</v>
       </c>
       <c r="N144" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O144" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>2004</v>
       </c>
@@ -8648,19 +8651,19 @@
         <v>6</v>
       </c>
       <c r="L145" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="M145" t="s">
         <v>57</v>
       </c>
       <c r="N145" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O145" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>2004</v>
       </c>
@@ -8697,19 +8700,19 @@
         <v>6</v>
       </c>
       <c r="L146" t="s">
+        <v>520</v>
+      </c>
+      <c r="M146" t="s">
         <v>521</v>
       </c>
-      <c r="M146" t="s">
-        <v>522</v>
-      </c>
       <c r="N146" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O146" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>2004</v>
       </c>
@@ -8746,19 +8749,19 @@
         <v>6</v>
       </c>
       <c r="L147" t="s">
+        <v>522</v>
+      </c>
+      <c r="M147" t="s">
         <v>523</v>
       </c>
-      <c r="M147" t="s">
-        <v>524</v>
-      </c>
       <c r="N147" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O147" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>2004</v>
       </c>
@@ -8801,13 +8804,13 @@
         <v>26</v>
       </c>
       <c r="N148" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O148" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>2004</v>
       </c>
@@ -8850,13 +8853,13 @@
         <v>178</v>
       </c>
       <c r="N149" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O149" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>2004</v>
       </c>
@@ -8899,13 +8902,13 @@
         <v>102</v>
       </c>
       <c r="N150" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O150" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>2004</v>
       </c>
@@ -8948,13 +8951,13 @@
         <v>26</v>
       </c>
       <c r="N151" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O151" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>2004</v>
       </c>
@@ -8997,13 +9000,13 @@
         <v>40</v>
       </c>
       <c r="N152" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O152" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>2004</v>
       </c>
@@ -9040,19 +9043,19 @@
         <v>6</v>
       </c>
       <c r="L153" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="M153" t="s">
         <v>62</v>
       </c>
       <c r="N153" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O153" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>2004</v>
       </c>
@@ -9095,13 +9098,13 @@
         <v>43</v>
       </c>
       <c r="N154" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O154" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>2004</v>
       </c>
@@ -9138,19 +9141,19 @@
         <v>6</v>
       </c>
       <c r="L155" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="M155" t="s">
         <v>87</v>
       </c>
       <c r="N155" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O155" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>2004</v>
       </c>
@@ -9193,13 +9196,13 @@
         <v>57</v>
       </c>
       <c r="N156" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O156" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>2004</v>
       </c>
@@ -9236,19 +9239,19 @@
         <v>6</v>
       </c>
       <c r="L157" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="M157" t="s">
         <v>132</v>
       </c>
       <c r="N157" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O157" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>2004</v>
       </c>
@@ -9291,13 +9294,13 @@
         <v>73</v>
       </c>
       <c r="N158" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O158" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>2004</v>
       </c>
@@ -9337,16 +9340,16 @@
         <v>160</v>
       </c>
       <c r="M159" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="N159" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O159" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>2004</v>
       </c>
@@ -9389,13 +9392,13 @@
         <v>97</v>
       </c>
       <c r="N160" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O160" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>2004</v>
       </c>
@@ -9438,13 +9441,13 @@
         <v>129</v>
       </c>
       <c r="N161" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O161" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>2004</v>
       </c>
@@ -9481,19 +9484,19 @@
         <v>6</v>
       </c>
       <c r="L162" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="M162" t="s">
         <v>45</v>
       </c>
       <c r="N162" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O162" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>2004</v>
       </c>
@@ -9536,13 +9539,13 @@
         <v>65</v>
       </c>
       <c r="N163" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O163" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>2004</v>
       </c>
@@ -9585,13 +9588,13 @@
         <v>45</v>
       </c>
       <c r="N164" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O164" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>2004</v>
       </c>
@@ -9628,19 +9631,19 @@
         <v>6</v>
       </c>
       <c r="L165" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="M165" t="s">
         <v>129</v>
       </c>
       <c r="N165" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O165" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>2004</v>
       </c>
@@ -9677,19 +9680,19 @@
         <v>6</v>
       </c>
       <c r="L166" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="M166" t="s">
         <v>193</v>
       </c>
       <c r="N166" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O166" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>2004</v>
       </c>
@@ -9732,13 +9735,13 @@
         <v>98</v>
       </c>
       <c r="N167" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O167" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>2004</v>
       </c>
@@ -9775,19 +9778,19 @@
         <v>6</v>
       </c>
       <c r="L168" t="s">
+        <v>531</v>
+      </c>
+      <c r="M168" t="s">
         <v>532</v>
       </c>
-      <c r="M168" t="s">
-        <v>533</v>
-      </c>
       <c r="N168" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O168" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>2004</v>
       </c>
@@ -9830,13 +9833,13 @@
         <v>26</v>
       </c>
       <c r="N169" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O169" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>2005</v>
       </c>
@@ -9879,13 +9882,13 @@
         <v>28</v>
       </c>
       <c r="N170" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O170" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>2005</v>
       </c>
@@ -9928,13 +9931,13 @@
         <v>26</v>
       </c>
       <c r="N171" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O171" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>2005</v>
       </c>
@@ -9977,13 +9980,13 @@
         <v>66</v>
       </c>
       <c r="N172" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O172" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>2005</v>
       </c>
@@ -10026,13 +10029,13 @@
         <v>73</v>
       </c>
       <c r="N173" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O173" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>2005</v>
       </c>
@@ -10075,13 +10078,13 @@
         <v>135</v>
       </c>
       <c r="N174" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O174" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>2005</v>
       </c>
@@ -10124,13 +10127,13 @@
         <v>26</v>
       </c>
       <c r="N175" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O175" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>2005</v>
       </c>
@@ -10173,13 +10176,13 @@
         <v>123</v>
       </c>
       <c r="N176" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O176" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>2005</v>
       </c>
@@ -10222,13 +10225,13 @@
         <v>39</v>
       </c>
       <c r="N177" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O177" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>2005</v>
       </c>
@@ -10271,13 +10274,13 @@
         <v>139</v>
       </c>
       <c r="N178" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O178" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>2005</v>
       </c>
@@ -10320,13 +10323,13 @@
         <v>95</v>
       </c>
       <c r="N179" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O179" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>2005</v>
       </c>
@@ -10369,13 +10372,13 @@
         <v>102</v>
       </c>
       <c r="N180" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O180" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>2005</v>
       </c>
@@ -10418,13 +10421,13 @@
         <v>97</v>
       </c>
       <c r="N181" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O181" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>2005</v>
       </c>
@@ -10467,13 +10470,13 @@
         <v>144</v>
       </c>
       <c r="N182" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O182" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>2005</v>
       </c>
@@ -10516,13 +10519,13 @@
         <v>73</v>
       </c>
       <c r="N183" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O183" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>2005</v>
       </c>
@@ -10565,13 +10568,13 @@
         <v>147</v>
       </c>
       <c r="N184" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O184" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>2005</v>
       </c>
@@ -10614,13 +10617,13 @@
         <v>132</v>
       </c>
       <c r="N185" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O185" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>2005</v>
       </c>
@@ -10663,13 +10666,13 @@
         <v>71</v>
       </c>
       <c r="N186" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O186" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>2005</v>
       </c>
@@ -10712,13 +10715,13 @@
         <v>43</v>
       </c>
       <c r="N187" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O187" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>2005</v>
       </c>
@@ -10761,13 +10764,13 @@
         <v>77</v>
       </c>
       <c r="N188" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O188" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>2005</v>
       </c>
@@ -10810,13 +10813,13 @@
         <v>152</v>
       </c>
       <c r="N189" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O189" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>2005</v>
       </c>
@@ -10859,13 +10862,13 @@
         <v>61</v>
       </c>
       <c r="N190" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O190" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>2005</v>
       </c>
@@ -10908,13 +10911,13 @@
         <v>108</v>
       </c>
       <c r="N191" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O191" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>2005</v>
       </c>
@@ -10957,13 +10960,13 @@
         <v>206</v>
       </c>
       <c r="N192" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O192" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>2005</v>
       </c>
@@ -11006,13 +11009,13 @@
         <v>49</v>
       </c>
       <c r="N193" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O193" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>2005</v>
       </c>
@@ -11049,19 +11052,19 @@
         <v>6</v>
       </c>
       <c r="L194" t="s">
+        <v>533</v>
+      </c>
+      <c r="M194" t="s">
         <v>534</v>
       </c>
-      <c r="M194" t="s">
-        <v>535</v>
-      </c>
       <c r="N194" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O194" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>2005</v>
       </c>
@@ -11104,13 +11107,13 @@
         <v>49</v>
       </c>
       <c r="N195" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O195" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>2005</v>
       </c>
@@ -11153,13 +11156,13 @@
         <v>98</v>
       </c>
       <c r="N196" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O196" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>2005</v>
       </c>
@@ -11196,19 +11199,19 @@
         <v>8</v>
       </c>
       <c r="L197" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="M197" t="s">
         <v>61</v>
       </c>
       <c r="N197" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O197" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>2005</v>
       </c>
@@ -11245,19 +11248,19 @@
         <v>8</v>
       </c>
       <c r="L198" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="M198" t="s">
         <v>71</v>
       </c>
       <c r="N198" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O198" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>2005</v>
       </c>
@@ -11294,19 +11297,19 @@
         <v>6</v>
       </c>
       <c r="L199" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="M199" t="s">
         <v>135</v>
       </c>
       <c r="N199" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O199" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>2005</v>
       </c>
@@ -11343,19 +11346,19 @@
         <v>6</v>
       </c>
       <c r="L200" t="s">
+        <v>538</v>
+      </c>
+      <c r="M200" t="s">
         <v>539</v>
       </c>
-      <c r="M200" t="s">
-        <v>540</v>
-      </c>
       <c r="N200" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O200" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>2005</v>
       </c>
@@ -11398,13 +11401,13 @@
         <v>62</v>
       </c>
       <c r="N201" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O201" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>2005</v>
       </c>
@@ -11447,13 +11450,13 @@
         <v>49</v>
       </c>
       <c r="N202" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O202" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>2005</v>
       </c>
@@ -11496,13 +11499,13 @@
         <v>49</v>
       </c>
       <c r="N203" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O203" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>2005</v>
       </c>
@@ -11539,19 +11542,19 @@
         <v>8</v>
       </c>
       <c r="L204" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="M204" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N204" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O204" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>2005</v>
       </c>
@@ -11588,19 +11591,19 @@
         <v>8</v>
       </c>
       <c r="L205" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="M205" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="N205" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O205" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>2005</v>
       </c>
@@ -11643,13 +11646,13 @@
         <v>28</v>
       </c>
       <c r="N206" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O206" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>2005</v>
       </c>
@@ -11686,19 +11689,19 @@
         <v>6</v>
       </c>
       <c r="L207" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="M207" t="s">
         <v>71</v>
       </c>
       <c r="N207" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O207" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>2005</v>
       </c>
@@ -11735,19 +11738,19 @@
         <v>6</v>
       </c>
       <c r="L208" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M208" t="s">
         <v>45</v>
       </c>
       <c r="N208" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O208" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>2005</v>
       </c>
@@ -11784,19 +11787,19 @@
         <v>6</v>
       </c>
       <c r="L209" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="M209" t="s">
         <v>376</v>
       </c>
       <c r="N209" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O209" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>2005</v>
       </c>
@@ -11833,19 +11836,19 @@
         <v>8</v>
       </c>
       <c r="L210" t="s">
+        <v>545</v>
+      </c>
+      <c r="M210" t="s">
         <v>546</v>
       </c>
-      <c r="M210" t="s">
-        <v>547</v>
-      </c>
       <c r="N210" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O210" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>2005</v>
       </c>
@@ -11882,19 +11885,19 @@
         <v>8</v>
       </c>
       <c r="L211" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="M211" t="s">
         <v>65</v>
       </c>
       <c r="N211" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O211" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>2005</v>
       </c>
@@ -11937,13 +11940,13 @@
         <v>95</v>
       </c>
       <c r="N212" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O212" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>2005</v>
       </c>
@@ -11980,19 +11983,19 @@
         <v>8</v>
       </c>
       <c r="L213" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="M213" t="s">
         <v>66</v>
       </c>
       <c r="N213" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O213" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>2005</v>
       </c>
@@ -12029,19 +12032,19 @@
         <v>13</v>
       </c>
       <c r="L214" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="M214" t="s">
         <v>65</v>
       </c>
       <c r="N214" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O214" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>2006</v>
       </c>
@@ -12090,7 +12093,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>2006</v>
       </c>
@@ -12139,7 +12142,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>2006</v>
       </c>
@@ -12188,7 +12191,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>2006</v>
       </c>
@@ -12237,7 +12240,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>2006</v>
       </c>
@@ -12286,7 +12289,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>2006</v>
       </c>
@@ -12335,7 +12338,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>2006</v>
       </c>
@@ -12384,7 +12387,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>2006</v>
       </c>
@@ -12433,7 +12436,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>2006</v>
       </c>
@@ -12482,7 +12485,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>2006</v>
       </c>
@@ -12531,7 +12534,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>2006</v>
       </c>
@@ -12580,7 +12583,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>2006</v>
       </c>
@@ -12629,7 +12632,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>2006</v>
       </c>
@@ -12678,7 +12681,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>2006</v>
       </c>
@@ -12727,7 +12730,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>2006</v>
       </c>
@@ -12776,7 +12779,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>2006</v>
       </c>
@@ -12825,7 +12828,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>2006</v>
       </c>
@@ -12874,7 +12877,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>2006</v>
       </c>
@@ -12923,7 +12926,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>2006</v>
       </c>
@@ -12972,7 +12975,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>2006</v>
       </c>
@@ -13021,7 +13024,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>2006</v>
       </c>
@@ -13070,7 +13073,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>2006</v>
       </c>
@@ -13119,7 +13122,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>2006</v>
       </c>
@@ -13168,7 +13171,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>2006</v>
       </c>
@@ -13217,7 +13220,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>2006</v>
       </c>
@@ -13266,7 +13269,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>2006</v>
       </c>
@@ -13315,7 +13318,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>2006</v>
       </c>
@@ -13364,7 +13367,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>2006</v>
       </c>
@@ -13413,7 +13416,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>2006</v>
       </c>
@@ -13462,7 +13465,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>2006</v>
       </c>
@@ -13511,7 +13514,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>2006</v>
       </c>
@@ -13560,7 +13563,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>2006</v>
       </c>
@@ -13609,7 +13612,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>2006</v>
       </c>
@@ -13658,7 +13661,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>2006</v>
       </c>
@@ -13707,7 +13710,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>2006</v>
       </c>
@@ -13756,7 +13759,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>2006</v>
       </c>
@@ -13805,7 +13808,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>2006</v>
       </c>
@@ -13854,7 +13857,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>2006</v>
       </c>
@@ -13903,7 +13906,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>2006</v>
       </c>
@@ -13952,7 +13955,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>2006</v>
       </c>
@@ -14001,7 +14004,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>2006</v>
       </c>
@@ -14050,7 +14053,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>2006</v>
       </c>
@@ -14099,7 +14102,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>2006</v>
       </c>
@@ -14148,7 +14151,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>2006</v>
       </c>
@@ -14197,7 +14200,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>2006</v>
       </c>
@@ -14246,7 +14249,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>2006</v>
       </c>
@@ -14295,7 +14298,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>2006</v>
       </c>
@@ -14344,7 +14347,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>2006</v>
       </c>
@@ -14393,7 +14396,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>2006</v>
       </c>
@@ -14442,7 +14445,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>2006</v>
       </c>
@@ -14491,7 +14494,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>2006</v>
       </c>
@@ -14540,7 +14543,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>2006</v>
       </c>
@@ -14589,7 +14592,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>2006</v>
       </c>
@@ -14638,7 +14641,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>2006</v>
       </c>
@@ -14687,7 +14690,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>2006</v>
       </c>
@@ -14736,7 +14739,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>2006</v>
       </c>
@@ -14785,7 +14788,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>2006</v>
       </c>
@@ -14834,7 +14837,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>2006</v>
       </c>
@@ -14883,7 +14886,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>2006</v>
       </c>
@@ -14932,7 +14935,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>2006</v>
       </c>
@@ -14981,7 +14984,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>2006</v>
       </c>
@@ -15030,7 +15033,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>2006</v>
       </c>
@@ -15079,7 +15082,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>2006</v>
       </c>
@@ -15128,7 +15131,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>2006</v>
       </c>
@@ -15177,7 +15180,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>2007</v>
       </c>
@@ -15226,7 +15229,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>2007</v>
       </c>
@@ -15275,7 +15278,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>2007</v>
       </c>
@@ -15324,7 +15327,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>2007</v>
       </c>
@@ -15373,7 +15376,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>2007</v>
       </c>
@@ -15422,7 +15425,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>2007</v>
       </c>
@@ -15471,7 +15474,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>2007</v>
       </c>
@@ -15520,7 +15523,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>2007</v>
       </c>
@@ -15569,7 +15572,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>2007</v>
       </c>
@@ -15618,7 +15621,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>2007</v>
       </c>
@@ -15667,7 +15670,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>2007</v>
       </c>
@@ -15716,7 +15719,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>2007</v>
       </c>
@@ -15765,7 +15768,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>2007</v>
       </c>
@@ -15814,7 +15817,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>2007</v>
       </c>
@@ -15863,7 +15866,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>2007</v>
       </c>
@@ -15912,7 +15915,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>2007</v>
       </c>
@@ -15961,7 +15964,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>2007</v>
       </c>
@@ -16010,7 +16013,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>2007</v>
       </c>
@@ -16059,7 +16062,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>2007</v>
       </c>
@@ -16108,7 +16111,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>2007</v>
       </c>
@@ -16157,7 +16160,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>2007</v>
       </c>
@@ -16206,7 +16209,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>2008</v>
       </c>
@@ -16255,7 +16258,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>2008</v>
       </c>
@@ -16304,7 +16307,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>2008</v>
       </c>
@@ -16353,7 +16356,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>2008</v>
       </c>
@@ -16402,7 +16405,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>2008</v>
       </c>
@@ -16451,7 +16454,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>2008</v>
       </c>
@@ -16500,7 +16503,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>2008</v>
       </c>
@@ -16549,7 +16552,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>2008</v>
       </c>
@@ -16598,7 +16601,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>2008</v>
       </c>
@@ -16647,7 +16650,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>2008</v>
       </c>
@@ -16696,7 +16699,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>2008</v>
       </c>
@@ -16745,7 +16748,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>2008</v>
       </c>
@@ -16794,7 +16797,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>2008</v>
       </c>
@@ -16843,7 +16846,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>2008</v>
       </c>
@@ -16892,7 +16895,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>2008</v>
       </c>
@@ -16941,7 +16944,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>2008</v>
       </c>
@@ -16990,7 +16993,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>2008</v>
       </c>
@@ -17039,7 +17042,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>2008</v>
       </c>
@@ -17088,7 +17091,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>2008</v>
       </c>
@@ -17137,7 +17140,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>2008</v>
       </c>
@@ -17186,7 +17189,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>2008</v>
       </c>
@@ -17235,7 +17238,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>2008</v>
       </c>
@@ -17284,7 +17287,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>2008</v>
       </c>
@@ -17333,7 +17336,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>2008</v>
       </c>
@@ -17382,7 +17385,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>2008</v>
       </c>
@@ -17419,7 +17422,7 @@
         <v>6</v>
       </c>
       <c r="L324" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="M324" t="s">
         <v>95</v>
@@ -17431,7 +17434,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>2008</v>
       </c>
@@ -17480,7 +17483,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>2008</v>
       </c>
@@ -17529,7 +17532,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>2008</v>
       </c>
@@ -17578,7 +17581,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>2008</v>
       </c>
@@ -17627,7 +17630,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>2009</v>
       </c>
@@ -17676,7 +17679,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>2009</v>
       </c>
@@ -17725,7 +17728,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>2009</v>
       </c>
@@ -17774,7 +17777,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>2009</v>
       </c>
@@ -17823,7 +17826,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>2009</v>
       </c>
@@ -17872,7 +17875,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>2009</v>
       </c>
@@ -17921,7 +17924,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>2009</v>
       </c>
@@ -17970,7 +17973,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>2009</v>
       </c>
@@ -18019,7 +18022,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>2009</v>
       </c>
@@ -18068,7 +18071,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>2009</v>
       </c>
@@ -18117,7 +18120,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>2009</v>
       </c>
@@ -18166,7 +18169,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>2009</v>
       </c>
@@ -18215,7 +18218,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>2009</v>
       </c>
@@ -18264,7 +18267,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>2009</v>
       </c>
@@ -18313,7 +18316,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>2009</v>
       </c>
@@ -18350,7 +18353,7 @@
         <v>8</v>
       </c>
       <c r="L343" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="M343" t="s">
         <v>33</v>
@@ -18362,7 +18365,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>2009</v>
       </c>
@@ -18411,7 +18414,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>2009</v>
       </c>
@@ -18460,7 +18463,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>2009</v>
       </c>
@@ -18509,7 +18512,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>2009</v>
       </c>
@@ -18558,7 +18561,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>2009</v>
       </c>
@@ -18607,7 +18610,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>2009</v>
       </c>
@@ -18656,7 +18659,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>2009</v>
       </c>
@@ -18705,7 +18708,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>2009</v>
       </c>
@@ -18754,7 +18757,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>2009</v>
       </c>
@@ -18803,7 +18806,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>2009</v>
       </c>
@@ -18852,7 +18855,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>2009</v>
       </c>
@@ -18901,7 +18904,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>2009</v>
       </c>
@@ -18950,7 +18953,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>2009</v>
       </c>
@@ -18999,7 +19002,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>2009</v>
       </c>
@@ -19048,7 +19051,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>2009</v>
       </c>
@@ -19097,7 +19100,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>2009</v>
       </c>
@@ -19146,7 +19149,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>2009</v>
       </c>
@@ -19195,7 +19198,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>2009</v>
       </c>
@@ -19244,7 +19247,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>2009</v>
       </c>
@@ -19293,7 +19296,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>2009</v>
       </c>
@@ -19342,7 +19345,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>2009</v>
       </c>
@@ -19391,7 +19394,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>2009</v>
       </c>
@@ -19440,7 +19443,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>2009</v>
       </c>
@@ -19489,7 +19492,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>2009</v>
       </c>
@@ -19538,7 +19541,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>2009</v>
       </c>
@@ -19587,7 +19590,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>2009</v>
       </c>
@@ -19636,7 +19639,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>2009</v>
       </c>
@@ -19685,7 +19688,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>2009</v>
       </c>
@@ -19734,7 +19737,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>2009</v>
       </c>
@@ -19783,7 +19786,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>2009</v>
       </c>
@@ -19832,7 +19835,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>2009</v>
       </c>
@@ -19881,7 +19884,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>2009</v>
       </c>
@@ -19930,7 +19933,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>2009</v>
       </c>
@@ -19979,7 +19982,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>2009</v>
       </c>
@@ -20028,7 +20031,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>2009</v>
       </c>
@@ -20077,7 +20080,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>2009</v>
       </c>
@@ -20126,7 +20129,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>2009</v>
       </c>
@@ -20163,7 +20166,7 @@
         <v>8</v>
       </c>
       <c r="L380" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="M380" t="s">
         <v>269</v>
@@ -20175,7 +20178,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>2009</v>
       </c>
@@ -20224,7 +20227,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>2009</v>
       </c>
@@ -20273,7 +20276,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>2009</v>
       </c>
@@ -20322,7 +20325,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>2009</v>
       </c>
@@ -20371,7 +20374,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>2009</v>
       </c>
@@ -20420,7 +20423,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="386" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>2010</v>
       </c>
@@ -20469,7 +20472,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="387" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>2010</v>
       </c>
@@ -20518,7 +20521,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="388" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>2010</v>
       </c>
@@ -20567,7 +20570,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="389" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>2010</v>
       </c>
@@ -20616,7 +20619,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="390" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>2010</v>
       </c>
@@ -20665,7 +20668,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>2010</v>
       </c>
@@ -20714,7 +20717,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="392" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>2010</v>
       </c>
@@ -20763,7 +20766,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="393" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>2010</v>
       </c>
@@ -20812,7 +20815,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>2010</v>
       </c>
@@ -20861,7 +20864,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="395" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>2010</v>
       </c>
@@ -20910,7 +20913,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="396" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>2010</v>
       </c>
@@ -20947,7 +20950,7 @@
         <v>8</v>
       </c>
       <c r="L396" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="M396" t="s">
         <v>280</v>
@@ -20959,7 +20962,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="397" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>2010</v>
       </c>
@@ -21008,7 +21011,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="398" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>2010</v>
       </c>
@@ -21057,7 +21060,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="399" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>2010</v>
       </c>
@@ -21106,7 +21109,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="400" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>2010</v>
       </c>
@@ -21155,7 +21158,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="401" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>2010</v>
       </c>
@@ -21204,7 +21207,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="402" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>2010</v>
       </c>
@@ -21253,7 +21256,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="403" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>2010</v>
       </c>
@@ -21302,7 +21305,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="404" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>2010</v>
       </c>
@@ -21351,7 +21354,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="405" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>2010</v>
       </c>
@@ -21400,7 +21403,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="406" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>2010</v>
       </c>
@@ -21449,7 +21452,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="407" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>2010</v>
       </c>
@@ -21498,7 +21501,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="408" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>2010</v>
       </c>
@@ -21547,7 +21550,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="409" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>2010</v>
       </c>
@@ -21596,7 +21599,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="410" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>2010</v>
       </c>
@@ -21633,7 +21636,7 @@
         <v>6</v>
       </c>
       <c r="L410" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="M410" t="s">
         <v>33</v>
@@ -21645,7 +21648,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="411" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>2010</v>
       </c>
@@ -21694,7 +21697,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="412" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>2010</v>
       </c>
@@ -21743,7 +21746,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="413" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>2010</v>
       </c>
@@ -21792,7 +21795,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="414" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>2010</v>
       </c>
@@ -21841,7 +21844,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="415" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>2010</v>
       </c>
@@ -21890,7 +21893,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="416" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>2010</v>
       </c>
@@ -21939,7 +21942,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="417" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>2010</v>
       </c>
@@ -21988,7 +21991,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="418" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>2010</v>
       </c>
@@ -22037,7 +22040,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="419" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>2010</v>
       </c>
@@ -22086,7 +22089,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="420" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>2010</v>
       </c>
@@ -22135,7 +22138,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="421" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>2010</v>
       </c>
@@ -22184,7 +22187,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="422" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>2010</v>
       </c>
@@ -22233,7 +22236,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="423" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>2010</v>
       </c>
@@ -22282,7 +22285,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="424" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>2010</v>
       </c>
@@ -22331,7 +22334,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="425" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>2010</v>
       </c>
@@ -22380,7 +22383,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="426" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>2010</v>
       </c>
@@ -22429,7 +22432,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="427" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>2010</v>
       </c>
@@ -22478,7 +22481,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="428" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>2010</v>
       </c>
@@ -22527,7 +22530,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="429" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>2010</v>
       </c>
@@ -22576,7 +22579,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="430" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>2010</v>
       </c>
@@ -22625,7 +22628,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="431" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>2010</v>
       </c>
@@ -22674,7 +22677,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="432" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>2010</v>
       </c>
@@ -22723,7 +22726,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="433" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>2010</v>
       </c>
@@ -22772,7 +22775,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="434" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>2010</v>
       </c>
@@ -22821,7 +22824,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="435" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>2010</v>
       </c>
@@ -22870,7 +22873,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="436" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>2010</v>
       </c>
@@ -22919,7 +22922,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="437" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>2010</v>
       </c>
@@ -22968,7 +22971,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="438" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>2010</v>
       </c>
@@ -23017,7 +23020,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="439" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>2010</v>
       </c>
@@ -23066,7 +23069,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="440" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>2010</v>
       </c>
@@ -23115,7 +23118,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="441" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>2011</v>
       </c>
@@ -23164,7 +23167,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="442" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>2011</v>
       </c>
@@ -23213,7 +23216,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="443" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>2011</v>
       </c>
@@ -23262,7 +23265,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="444" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>2011</v>
       </c>
@@ -23311,7 +23314,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="445" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>2011</v>
       </c>
@@ -23360,7 +23363,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="446" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>2011</v>
       </c>
@@ -23409,7 +23412,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="447" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>2011</v>
       </c>
@@ -23458,7 +23461,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="448" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>2011</v>
       </c>
@@ -23507,7 +23510,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="449" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>2011</v>
       </c>
@@ -23556,7 +23559,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="450" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>2011</v>
       </c>
@@ -23605,7 +23608,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="451" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>2011</v>
       </c>
@@ -23654,7 +23657,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="452" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>2011</v>
       </c>
@@ -23703,7 +23706,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="453" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>2011</v>
       </c>
@@ -23752,7 +23755,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="454" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>2011</v>
       </c>
@@ -23801,7 +23804,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="455" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>2011</v>
       </c>
@@ -23850,7 +23853,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="456" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>2011</v>
       </c>
@@ -23899,7 +23902,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="457" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>2011</v>
       </c>
@@ -23948,7 +23951,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="458" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>2011</v>
       </c>
@@ -23997,7 +24000,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="459" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>2011</v>
       </c>
@@ -24034,7 +24037,7 @@
         <v>6</v>
       </c>
       <c r="L459" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="M459" t="s">
         <v>112</v>
@@ -24046,7 +24049,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="460" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>2011</v>
       </c>
@@ -24095,7 +24098,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="461" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>2011</v>
       </c>
@@ -24144,7 +24147,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="462" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>2011</v>
       </c>
@@ -24193,7 +24196,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="463" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>2011</v>
       </c>
@@ -24242,7 +24245,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="464" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>2012</v>
       </c>
@@ -24291,7 +24294,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="465" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>2012</v>
       </c>
@@ -24340,7 +24343,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="466" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>2012</v>
       </c>
@@ -24389,7 +24392,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="467" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>2012</v>
       </c>
@@ -24438,7 +24441,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="468" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>2012</v>
       </c>
@@ -24487,7 +24490,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="469" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>2012</v>
       </c>
@@ -24536,7 +24539,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="470" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>2012</v>
       </c>
@@ -24585,7 +24588,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="471" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>2012</v>
       </c>
@@ -24634,7 +24637,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="472" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>2012</v>
       </c>
@@ -24683,7 +24686,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="473" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>2012</v>
       </c>
@@ -24732,7 +24735,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="474" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>2012</v>
       </c>
@@ -24781,7 +24784,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="475" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>2012</v>
       </c>
@@ -24830,7 +24833,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="476" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>2012</v>
       </c>
@@ -24879,7 +24882,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="477" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>2012</v>
       </c>
@@ -24928,7 +24931,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="478" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>2012</v>
       </c>
@@ -24977,7 +24980,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="479" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>2012</v>
       </c>
@@ -25026,7 +25029,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="480" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>2012</v>
       </c>
@@ -25075,7 +25078,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="481" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>2012</v>
       </c>
@@ -25124,7 +25127,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="482" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>2012</v>
       </c>
@@ -25173,7 +25176,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="483" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>2012</v>
       </c>
@@ -25222,7 +25225,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="484" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>2012</v>
       </c>
@@ -25271,7 +25274,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="485" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>2012</v>
       </c>
@@ -25320,7 +25323,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="486" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>2012</v>
       </c>
@@ -25369,7 +25372,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="487" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>2012</v>
       </c>
@@ -25418,7 +25421,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="488" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>2012</v>
       </c>
@@ -25467,7 +25470,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="489" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>2012</v>
       </c>
@@ -25516,7 +25519,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="490" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>2012</v>
       </c>
@@ -25565,7 +25568,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="491" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>2012</v>
       </c>
@@ -25614,7 +25617,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="492" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>2012</v>
       </c>
@@ -25663,7 +25666,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="493" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>2012</v>
       </c>
@@ -25712,7 +25715,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="494" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>2012</v>
       </c>
@@ -25761,7 +25764,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="495" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>2013</v>
       </c>
@@ -25810,7 +25813,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="496" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>2013</v>
       </c>
@@ -25859,7 +25862,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="497" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>2013</v>
       </c>
@@ -25908,7 +25911,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="498" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>2013</v>
       </c>
@@ -25957,7 +25960,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="499" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>2013</v>
       </c>
@@ -26006,7 +26009,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="500" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>2013</v>
       </c>
@@ -26055,7 +26058,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="501" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>2013</v>
       </c>
@@ -26104,7 +26107,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="502" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>2013</v>
       </c>
@@ -26153,7 +26156,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="503" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>2013</v>
       </c>
@@ -26202,7 +26205,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="504" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>2013</v>
       </c>
@@ -26251,7 +26254,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="505" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>2013</v>
       </c>
@@ -26300,7 +26303,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="506" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>2013</v>
       </c>
@@ -26349,7 +26352,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="507" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>2013</v>
       </c>
@@ -26398,7 +26401,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="508" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>2013</v>
       </c>
@@ -26447,7 +26450,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="509" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>2013</v>
       </c>
@@ -26496,7 +26499,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="510" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>2013</v>
       </c>
@@ -26545,7 +26548,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="511" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>2013</v>
       </c>
@@ -26594,7 +26597,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="512" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>2013</v>
       </c>
@@ -26643,7 +26646,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="513" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>2013</v>
       </c>
@@ -26692,7 +26695,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="514" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>2013</v>
       </c>
@@ -26741,7 +26744,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="515" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>2013</v>
       </c>
@@ -26790,7 +26793,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="516" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>2013</v>
       </c>
@@ -26839,7 +26842,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="517" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>2013</v>
       </c>
@@ -26888,7 +26891,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="518" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>2013</v>
       </c>
@@ -26937,7 +26940,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="519" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>2013</v>
       </c>
@@ -26986,7 +26989,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="520" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>2013</v>
       </c>
@@ -27035,7 +27038,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="521" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>2013</v>
       </c>
@@ -27084,7 +27087,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="522" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>2013</v>
       </c>
@@ -27133,7 +27136,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="523" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>2013</v>
       </c>
@@ -27182,7 +27185,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="524" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>2013</v>
       </c>
@@ -27231,7 +27234,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="525" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>2013</v>
       </c>
@@ -27280,7 +27283,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="526" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>2013</v>
       </c>
@@ -27329,7 +27332,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="527" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>2013</v>
       </c>
@@ -27378,7 +27381,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="528" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>2013</v>
       </c>
@@ -27427,7 +27430,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="529" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>2013</v>
       </c>
@@ -27476,7 +27479,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="530" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>2013</v>
       </c>
@@ -27525,7 +27528,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="531" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>2013</v>
       </c>
@@ -27574,7 +27577,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="532" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>2013</v>
       </c>
@@ -27623,7 +27626,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="533" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>2013</v>
       </c>
@@ -27672,7 +27675,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="534" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>2013</v>
       </c>
@@ -27721,7 +27724,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="535" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>2013</v>
       </c>
@@ -27770,7 +27773,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="536" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>2013</v>
       </c>
@@ -27819,7 +27822,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="537" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>2013</v>
       </c>
@@ -27868,7 +27871,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="538" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>2013</v>
       </c>
@@ -27917,7 +27920,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="539" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>2013</v>
       </c>
@@ -27966,7 +27969,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="540" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>2013</v>
       </c>
@@ -28003,7 +28006,7 @@
         <v>8</v>
       </c>
       <c r="L540" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="M540" t="s">
         <v>220</v>
@@ -28015,7 +28018,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="541" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>2013</v>
       </c>
@@ -28064,7 +28067,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="542" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>2014</v>
       </c>
@@ -28113,7 +28116,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="543" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>2014</v>
       </c>
@@ -28162,7 +28165,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="544" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>2014</v>
       </c>
@@ -28211,7 +28214,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="545" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>2014</v>
       </c>
@@ -28260,7 +28263,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="546" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>2014</v>
       </c>
@@ -28309,7 +28312,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="547" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>2014</v>
       </c>
@@ -28358,7 +28361,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="548" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>2014</v>
       </c>
@@ -28407,7 +28410,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="549" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>2014</v>
       </c>
@@ -28456,7 +28459,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="550" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A550">
         <v>2014</v>
       </c>
@@ -28505,7 +28508,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="551" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>2015</v>
       </c>
@@ -28554,7 +28557,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="552" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A552">
         <v>2015</v>
       </c>
@@ -28603,7 +28606,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="553" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>2015</v>
       </c>
@@ -28652,7 +28655,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="554" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A554">
         <v>2015</v>
       </c>
@@ -28701,7 +28704,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="555" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A555">
         <v>2015</v>
       </c>
@@ -28750,7 +28753,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="556" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A556">
         <v>2015</v>
       </c>
@@ -28799,7 +28802,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="557" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A557">
         <v>2015</v>
       </c>
@@ -28848,7 +28851,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="558" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A558">
         <v>2015</v>
       </c>
@@ -28897,7 +28900,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="559" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A559">
         <v>2015</v>
       </c>
@@ -28946,7 +28949,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="560" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A560">
         <v>2015</v>
       </c>
@@ -28995,7 +28998,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="561" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A561">
         <v>2015</v>
       </c>
@@ -29044,7 +29047,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="562" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A562">
         <v>2015</v>
       </c>
@@ -29093,7 +29096,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="563" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A563">
         <v>2015</v>
       </c>
@@ -29142,7 +29145,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="564" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A564">
         <v>2015</v>
       </c>
@@ -29191,7 +29194,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="565" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A565">
         <v>2015</v>
       </c>
@@ -29240,7 +29243,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="566" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A566">
         <v>2016</v>
       </c>
@@ -29289,7 +29292,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="567" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A567">
         <v>2016</v>
       </c>
@@ -29338,7 +29341,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="568" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A568">
         <v>2016</v>
       </c>
@@ -29387,7 +29390,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="569" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A569">
         <v>2016</v>
       </c>
@@ -29436,7 +29439,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="570" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A570">
         <v>2016</v>
       </c>
@@ -29485,7 +29488,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="571" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A571">
         <v>2016</v>
       </c>
@@ -29534,7 +29537,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="572" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A572">
         <v>2016</v>
       </c>
@@ -29583,7 +29586,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="573" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A573">
         <v>2016</v>
       </c>
@@ -29632,7 +29635,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="574" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A574">
         <v>2016</v>
       </c>
@@ -29681,7 +29684,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="575" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A575">
         <v>2016</v>
       </c>
@@ -29730,7 +29733,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="576" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A576">
         <v>2016</v>
       </c>
@@ -29779,7 +29782,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="577" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A577">
         <v>2016</v>
       </c>
@@ -29828,7 +29831,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="578" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A578">
         <v>2016</v>
       </c>
@@ -29877,7 +29880,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="579" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A579">
         <v>2017</v>
       </c>
@@ -29926,7 +29929,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="580" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A580">
         <v>2017</v>
       </c>
@@ -29975,7 +29978,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="581" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A581">
         <v>2017</v>
       </c>
@@ -30024,7 +30027,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="582" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A582">
         <v>2017</v>
       </c>
@@ -30073,7 +30076,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="583" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A583">
         <v>2017</v>
       </c>
@@ -30122,7 +30125,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="584" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A584">
         <v>2017</v>
       </c>
@@ -30171,7 +30174,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="585" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A585">
         <v>2017</v>
       </c>
@@ -30220,7 +30223,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="586" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A586">
         <v>2017</v>
       </c>
@@ -30269,7 +30272,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="587" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A587">
         <v>2017</v>
       </c>
@@ -30318,7 +30321,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="588" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A588">
         <v>2017</v>
       </c>
@@ -30367,7 +30370,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="589" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A589">
         <v>2017</v>
       </c>
@@ -30416,7 +30419,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="590" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A590">
         <v>2017</v>
       </c>
@@ -30465,7 +30468,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="591" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A591">
         <v>2017</v>
       </c>
@@ -30514,7 +30517,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="592" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A592">
         <v>2017</v>
       </c>
@@ -30563,7 +30566,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="593" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A593">
         <v>2017</v>
       </c>
@@ -30612,7 +30615,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="594" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A594">
         <v>2017</v>
       </c>
@@ -30661,7 +30664,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="595" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A595">
         <v>2017</v>
       </c>
@@ -30710,7 +30713,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="596" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A596">
         <v>2017</v>
       </c>
@@ -30759,7 +30762,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="597" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A597">
         <v>2017</v>
       </c>
@@ -30808,7 +30811,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="598" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A598">
         <v>2017</v>
       </c>
@@ -30857,7 +30860,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="599" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A599">
         <v>2017</v>
       </c>
@@ -30906,7 +30909,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="600" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A600">
         <v>2017</v>
       </c>
@@ -30955,7 +30958,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="601" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A601">
         <v>2017</v>
       </c>
@@ -31004,7 +31007,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="602" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A602">
         <v>2017</v>
       </c>
@@ -31053,7 +31056,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="603" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A603">
         <v>2017</v>
       </c>
@@ -31102,7 +31105,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="604" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A604">
         <v>2017</v>
       </c>
@@ -31151,7 +31154,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="605" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A605">
         <v>2017</v>
       </c>
@@ -31200,7 +31203,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="606" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A606">
         <v>2017</v>
       </c>
@@ -31249,7 +31252,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="607" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A607">
         <v>2017</v>
       </c>
@@ -31298,7 +31301,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="608" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A608">
         <v>2017</v>
       </c>
@@ -31347,7 +31350,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="609" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A609">
         <v>2017</v>
       </c>
@@ -31396,7 +31399,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="610" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A610">
         <v>2017</v>
       </c>
@@ -31445,7 +31448,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="611" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A611">
         <v>2017</v>
       </c>
@@ -31494,7 +31497,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="612" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A612">
         <v>2017</v>
       </c>
@@ -31543,7 +31546,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="613" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A613">
         <v>2017</v>
       </c>
@@ -31592,7 +31595,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="614" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A614">
         <v>2017</v>
       </c>
@@ -31641,7 +31644,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="615" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A615">
         <v>2017</v>
       </c>
@@ -31690,7 +31693,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="616" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A616">
         <v>2017</v>
       </c>
@@ -31739,7 +31742,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="617" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A617">
         <v>2017</v>
       </c>
@@ -31788,7 +31791,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="618" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A618">
         <v>2017</v>
       </c>
@@ -31837,7 +31840,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="619" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A619">
         <v>2017</v>
       </c>
@@ -31886,7 +31889,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="620" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A620">
         <v>2017</v>
       </c>
@@ -31935,7 +31938,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="621" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A621">
         <v>2017</v>
       </c>
@@ -31984,7 +31987,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="622" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A622">
         <v>2017</v>
       </c>
@@ -32033,7 +32036,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="623" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A623">
         <v>2018</v>
       </c>
@@ -32082,7 +32085,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="624" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A624">
         <v>2018</v>
       </c>
@@ -32131,7 +32134,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="625" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A625">
         <v>2018</v>
       </c>
@@ -32180,7 +32183,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="626" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A626">
         <v>2018</v>
       </c>
@@ -32229,7 +32232,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="627" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A627">
         <v>2018</v>
       </c>
@@ -32278,7 +32281,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="628" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A628">
         <v>2018</v>
       </c>
@@ -32327,7 +32330,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="629" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A629">
         <v>2018</v>
       </c>
@@ -32376,7 +32379,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="630" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A630">
         <v>2018</v>
       </c>
@@ -32425,7 +32428,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="631" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A631">
         <v>2018</v>
       </c>
@@ -32474,7 +32477,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="632" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A632">
         <v>2018</v>
       </c>
@@ -32523,7 +32526,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="633" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A633">
         <v>2018</v>
       </c>
@@ -32572,7 +32575,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="634" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A634">
         <v>2018</v>
       </c>
@@ -32621,7 +32624,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="635" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A635">
         <v>2018</v>
       </c>
@@ -32670,7 +32673,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="636" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A636">
         <v>2018</v>
       </c>
@@ -32719,7 +32722,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="637" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A637">
         <v>2018</v>
       </c>
@@ -32768,7 +32771,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="638" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A638">
         <v>2018</v>
       </c>
@@ -32817,7 +32820,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="639" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A639">
         <v>2018</v>
       </c>
@@ -32866,7 +32869,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="640" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A640">
         <v>2018</v>
       </c>
@@ -32915,7 +32918,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="641" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A641">
         <v>2019</v>
       </c>
@@ -32964,7 +32967,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="642" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A642">
         <v>2019</v>
       </c>
@@ -33013,7 +33016,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="643" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A643">
         <v>2019</v>
       </c>
@@ -33062,7 +33065,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="644" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A644">
         <v>2019</v>
       </c>
@@ -33111,7 +33114,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="645" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A645">
         <v>2019</v>
       </c>
@@ -33160,7 +33163,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="646" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A646">
         <v>2019</v>
       </c>
@@ -33209,7 +33212,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="647" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A647">
         <v>2019</v>
       </c>
@@ -33258,7 +33261,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="648" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A648">
         <v>2019</v>
       </c>
@@ -33307,7 +33310,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="649" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A649">
         <v>2019</v>
       </c>
@@ -33356,7 +33359,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="650" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A650">
         <v>2019</v>
       </c>
@@ -33405,7 +33408,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="651" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A651">
         <v>2019</v>
       </c>
@@ -33454,7 +33457,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="652" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A652">
         <v>2019</v>
       </c>
@@ -33503,7 +33506,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="653" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A653">
         <v>2019</v>
       </c>
@@ -33552,7 +33555,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="654" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A654">
         <v>2020</v>
       </c>
@@ -33601,7 +33604,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="655" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A655">
         <v>2020</v>
       </c>
@@ -33650,7 +33653,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="656" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A656">
         <v>2020</v>
       </c>
@@ -33699,7 +33702,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="657" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A657">
         <v>2020</v>
       </c>
@@ -33748,7 +33751,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="658" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A658">
         <v>2020</v>
       </c>
@@ -33797,7 +33800,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="659" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A659">
         <v>2020</v>
       </c>
@@ -33846,7 +33849,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="660" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A660">
         <v>2020</v>
       </c>
@@ -33895,7 +33898,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="661" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A661">
         <v>2020</v>
       </c>
@@ -33944,7 +33947,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="662" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A662">
         <v>2020</v>
       </c>
@@ -33993,7 +33996,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="663" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A663">
         <v>2020</v>
       </c>
@@ -34042,7 +34045,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="664" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A664">
         <v>2020</v>
       </c>
@@ -34091,7 +34094,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="665" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A665">
         <v>2020</v>
       </c>
@@ -34140,7 +34143,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="666" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A666">
         <v>2020</v>
       </c>
@@ -34189,7 +34192,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="667" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A667">
         <v>2020</v>
       </c>
@@ -34238,7 +34241,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="668" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A668">
         <v>2021</v>
       </c>
@@ -34287,7 +34290,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="669" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A669">
         <v>2021</v>
       </c>
@@ -34336,7 +34339,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="670" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A670">
         <v>2021</v>
       </c>
@@ -34385,7 +34388,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="671" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A671">
         <v>2021</v>
       </c>
@@ -34434,7 +34437,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="672" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A672">
         <v>2021</v>
       </c>
@@ -34483,7 +34486,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="673" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A673">
         <v>2021</v>
       </c>
@@ -34532,7 +34535,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="674" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A674">
         <v>2021</v>
       </c>
@@ -34581,7 +34584,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="675" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A675">
         <v>2021</v>
       </c>
@@ -34630,7 +34633,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="676" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A676">
         <v>2021</v>
       </c>
@@ -34679,7 +34682,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="677" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A677">
         <v>2021</v>
       </c>
@@ -34728,7 +34731,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="678" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A678">
         <v>2021</v>
       </c>
@@ -34777,7 +34780,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="679" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A679">
         <v>2021</v>
       </c>
@@ -34826,7 +34829,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="680" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A680">
         <v>2021</v>
       </c>
@@ -34875,7 +34878,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="681" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A681">
         <v>2021</v>
       </c>
@@ -34924,7 +34927,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="682" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A682">
         <v>2021</v>
       </c>
@@ -34973,7 +34976,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="683" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A683">
         <v>2021</v>
       </c>
@@ -35022,7 +35025,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="684" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A684">
         <v>2021</v>
       </c>
@@ -35071,7 +35074,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="685" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A685">
         <v>2021</v>
       </c>
@@ -35120,7 +35123,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="686" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A686">
         <v>2021</v>
       </c>
@@ -35160,7 +35163,7 @@
         <v>487</v>
       </c>
       <c r="M686" t="s">
-        <v>488</v>
+        <v>561</v>
       </c>
       <c r="N686" t="s">
         <v>127</v>
@@ -35169,7 +35172,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="687" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A687">
         <v>2021</v>
       </c>
@@ -35206,7 +35209,7 @@
         <v>8</v>
       </c>
       <c r="L687" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="M687" t="s">
         <v>418</v>
@@ -35218,7 +35221,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="688" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A688">
         <v>2021</v>
       </c>
@@ -35255,7 +35258,7 @@
         <v>8</v>
       </c>
       <c r="L688" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="M688" t="s">
         <v>475</v>
@@ -35267,7 +35270,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="689" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A689">
         <v>2021</v>
       </c>
@@ -35304,10 +35307,10 @@
         <v>6</v>
       </c>
       <c r="L689" t="s">
+        <v>489</v>
+      </c>
+      <c r="M689" t="s">
         <v>490</v>
-      </c>
-      <c r="M689" t="s">
-        <v>491</v>
       </c>
       <c r="N689" t="s">
         <v>127</v>
@@ -35316,7 +35319,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="690" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A690">
         <v>2021</v>
       </c>
@@ -35353,7 +35356,7 @@
         <v>8</v>
       </c>
       <c r="L690" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="M690" t="s">
         <v>418</v>
@@ -35365,7 +35368,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="691" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A691">
         <v>2021</v>
       </c>
@@ -35402,11 +35405,11 @@
         <v>8</v>
       </c>
       <c r="L691" t="s">
+        <v>489</v>
+      </c>
+      <c r="M691" t="s">
         <v>490</v>
       </c>
-      <c r="M691" t="s">
-        <v>491</v>
-      </c>
       <c r="N691" t="s">
         <v>24</v>
       </c>
@@ -35414,7 +35417,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="692" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A692">
         <v>2021</v>
       </c>
@@ -35451,7 +35454,7 @@
         <v>8</v>
       </c>
       <c r="L692" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="M692" t="s">
         <v>105</v>
@@ -35463,7 +35466,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="693" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A693">
         <v>2021</v>
       </c>
@@ -35500,7 +35503,7 @@
         <v>6</v>
       </c>
       <c r="L693" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="M693" t="s">
         <v>132</v>
@@ -35512,7 +35515,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="694" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A694">
         <v>2021</v>
       </c>
@@ -35561,7 +35564,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="695" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A695">
         <v>2021</v>
       </c>
@@ -35610,7 +35613,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="696" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A696">
         <v>2021</v>
       </c>
@@ -35647,7 +35650,7 @@
         <v>8</v>
       </c>
       <c r="L696" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="M696" t="s">
         <v>216</v>
@@ -35659,7 +35662,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="697" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A697">
         <v>2021</v>
       </c>
@@ -35696,10 +35699,10 @@
         <v>6</v>
       </c>
       <c r="L697" t="s">
+        <v>495</v>
+      </c>
+      <c r="M697" t="s">
         <v>496</v>
-      </c>
-      <c r="M697" t="s">
-        <v>497</v>
       </c>
       <c r="N697" t="s">
         <v>127</v>
@@ -35708,7 +35711,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="698" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A698">
         <v>2021</v>
       </c>
@@ -35745,7 +35748,7 @@
         <v>8</v>
       </c>
       <c r="L698" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="M698" t="s">
         <v>479</v>
@@ -35757,7 +35760,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="699" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A699">
         <v>2021</v>
       </c>
@@ -35806,7 +35809,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="700" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A700">
         <v>2021</v>
       </c>
@@ -35843,7 +35846,7 @@
         <v>6</v>
       </c>
       <c r="L700" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M700" t="s">
         <v>301</v>
@@ -35855,7 +35858,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="701" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A701">
         <v>2021</v>
       </c>
@@ -35892,7 +35895,7 @@
         <v>8</v>
       </c>
       <c r="L701" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M701" t="s">
         <v>418</v>
@@ -35904,7 +35907,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="702" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A702">
         <v>2021</v>
       </c>
@@ -35953,7 +35956,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="703" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A703">
         <v>2021</v>
       </c>
@@ -36002,7 +36005,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="704" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A704">
         <v>2022</v>
       </c>
@@ -36038,7 +36041,7 @@
         <v>13</v>
       </c>
       <c r="L704" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="M704" t="s">
         <v>418</v>
@@ -36050,7 +36053,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="705" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A705">
         <v>2022</v>
       </c>
@@ -36099,7 +36102,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="706" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A706">
         <v>2022</v>
       </c>
@@ -36136,7 +36139,7 @@
         <v>6</v>
       </c>
       <c r="L706" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="M706" t="s">
         <v>418</v>
@@ -36148,7 +36151,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="707" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A707">
         <v>2022</v>
       </c>
@@ -36185,7 +36188,7 @@
         <v>8</v>
       </c>
       <c r="L707" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M707" t="s">
         <v>216</v>
@@ -36197,7 +36200,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="708" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A708">
         <v>2022</v>
       </c>
@@ -36246,7 +36249,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="709" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A709">
         <v>2022</v>
       </c>
@@ -36295,7 +36298,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="710" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A710">
         <v>2023</v>
       </c>
@@ -36344,7 +36347,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="711" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A711">
         <v>2023</v>
       </c>
@@ -36393,7 +36396,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="712" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A712">
         <v>2023</v>
       </c>
@@ -36442,7 +36445,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="713" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A713">
         <v>2023</v>
       </c>
@@ -36479,7 +36482,7 @@
         <v>8</v>
       </c>
       <c r="L713" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="M713" t="s">
         <v>455</v>
@@ -36491,7 +36494,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="714" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A714">
         <v>2023</v>
       </c>
@@ -36540,7 +36543,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="715" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A715">
         <v>2023</v>
       </c>
@@ -36577,10 +36580,10 @@
         <v>8</v>
       </c>
       <c r="L715" t="s">
+        <v>504</v>
+      </c>
+      <c r="M715" t="s">
         <v>505</v>
-      </c>
-      <c r="M715" t="s">
-        <v>506</v>
       </c>
       <c r="N715" t="s">
         <v>127</v>
@@ -36589,7 +36592,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="716" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A716">
         <v>2023</v>
       </c>
@@ -36626,10 +36629,10 @@
         <v>8</v>
       </c>
       <c r="L716" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="M716" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="N716" t="s">
         <v>127</v>
@@ -36638,7 +36641,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="717" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A717">
         <v>2023</v>
       </c>
@@ -36687,7 +36690,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="718" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A718">
         <v>2023</v>
       </c>
@@ -36724,7 +36727,7 @@
         <v>8</v>
       </c>
       <c r="L718" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="M718" t="s">
         <v>414</v>
@@ -36736,7 +36739,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="719" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A719">
         <v>2023</v>
       </c>
@@ -36785,7 +36788,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="720" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A720">
         <v>2023</v>
       </c>
@@ -36822,7 +36825,7 @@
         <v>8</v>
       </c>
       <c r="L720" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="M720" t="s">
         <v>418</v>
@@ -36834,7 +36837,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="721" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A721">
         <v>2023</v>
       </c>
@@ -36883,7 +36886,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="722" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A722">
         <v>2023</v>
       </c>
@@ -36920,7 +36923,7 @@
         <v>8</v>
       </c>
       <c r="L722" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="M722" t="s">
         <v>401</v>
@@ -36932,7 +36935,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="723" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A723">
         <v>2023</v>
       </c>
@@ -36969,10 +36972,10 @@
         <v>8</v>
       </c>
       <c r="L723" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="M723" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="N723" t="s">
         <v>127</v>
@@ -36981,7 +36984,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="724" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A724">
         <v>2023</v>
       </c>
@@ -37018,7 +37021,7 @@
         <v>6</v>
       </c>
       <c r="L724" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="M724" t="s">
         <v>76</v>
@@ -37030,7 +37033,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="725" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A725">
         <v>2023</v>
       </c>
@@ -37067,7 +37070,7 @@
         <v>8</v>
       </c>
       <c r="L725" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="M725" t="s">
         <v>418</v>
@@ -37079,7 +37082,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="726" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A726">
         <v>2023</v>
       </c>
@@ -37128,7 +37131,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="727" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A727">
         <v>2023</v>
       </c>
@@ -37165,7 +37168,7 @@
         <v>6</v>
       </c>
       <c r="L727" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="M727" t="s">
         <v>418</v>
@@ -37177,7 +37180,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="728" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A728">
         <v>2023</v>
       </c>
@@ -37214,10 +37217,10 @@
         <v>6</v>
       </c>
       <c r="L728" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="M728" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="N728" t="s">
         <v>24</v>
@@ -37226,7 +37229,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="729" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A729">
         <v>2023</v>
       </c>
@@ -37262,7 +37265,7 @@
         <v>8</v>
       </c>
       <c r="L729" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="M729" t="s">
         <v>93</v>
@@ -37274,7 +37277,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="730" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A730">
         <v>2023</v>
       </c>
@@ -37322,7 +37325,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="731" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A731">
         <v>2023</v>
       </c>
@@ -37370,7 +37373,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="732" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A732">
         <v>2023</v>
       </c>
@@ -37406,7 +37409,7 @@
         <v>8</v>
       </c>
       <c r="L732" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M732" t="s">
         <v>276</v>
@@ -37418,7 +37421,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="733" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A733">
         <v>2023</v>
       </c>
@@ -37454,7 +37457,7 @@
         <v>6</v>
       </c>
       <c r="L733" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="M733" t="s">
         <v>216</v>
@@ -37466,7 +37469,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="734" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A734">
         <v>2023</v>
       </c>
@@ -37495,14 +37498,14 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="J734" s="6">
-        <f t="shared" ref="J734:J736" si="28">D734+I734</f>
+        <f t="shared" ref="J734:J737" si="28">D734+I734</f>
         <v>45168.791666666664</v>
       </c>
       <c r="K734" t="s">
         <v>8</v>
       </c>
       <c r="L734" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M734" t="s">
         <v>423</v>
@@ -37514,7 +37517,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="735" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A735">
         <v>2023</v>
       </c>
@@ -37550,7 +37553,7 @@
         <v>8</v>
       </c>
       <c r="L735" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M735" t="s">
         <v>361</v>
@@ -37562,7 +37565,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="736" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A736">
         <v>2023</v>
       </c>
@@ -37590,9 +37593,72 @@
       <c r="I736" s="2">
         <v>0.25</v>
       </c>
-      <c r="J736" s="2">
+      <c r="J736" s="6">
         <f t="shared" si="28"/>
         <v>45171.25</v>
+      </c>
+      <c r="K736" t="s">
+        <v>6</v>
+      </c>
+      <c r="L736" t="s">
+        <v>71</v>
+      </c>
+      <c r="M736" t="s">
+        <v>71</v>
+      </c>
+      <c r="N736" t="s">
+        <v>24</v>
+      </c>
+      <c r="O736" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="737" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A737">
+        <v>2023</v>
+      </c>
+      <c r="B737">
+        <v>2</v>
+      </c>
+      <c r="C737">
+        <v>27</v>
+      </c>
+      <c r="D737" s="1">
+        <v>45175</v>
+      </c>
+      <c r="E737" s="1">
+        <v>44810</v>
+      </c>
+      <c r="F737" s="4">
+        <v>32.6</v>
+      </c>
+      <c r="G737" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H737" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="I737" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="J737" s="6">
+        <f t="shared" si="28"/>
+        <v>45175.833333333336</v>
+      </c>
+      <c r="K737" t="s">
+        <v>8</v>
+      </c>
+      <c r="L737" t="s">
+        <v>560</v>
+      </c>
+      <c r="M737" t="s">
+        <v>561</v>
+      </c>
+      <c r="N737" t="s">
+        <v>127</v>
+      </c>
+      <c r="O737" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
